--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="176">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -549,13 +549,16 @@
   </si>
   <si>
     <t>Est.</t>
+  </si>
+  <si>
+    <t>Invited</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,13 +574,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -592,15 +625,435 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -783,6 +1236,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1057,127 +1515,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:O163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="57.140625" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="57.140625" customWidth="1"/>
+    <col min="12" max="12" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
         <v>138</v>
       </c>
       <c r="C1">
-        <f>SUM(D5:D160)</f>
+        <f ca="1">SUMIF(C5:C250,"=1",E6:E250)</f>
+        <v>130</v>
+      </c>
+      <c r="D1">
+        <f>SUM(E5:E160)</f>
         <v>263</v>
       </c>
-      <c r="D1">
-        <f>SUMIF(C6:C250,"&gt;1",D6:D250)</f>
+      <c r="E1">
+        <f>SUMIF(D6:D250,"&gt;1",E6:E250)</f>
         <v>215</v>
       </c>
-      <c r="E1">
-        <f>SUMIF(C6:C250,"&gt;2",D6:D250)</f>
+      <c r="F1">
+        <f>SUMIF(D6:D250,"&gt;2",E6:E250)</f>
         <v>177</v>
       </c>
-      <c r="F1">
-        <f>SUMIF(C6:C250,"&gt;3",D6:D250)</f>
+      <c r="G1">
+        <f>SUMIF(D6:D250,"&gt;3",E6:E250)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>174</v>
       </c>
-      <c r="C3">
-        <f>SUM(F6:F212)</f>
-        <v>170.30000000000007</v>
-      </c>
       <c r="D3">
-        <f>SUM(G:G)</f>
-        <v>136.09999999999994</v>
+        <f>SUM(G6:G212)</f>
+        <v>183.90000000000009</v>
       </c>
       <c r="E3">
         <f>SUM(H:H)</f>
-        <v>109.9999999999999</v>
+        <v>136.09999999999994</v>
       </c>
       <c r="F3">
         <f>SUM(I:I)</f>
+        <v>109.9999999999999</v>
+      </c>
+      <c r="G3">
+        <f>SUM(J:J)</f>
         <v>86.499999999999915</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>100</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>101</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>103</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <f>SUM(F6:F11)</f>
+        <f>SUM(G6:G11)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1185,32 +1663,36 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <f>IF(D6=4, 1,0)</f>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="F6">
-        <f>E6*D6/100</f>
-        <v>2</v>
-      </c>
       <c r="G6">
-        <f>IF(C6&gt;1,F6,0)</f>
+        <f>F6*E6/100</f>
         <v>2</v>
       </c>
       <c r="H6">
-        <f>IF(C6&gt;2,F6,0)</f>
+        <f>IF(D6&gt;1,G6,0)</f>
         <v>2</v>
       </c>
       <c r="I6">
-        <f>IF(C6&gt;3,F6,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IF(D6&gt;2,G6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f>IF(D6&gt;3,G6,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1218,32 +1700,36 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <f t="shared" ref="C7:C70" si="0">IF(D7=4, 1,0)</f>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="F7">
-        <f>E7*D7/100</f>
-        <v>1</v>
-      </c>
       <c r="G7">
-        <f t="shared" ref="G7:G71" si="0">IF(C7&gt;1,F7,0)</f>
+        <f>F7*E7/100</f>
         <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H71" si="1">IF(C7&gt;2,F7,0)</f>
+        <f t="shared" ref="H7:H71" si="1">IF(D7&gt;1,G7,0)</f>
         <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I71" si="2">IF(C7&gt;3,F7,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I7:I71" si="2">IF(D7&gt;2,G7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J71" si="3">IF(D7&gt;3,G7,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1251,20 +1737,20 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F10" si="3">E8*D8/100</f>
-        <v>2</v>
-      </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G8:G10" si="4">F8*E8/100</f>
         <v>2</v>
       </c>
       <c r="H8">
@@ -1275,8 +1761,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1284,20 +1774,20 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H9">
@@ -1308,8 +1798,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1317,20 +1811,20 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>50</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H10">
@@ -1341,8 +1835,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1350,20 +1848,20 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>50</v>
       </c>
-      <c r="F11">
-        <f>E11*D11/100</f>
-        <v>1</v>
-      </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>F11*E11/100</f>
         <v>1</v>
       </c>
       <c r="H11">
@@ -1374,15 +1872,19 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="F12">
-        <f t="shared" ref="F12:F76" si="4">E12*D12/100</f>
+      <c r="C12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G12:G76" si="5">F12*E12/100</f>
         <v>0</v>
       </c>
       <c r="H12">
@@ -1393,21 +1895,25 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <f>SUM(F14:F43)</f>
+        <f>SUM(G14:G43)</f>
         <v>28</v>
       </c>
-      <c r="F13">
-        <f>E13*B13/100</f>
+      <c r="C13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>F13*B13/100</f>
         <v>0</v>
       </c>
       <c r="H13">
@@ -1418,8 +1924,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1427,20 +1937,20 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <v>50</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H14">
@@ -1451,8 +1961,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1460,20 +1974,20 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>50</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H15">
@@ -1484,8 +1998,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1493,20 +2011,20 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>50</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H16">
@@ -1517,8 +2035,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1526,32 +2048,36 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>25</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1559,32 +2085,36 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>25</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1592,20 +2122,20 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
         <v>50</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H19">
@@ -1616,8 +2146,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1625,20 +2159,20 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
         <v>25</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H20">
@@ -1649,8 +2183,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1658,20 +2196,20 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>25</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H21">
@@ -1682,8 +2220,12 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1691,20 +2233,20 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>50</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H22">
@@ -1715,8 +2257,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1724,20 +2270,20 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>50</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H23">
@@ -1748,8 +2294,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1757,20 +2307,20 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
         <v>25</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H24">
@@ -1781,8 +2331,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1790,20 +2344,20 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
         <v>50</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H25">
@@ -1814,8 +2368,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1823,20 +2381,20 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
         <v>50</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H26">
@@ -1847,8 +2405,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -1856,20 +2418,20 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
         <v>25</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H27">
@@ -1880,8 +2442,12 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -1889,20 +2455,20 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
         <v>25</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H28">
@@ -1913,8 +2479,12 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -1922,20 +2492,20 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
         <v>25</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H29">
@@ -1946,8 +2516,12 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -1955,20 +2529,20 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
         <v>25</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H30">
@@ -1979,8 +2553,12 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1988,20 +2566,20 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>25</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H31">
@@ -2012,8 +2590,12 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -2021,20 +2603,20 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>25</v>
       </c>
-      <c r="F32">
-        <f>E32*D32/100</f>
-        <v>0.5</v>
-      </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f>F32*E32/100</f>
         <v>0.5</v>
       </c>
       <c r="H32">
@@ -2045,8 +2627,12 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -2054,20 +2640,20 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
         <v>25</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H33">
@@ -2078,8 +2664,12 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -2087,20 +2677,20 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
         <v>25</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H34">
@@ -2111,8 +2701,12 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -2120,20 +2714,20 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
         <v>100</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H35">
@@ -2144,8 +2738,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -2153,20 +2751,20 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
         <v>100</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H36">
@@ -2177,8 +2775,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2186,20 +2788,20 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
         <v>50</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H37">
@@ -2210,8 +2812,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -2219,20 +2825,20 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
         <v>50</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H38">
@@ -2243,8 +2849,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -2252,20 +2862,20 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>100</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H39">
@@ -2276,8 +2886,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -2285,20 +2899,20 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
         <v>50</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H40">
@@ -2309,8 +2923,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -2318,20 +2936,20 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
         <v>50</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H41">
@@ -2342,8 +2960,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -2351,20 +2973,20 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>4</v>
       </c>
       <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
         <v>50</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H42">
@@ -2375,8 +2997,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -2384,20 +3010,20 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>50</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H43">
@@ -2408,15 +3034,19 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="F44">
-        <f t="shared" si="4"/>
+      <c r="C44">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H44">
@@ -2427,15 +3057,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
-      <c r="F45">
-        <f t="shared" si="4"/>
+      <c r="C45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H45">
@@ -2446,21 +3080,25 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B46">
-        <f>SUM(F47:F52)</f>
+        <f>SUM(G47:G52)</f>
         <v>1.5</v>
       </c>
-      <c r="F46">
-        <f>E46*B46/100</f>
+      <c r="C46">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f>F46*B46/100</f>
         <v>0</v>
       </c>
       <c r="H46">
@@ -2471,8 +3109,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -2480,35 +3122,39 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
         <v>25</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K47" t="s">
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2516,20 +3162,20 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H48">
@@ -2540,11 +3186,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K48" t="s">
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -2552,20 +3202,20 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H49">
@@ -2576,11 +3226,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K49" t="s">
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -2588,20 +3242,20 @@
         <v>1</v>
       </c>
       <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D50">
         <v>3</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
       <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
         <v>25</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H50">
@@ -2610,13 +3264,17 @@
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K50" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -2624,20 +3282,20 @@
         <v>1</v>
       </c>
       <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D51">
         <v>3</v>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
       <c r="E51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H51">
@@ -2648,11 +3306,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K51" t="s">
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2660,20 +3322,20 @@
         <v>1</v>
       </c>
       <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D52">
         <v>3</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
       <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
         <v>25</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H52">
@@ -2682,19 +3344,23 @@
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F53">
-        <f t="shared" si="4"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H53">
@@ -2705,21 +3371,25 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B54">
-        <f>SUM(F55:F61)</f>
+        <f>SUM(G55:G61)</f>
         <v>10</v>
       </c>
-      <c r="F54">
-        <f>E54*B54/100</f>
+      <c r="C54">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f>F54*B54/100</f>
         <v>0</v>
       </c>
       <c r="H54">
@@ -2730,8 +3400,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2739,20 +3413,20 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
         <v>100</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H55">
@@ -2763,8 +3437,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -2772,20 +3450,20 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
         <v>100</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H56">
@@ -2796,8 +3474,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2805,20 +3487,20 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
         <v>100</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H57">
@@ -2829,8 +3511,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -2838,20 +3524,20 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
         <v>100</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H58">
@@ -2862,8 +3548,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2871,20 +3561,20 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
         <v>100</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H59">
@@ -2895,8 +3585,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2904,20 +3598,20 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
         <v>100</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H60">
@@ -2928,8 +3622,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2937,20 +3635,20 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
         <v>100</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H61">
@@ -2961,14 +3659,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F62">
-        <f t="shared" si="4"/>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H62">
@@ -2979,21 +3681,25 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B63">
-        <f>SUM(F64:F96)</f>
+        <f>SUM(G64:G96)</f>
         <v>46.799999999999983</v>
       </c>
-      <c r="F63">
-        <f>E63*B63/100</f>
+      <c r="C63">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f>F63*B63/100</f>
         <v>0</v>
       </c>
       <c r="H63">
@@ -3004,8 +3710,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -3013,20 +3723,20 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
         <v>90</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
-      </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="H64">
@@ -3037,8 +3747,12 @@
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -3046,20 +3760,20 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
         <v>90</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
-      </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="H65">
@@ -3070,8 +3784,12 @@
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -3079,20 +3797,20 @@
         <v>1</v>
       </c>
       <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D66">
         <v>3</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
       <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
         <v>90</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="H66">
@@ -3101,13 +3819,17 @@
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K66" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -3115,20 +3837,20 @@
         <v>1</v>
       </c>
       <c r="C67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D67">
         <v>3</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
       <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
         <v>90</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
       <c r="G67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="H67">
@@ -3137,10 +3859,14 @@
       </c>
       <c r="I67">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -3148,20 +3874,20 @@
         <v>1</v>
       </c>
       <c r="C68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D68">
         <v>3</v>
       </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
       <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
         <v>90</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
-      </c>
       <c r="G68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="H68">
@@ -3170,10 +3896,14 @@
       </c>
       <c r="I68">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.8</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -3181,20 +3911,20 @@
         <v>1</v>
       </c>
       <c r="C69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D69">
         <v>3</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
       <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
         <v>90</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
       <c r="G69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="H69">
@@ -3203,10 +3933,14 @@
       </c>
       <c r="I69">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -3214,20 +3948,20 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
         <v>90</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
       <c r="G70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="H70">
@@ -3238,8 +3972,12 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -3247,32 +3985,36 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <f t="shared" ref="C71:C134" si="6">IF(D71=4, 1,0)</f>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
         <v>90</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
-      </c>
       <c r="G71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -3280,32 +4022,36 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
         <v>90</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
-      </c>
       <c r="G72">
-        <f t="shared" ref="G72:G97" si="5">IF(C72&gt;1,F72,0)</f>
+        <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="H72">
-        <f t="shared" ref="H72:H97" si="6">IF(C72&gt;2,F72,0)</f>
-        <v>0</v>
+        <f t="shared" ref="H72:H97" si="7">IF(D72&gt;1,G72,0)</f>
+        <v>1.8</v>
       </c>
       <c r="I72">
-        <f t="shared" ref="I72:I97" si="7">IF(C72&gt;3,F72,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I72:I97" si="8">IF(D72&gt;2,G72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J97" si="9">IF(D72&gt;3,G72,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -3313,32 +4059,36 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
         <v>90</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
       </c>
       <c r="G73">
         <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="H73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8</v>
       </c>
       <c r="I73">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -3346,32 +4096,36 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
         <v>90</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
       </c>
       <c r="G74">
         <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="H74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8</v>
       </c>
       <c r="I74">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -3379,32 +4133,36 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
         <v>90</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
       </c>
       <c r="G75">
         <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="H75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8</v>
       </c>
       <c r="I75">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -3412,32 +4170,36 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
         <v>90</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
       </c>
       <c r="G76">
         <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
       <c r="H76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8</v>
       </c>
       <c r="I76">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -3445,32 +4207,36 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
         <v>90</v>
       </c>
-      <c r="F77">
-        <f t="shared" ref="F77:F97" si="8">E77*D77/100</f>
+      <c r="G77">
+        <f t="shared" ref="G77:G97" si="10">F77*E77/100</f>
         <v>0.9</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
       <c r="H77">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-      <c r="I77">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -3478,263 +4244,295 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
         <v>90</v>
       </c>
-      <c r="F78">
+      <c r="G78">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>90</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>90</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>90</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="5"/>
+      <c r="J81">
+        <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="H78">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>90</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79">
-        <v>90</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="E80">
-        <v>90</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>90</v>
-      </c>
-      <c r="F81">
+        <v>0.9</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="5"/>
+      <c r="J82">
+        <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="H81">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
         <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>90</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="I81">
+      <c r="H83">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>90</v>
-      </c>
-      <c r="F82">
+      <c r="I83">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="G82">
-        <f t="shared" si="5"/>
+      <c r="J83">
+        <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="H82">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>90</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="I82">
+      <c r="H84">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>90</v>
-      </c>
-      <c r="F83">
+      <c r="I84">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="G83">
-        <f t="shared" si="5"/>
+      <c r="J84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>90</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="H83">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-      <c r="I83">
+      <c r="H85">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>90</v>
-      </c>
-      <c r="F84">
+      <c r="I85">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="G84">
-        <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>90</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -3742,32 +4540,36 @@
         <v>2</v>
       </c>
       <c r="C86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D86">
         <v>3</v>
       </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
       <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
         <v>90</v>
       </c>
-      <c r="F86">
+      <c r="G86">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
-      <c r="G86">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3775,32 +4577,36 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
         <v>90</v>
       </c>
-      <c r="F87">
+      <c r="G87">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -3808,32 +4614,36 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
         <v>90</v>
       </c>
-      <c r="F88">
+      <c r="G88">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -3841,32 +4651,36 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
         <v>90</v>
       </c>
-      <c r="F89">
+      <c r="G89">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -3874,32 +4688,36 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
         <v>90</v>
       </c>
-      <c r="F90">
+      <c r="G90">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -3907,32 +4725,36 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
         <v>90</v>
       </c>
-      <c r="F91">
+      <c r="G91">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I91">
         <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -3940,32 +4762,36 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
         <v>90</v>
       </c>
-      <c r="F92">
+      <c r="G92">
+        <f t="shared" si="10"/>
+        <v>3.6</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I92">
         <f t="shared" si="8"/>
-        <v>3.6</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -3973,32 +4799,36 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
         <v>90</v>
       </c>
-      <c r="F93">
+      <c r="G93">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I93">
         <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -4006,32 +4836,36 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
         <v>90</v>
       </c>
-      <c r="F94">
+      <c r="G94">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -4039,32 +4873,36 @@
         <v>2</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
         <v>90</v>
       </c>
-      <c r="F95">
+      <c r="G95">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I95">
         <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -4072,32 +4910,36 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
         <v>90</v>
       </c>
-      <c r="F96">
+      <c r="G96">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -4105,32 +4947,36 @@
         <v>2</v>
       </c>
       <c r="C97">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D97">
         <v>3</v>
       </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
       <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
         <v>90</v>
       </c>
-      <c r="F97">
+      <c r="G97">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
-      <c r="G97">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -4138,32 +4984,36 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
         <v>90</v>
       </c>
-      <c r="F98">
-        <f t="shared" ref="F98:F103" si="9">E98*D98/100</f>
-        <v>1.8</v>
-      </c>
       <c r="G98">
-        <f t="shared" ref="G98:G103" si="10">IF(C98&gt;1,F98,0)</f>
+        <f t="shared" ref="G98:G103" si="11">F98*E98/100</f>
         <v>1.8</v>
       </c>
       <c r="H98">
-        <f t="shared" ref="H98:H103" si="11">IF(C98&gt;2,F98,0)</f>
-        <v>0</v>
+        <f t="shared" ref="H98:H103" si="12">IF(D98&gt;1,G98,0)</f>
+        <v>1.8</v>
       </c>
       <c r="I98">
-        <f t="shared" ref="I98:I103" si="12">IF(C98&gt;3,F98,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I98:I103" si="13">IF(D98&gt;2,G98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ref="J98:J103" si="14">IF(D98&gt;3,G98,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -4171,32 +5021,36 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
         <v>90</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="9"/>
+      <c r="G99">
+        <f t="shared" si="11"/>
         <v>3.6</v>
       </c>
-      <c r="G99">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I99">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -4204,32 +5058,36 @@
         <v>2</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
         <v>90</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
       <c r="G100">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.8</v>
       </c>
       <c r="H100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I100">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -4237,32 +5095,36 @@
         <v>2</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
         <v>90</v>
       </c>
-      <c r="F101">
-        <f t="shared" si="9"/>
+      <c r="G101">
+        <f t="shared" si="11"/>
         <v>3.6</v>
       </c>
-      <c r="G101">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I101">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -4270,32 +5132,36 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
         <v>90</v>
       </c>
-      <c r="F102">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
       <c r="G102">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.8</v>
       </c>
       <c r="H102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I102">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -4303,75 +5169,87 @@
         <v>2</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
         <v>90</v>
       </c>
-      <c r="F103">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
       <c r="G103">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.8</v>
       </c>
       <c r="H103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I103">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F104">
-        <f t="shared" ref="F104:F136" si="13">E104*D104/100</f>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" ref="G104:G136" si="14">IF(C104&gt;1,F104,0)</f>
+        <f t="shared" ref="G104:G136" si="15">F104*E104/100</f>
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H104:H136" si="15">IF(C104&gt;2,F104,0)</f>
+        <f t="shared" ref="H104:H136" si="16">IF(D104&gt;1,G104,0)</f>
         <v>0</v>
       </c>
       <c r="I104">
-        <f t="shared" ref="I104:I136" si="16">IF(C104&gt;3,F104,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I104:I136" si="17">IF(D104&gt;2,G104,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <f t="shared" ref="J104:J136" si="18">IF(D104&gt;3,G104,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B105">
-        <f>SUM(F106:F126)</f>
+        <f>SUM(G106:G126)</f>
         <v>21.2</v>
       </c>
-      <c r="F105">
-        <f t="shared" si="13"/>
+      <c r="C105">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I105">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>137</v>
       </c>
@@ -4379,32 +5257,36 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
         <v>100</v>
       </c>
-      <c r="F106">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
       <c r="G106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I106">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -4412,32 +5294,36 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
         <v>80</v>
       </c>
-      <c r="F107">
-        <f t="shared" si="13"/>
-        <v>1.6</v>
-      </c>
       <c r="G107">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="H107">
         <f t="shared" si="15"/>
         <v>1.6</v>
       </c>
-      <c r="I107">
+      <c r="H107">
         <f t="shared" si="16"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -4445,32 +5331,36 @@
         <v>1</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
         <v>80</v>
       </c>
-      <c r="F108">
-        <f t="shared" si="13"/>
-        <v>1.6</v>
-      </c>
       <c r="G108">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="H108">
         <f t="shared" si="15"/>
         <v>1.6</v>
       </c>
-      <c r="I108">
+      <c r="H108">
         <f t="shared" si="16"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -4478,32 +5368,36 @@
         <v>1</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
         <v>80</v>
       </c>
-      <c r="F109">
-        <f t="shared" si="13"/>
-        <v>0.8</v>
-      </c>
       <c r="G109">
-        <f t="shared" si="14"/>
-        <v>0.8</v>
-      </c>
-      <c r="H109">
         <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-      <c r="I109">
+      <c r="H109">
         <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -4511,32 +5405,36 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
         <v>80</v>
       </c>
-      <c r="F110">
-        <f t="shared" si="13"/>
-        <v>1.6</v>
-      </c>
       <c r="G110">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="H110">
         <f t="shared" si="15"/>
         <v>1.6</v>
       </c>
-      <c r="I110">
+      <c r="H110">
         <f t="shared" si="16"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -4544,32 +5442,36 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
         <v>80</v>
       </c>
-      <c r="F111">
-        <f t="shared" si="13"/>
-        <v>1.6</v>
-      </c>
       <c r="G111">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="H111">
         <f t="shared" si="15"/>
         <v>1.6</v>
       </c>
-      <c r="I111">
+      <c r="H111">
         <f t="shared" si="16"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -4577,32 +5479,36 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
         <v>80</v>
       </c>
-      <c r="F112">
-        <f t="shared" si="13"/>
-        <v>1.6</v>
-      </c>
       <c r="G112">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="H112">
         <f t="shared" si="15"/>
         <v>1.6</v>
       </c>
-      <c r="I112">
+      <c r="H112">
         <f t="shared" si="16"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -4610,32 +5516,36 @@
         <v>1</v>
       </c>
       <c r="C113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D113">
         <v>3</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
       <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
         <v>80</v>
       </c>
-      <c r="F113">
-        <f t="shared" si="13"/>
-        <v>0.8</v>
-      </c>
       <c r="G113">
-        <f t="shared" si="14"/>
-        <v>0.8</v>
-      </c>
-      <c r="H113">
         <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
+      <c r="H113">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
+      </c>
       <c r="I113">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -4643,32 +5553,36 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
         <v>50</v>
       </c>
-      <c r="F114">
-        <f t="shared" si="13"/>
+      <c r="G114">
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
-      <c r="G114">
-        <f t="shared" si="14"/>
+      <c r="H114">
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="H114">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="I114">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -4676,32 +5590,36 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
         <v>50</v>
       </c>
-      <c r="F115">
-        <f t="shared" si="13"/>
+      <c r="G115">
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
-      <c r="G115">
-        <f t="shared" si="14"/>
+      <c r="H115">
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="H115">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="I115">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -4709,32 +5627,36 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
       <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
         <v>50</v>
       </c>
-      <c r="F116">
-        <f t="shared" si="13"/>
+      <c r="G116">
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
-      <c r="G116">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="H116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I116">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -4742,32 +5664,36 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
         <v>80</v>
       </c>
-      <c r="F117">
-        <f t="shared" si="13"/>
-        <v>1.6</v>
-      </c>
       <c r="G117">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="H117">
         <f t="shared" si="15"/>
         <v>1.6</v>
       </c>
-      <c r="I117">
+      <c r="H117">
         <f t="shared" si="16"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -4775,32 +5701,36 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
         <v>80</v>
       </c>
-      <c r="F118">
-        <f t="shared" si="13"/>
-        <v>1.6</v>
-      </c>
       <c r="G118">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="H118">
         <f t="shared" si="15"/>
         <v>1.6</v>
       </c>
-      <c r="I118">
+      <c r="H118">
         <f t="shared" si="16"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -4808,32 +5738,36 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
       <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
         <v>50</v>
       </c>
-      <c r="F119">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
       <c r="G119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H119">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="I119">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -4841,32 +5775,36 @@
         <v>1</v>
       </c>
       <c r="C120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D120">
         <v>3</v>
       </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
       <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
         <v>80</v>
       </c>
-      <c r="F120">
-        <f t="shared" si="13"/>
-        <v>0.8</v>
-      </c>
       <c r="G120">
-        <f t="shared" si="14"/>
-        <v>0.8</v>
-      </c>
-      <c r="H120">
         <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
+      <c r="H120">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
+      </c>
       <c r="I120">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -4874,32 +5812,36 @@
         <v>1</v>
       </c>
       <c r="C121">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D121">
         <v>3</v>
       </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
       <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
         <v>80</v>
       </c>
-      <c r="F121">
-        <f t="shared" si="13"/>
-        <v>1.6</v>
-      </c>
       <c r="G121">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="H121">
         <f t="shared" si="15"/>
         <v>1.6</v>
       </c>
+      <c r="H121">
+        <f t="shared" si="16"/>
+        <v>1.6</v>
+      </c>
       <c r="I121">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -4907,32 +5849,36 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
         <v>25</v>
       </c>
-      <c r="F122">
-        <f t="shared" si="13"/>
+      <c r="G122">
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
-      <c r="G122">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="H122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I122">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -4940,32 +5886,36 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
         <v>25</v>
       </c>
-      <c r="F123">
-        <f t="shared" si="13"/>
+      <c r="G123">
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
-      <c r="G123">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="H123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I123">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -4973,32 +5923,36 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
         <v>25</v>
       </c>
-      <c r="F124">
-        <f t="shared" si="13"/>
+      <c r="G124">
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
-      <c r="G124">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="H124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I124">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -5006,32 +5960,36 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
         <v>50</v>
       </c>
-      <c r="F125">
-        <f t="shared" si="13"/>
+      <c r="G125">
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
-      <c r="G125">
-        <f t="shared" si="14"/>
+      <c r="H125">
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="H125">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="I125">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -5039,32 +5997,36 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
       <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
         <v>50</v>
       </c>
-      <c r="F126">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
       <c r="G126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H126">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="I126">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -5072,32 +6034,36 @@
         <v>2</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
         <v>80</v>
       </c>
-      <c r="F127">
-        <f t="shared" si="13"/>
-        <v>1.6</v>
-      </c>
       <c r="G127">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="H127">
         <f t="shared" si="15"/>
         <v>1.6</v>
       </c>
-      <c r="I127">
+      <c r="H127">
         <f t="shared" si="16"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>146</v>
       </c>
@@ -5105,16 +6071,24 @@
         <v>2</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
         <v>80</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <f t="shared" si="15"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -5122,16 +6096,24 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
         <v>80</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <f t="shared" si="15"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>148</v>
       </c>
@@ -5139,16 +6121,24 @@
         <v>2</v>
       </c>
       <c r="C130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D130">
         <v>3</v>
       </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
       <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
         <v>80</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <f t="shared" si="15"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -5156,16 +6146,24 @@
         <v>2</v>
       </c>
       <c r="C131">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D131">
         <v>3</v>
       </c>
-      <c r="D131">
-        <v>2</v>
-      </c>
       <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
         <v>80</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <f t="shared" si="15"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>150</v>
       </c>
@@ -5173,16 +6171,24 @@
         <v>2</v>
       </c>
       <c r="C132">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D132">
         <v>3</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>6</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>80</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <f t="shared" si="15"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>151</v>
       </c>
@@ -5190,16 +6196,24 @@
         <v>2</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
         <v>80</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <f t="shared" si="15"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -5207,16 +6221,24 @@
         <v>2</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
         <v>80</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <f t="shared" si="15"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>153</v>
       </c>
@@ -5224,16 +6246,24 @@
         <v>2</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <f t="shared" ref="C135:C163" si="19">IF(D135=4, 1,0)</f>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
         <v>80</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <f t="shared" si="15"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>157</v>
       </c>
@@ -5241,32 +6271,36 @@
         <v>2</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
         <v>80</v>
       </c>
-      <c r="F136">
-        <f t="shared" si="13"/>
-        <v>0.8</v>
-      </c>
       <c r="G136">
-        <f t="shared" si="14"/>
-        <v>0.8</v>
-      </c>
-      <c r="H136">
         <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-      <c r="I136">
+      <c r="H136">
         <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -5274,32 +6308,36 @@
         <v>2</v>
       </c>
       <c r="C137">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D137">
         <v>3</v>
       </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
       <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
         <v>80</v>
       </c>
-      <c r="F137">
-        <f t="shared" ref="F137:F146" si="17">E137*D137/100</f>
+      <c r="G137">
+        <f t="shared" ref="G137:G146" si="20">F137*E137/100</f>
         <v>1.6</v>
       </c>
-      <c r="G137">
-        <f t="shared" ref="G137:G147" si="18">IF(C137&gt;1,F137,0)</f>
+      <c r="H137">
+        <f t="shared" ref="H137:H147" si="21">IF(D137&gt;1,G137,0)</f>
         <v>1.6</v>
       </c>
-      <c r="H137">
-        <f t="shared" ref="H137:H147" si="19">IF(C137&gt;2,F137,0)</f>
+      <c r="I137">
+        <f t="shared" ref="I137:I147" si="22">IF(D137&gt;2,G137,0)</f>
         <v>1.6</v>
       </c>
-      <c r="I137">
-        <f t="shared" ref="I137:I147" si="20">IF(C137&gt;3,F137,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137">
+        <f t="shared" ref="J137:J147" si="23">IF(D137&gt;3,G137,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -5307,32 +6345,36 @@
         <v>2</v>
       </c>
       <c r="C138">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D138">
         <v>3</v>
       </c>
-      <c r="D138">
-        <v>2</v>
-      </c>
       <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
         <v>80</v>
       </c>
-      <c r="F138">
-        <f t="shared" si="17"/>
+      <c r="G138">
+        <f t="shared" si="20"/>
         <v>1.6</v>
       </c>
-      <c r="G138">
-        <f t="shared" si="18"/>
+      <c r="H138">
+        <f t="shared" si="21"/>
         <v>1.6</v>
       </c>
-      <c r="H138">
-        <f t="shared" si="19"/>
+      <c r="I138">
+        <f t="shared" si="22"/>
         <v>1.6</v>
       </c>
-      <c r="I138">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -5340,32 +6382,36 @@
         <v>2</v>
       </c>
       <c r="C139">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D139">
         <v>3</v>
       </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
       <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
         <v>80</v>
       </c>
-      <c r="F139">
-        <f t="shared" si="17"/>
+      <c r="G139">
+        <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
-      <c r="G139">
-        <f t="shared" si="18"/>
+      <c r="H139">
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-      <c r="H139">
-        <f t="shared" si="19"/>
+      <c r="I139">
+        <f t="shared" si="22"/>
         <v>0.8</v>
       </c>
-      <c r="I139">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -5373,32 +6419,36 @@
         <v>2</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
         <v>80</v>
       </c>
-      <c r="F140">
-        <f t="shared" si="17"/>
+      <c r="G140">
+        <f t="shared" si="20"/>
         <v>1.6</v>
       </c>
-      <c r="G140">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="H140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I140">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -5406,32 +6456,36 @@
         <v>2</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
         <v>80</v>
       </c>
-      <c r="F141">
-        <f t="shared" si="17"/>
+      <c r="G141">
+        <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
-      <c r="G141">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="H141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I141">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -5439,32 +6493,36 @@
         <v>2</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>2</v>
       </c>
       <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
         <v>80</v>
       </c>
-      <c r="F142">
-        <f t="shared" si="17"/>
+      <c r="G142">
+        <f t="shared" si="20"/>
         <v>1.6</v>
       </c>
-      <c r="G142">
-        <f t="shared" si="18"/>
+      <c r="H142">
+        <f t="shared" si="21"/>
         <v>1.6</v>
       </c>
-      <c r="H142">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="I142">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -5472,32 +6530,36 @@
         <v>2</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
         <v>80</v>
       </c>
-      <c r="F143">
-        <f t="shared" si="17"/>
+      <c r="G143">
+        <f t="shared" si="20"/>
         <v>1.6</v>
       </c>
-      <c r="G143">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="H143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I143">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -5505,32 +6567,36 @@
         <v>2</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144">
         <v>80</v>
       </c>
-      <c r="F144">
-        <f t="shared" si="17"/>
+      <c r="G144">
+        <f t="shared" si="20"/>
         <v>1.6</v>
       </c>
-      <c r="G144">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="H144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I144">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -5538,32 +6604,36 @@
         <v>2</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
         <v>80</v>
       </c>
-      <c r="F145">
-        <f t="shared" si="17"/>
+      <c r="G145">
+        <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
-      <c r="G145">
-        <f t="shared" si="18"/>
+      <c r="H145">
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-      <c r="H145">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="I145">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -5571,32 +6641,36 @@
         <v>2</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
         <v>80</v>
       </c>
-      <c r="F146">
-        <f t="shared" si="17"/>
+      <c r="G146">
+        <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
-      <c r="G146">
-        <f t="shared" si="18"/>
+      <c r="H146">
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-      <c r="H146">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="I146">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>83</v>
       </c>
@@ -5604,71 +6678,83 @@
         <v>2</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
         <v>80</v>
       </c>
-      <c r="F147">
-        <f>E147*D147/100</f>
+      <c r="G147">
+        <f>F147*E147/100</f>
         <v>0.8</v>
       </c>
-      <c r="G147">
-        <f t="shared" si="18"/>
+      <c r="H147">
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-      <c r="H147">
+      <c r="I147">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C148">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I147">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F148">
-        <f t="shared" ref="F148:F163" si="21">E148*D148/100</f>
-        <v>0</v>
-      </c>
       <c r="G148">
-        <f t="shared" ref="G148:G163" si="22">IF(C148&gt;1,F148,0)</f>
+        <f t="shared" ref="G148:G163" si="24">F148*E148/100</f>
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" ref="H148:H163" si="23">IF(C148&gt;2,F148,0)</f>
+        <f t="shared" ref="H148:H163" si="25">IF(D148&gt;1,G148,0)</f>
         <v>0</v>
       </c>
       <c r="I148">
-        <f t="shared" ref="I148:I163" si="24">IF(C148&gt;3,F148,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I148:I163" si="26">IF(D148&gt;2,G148,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <f t="shared" ref="J148:J163" si="27">IF(D148&gt;3,G148,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F149">
-        <f t="shared" si="21"/>
+      <c r="C149">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I149">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>160</v>
       </c>
@@ -5676,32 +6762,36 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
         <v>50</v>
       </c>
-      <c r="F150">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
       <c r="G150">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="H150">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="I150">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -5709,32 +6799,36 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
         <v>80</v>
       </c>
-      <c r="F151">
-        <f t="shared" si="21"/>
-        <v>1.6</v>
-      </c>
       <c r="G151">
-        <f t="shared" si="22"/>
-        <v>1.6</v>
-      </c>
-      <c r="H151">
-        <f t="shared" si="23"/>
-        <v>1.6</v>
-      </c>
-      <c r="I151">
         <f t="shared" si="24"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <f t="shared" si="25"/>
+        <v>1.6</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="26"/>
+        <v>1.6</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="27"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -5742,32 +6836,36 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
         <v>90</v>
       </c>
-      <c r="F152">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
       <c r="G152">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8</v>
       </c>
       <c r="H152">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.8</v>
       </c>
       <c r="I152">
-        <f t="shared" si="24"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>1.8</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="27"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>163</v>
       </c>
@@ -5775,32 +6873,36 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
         <v>90</v>
       </c>
-      <c r="F153">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
       <c r="G153">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8</v>
       </c>
       <c r="H153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.8</v>
       </c>
       <c r="I153">
-        <f t="shared" si="24"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>1.8</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="27"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>164</v>
       </c>
@@ -5808,32 +6910,36 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
         <v>90</v>
       </c>
-      <c r="F154">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
       <c r="G154">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8</v>
       </c>
       <c r="H154">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.8</v>
       </c>
       <c r="I154">
-        <f t="shared" si="24"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>1.8</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="27"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>165</v>
       </c>
@@ -5841,32 +6947,36 @@
         <v>1</v>
       </c>
       <c r="C155">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D155">
         <v>3</v>
       </c>
-      <c r="D155">
-        <v>2</v>
-      </c>
       <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
         <v>90</v>
       </c>
-      <c r="F155">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
       <c r="G155">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8</v>
       </c>
       <c r="H155">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.8</v>
       </c>
       <c r="I155">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>1.8</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>166</v>
       </c>
@@ -5874,32 +6984,36 @@
         <v>1</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
         <v>90</v>
       </c>
-      <c r="F156">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
       <c r="G156">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8</v>
       </c>
       <c r="H156">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1.8</v>
       </c>
       <c r="I156">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>167</v>
       </c>
@@ -5907,32 +7021,36 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
         <v>90</v>
       </c>
-      <c r="F157">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
       <c r="G157">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8</v>
       </c>
       <c r="H157">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1.8</v>
       </c>
       <c r="I157">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -5940,32 +7058,36 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
         <v>50</v>
       </c>
-      <c r="F158">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
       <c r="G158">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="H158">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I158">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>169</v>
       </c>
@@ -5973,32 +7095,36 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
         <v>90</v>
       </c>
-      <c r="F159">
-        <f t="shared" si="21"/>
+      <c r="G159">
+        <f t="shared" si="24"/>
         <v>0.9</v>
       </c>
-      <c r="G159">
-        <f t="shared" si="22"/>
+      <c r="H159">
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="H159">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
       <c r="I159">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>170</v>
       </c>
@@ -6006,32 +7132,36 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160">
         <v>90</v>
       </c>
-      <c r="F160">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
       <c r="G160">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8</v>
       </c>
       <c r="H160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.8</v>
       </c>
       <c r="I160">
-        <f t="shared" si="24"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>1.8</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="27"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>171</v>
       </c>
@@ -6039,32 +7169,36 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D161">
         <v>2</v>
       </c>
       <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
         <v>90</v>
       </c>
-      <c r="F161">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
       <c r="G161">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8</v>
       </c>
       <c r="H161">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1.8</v>
       </c>
       <c r="I161">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>172</v>
       </c>
@@ -6072,32 +7206,36 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
         <v>90</v>
       </c>
-      <c r="F162">
-        <f t="shared" si="21"/>
+      <c r="G162">
+        <f t="shared" si="24"/>
         <v>0.9</v>
       </c>
-      <c r="G162">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
       <c r="H162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I162">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>173</v>
       </c>
@@ -6105,70 +7243,88 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="D163">
         <v>2</v>
       </c>
       <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
         <v>90</v>
       </c>
-      <c r="F163">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
       <c r="G163">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8</v>
       </c>
       <c r="H163">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1.8</v>
       </c>
       <c r="I163">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6:A12 A14:A45 A47:A53 A55:A56 A59:A62 A4 A64:A1048576">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>$B4=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>$B4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A58">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>$B59=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>$B59=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A13 A46 A54 A63">
-    <cfRule type="expression" dxfId="5" priority="14">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>#REF!=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="8" priority="19">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="7" priority="22">
       <formula>$B1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="6" priority="23">
       <formula>$B1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="1" priority="22">
-      <formula>$C1=2</formula>
+    <cfRule type="expression" dxfId="5" priority="26">
+      <formula>$D1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="23">
-      <formula>$C1=1</formula>
+    <cfRule type="expression" dxfId="4" priority="27">
+      <formula>$D1=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$D1=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$D1=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$D1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="178">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>Invited</t>
+  </si>
+  <si>
+    <t>CalcInv</t>
+  </si>
+  <si>
+    <t>1419 Santanna Dr. Lafeytte, IN 47905</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,7 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,19 +637,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="33">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -649,13 +712,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -847,34 +903,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="5"/>
@@ -911,148 +939,32 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1515,11 +1427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O163"/>
+  <dimension ref="A1:P163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,14 +1439,14 @@
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="57.140625" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="57.140625" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
         <v>4</v>
       </c>
       <c r="B1" t="s">
@@ -1542,7 +1454,7 @@
       </c>
       <c r="C1">
         <f ca="1">SUMIF(C5:C250,"=1",E6:E250)</f>
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D1">
         <f>SUM(E5:E160)</f>
@@ -1561,9 +1473,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D2" t="s">
         <v>104</v>
@@ -1578,12 +1493,16 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>174</v>
+      </c>
+      <c r="C3">
+        <f>SUM(K5:K250)</f>
+        <v>98.399999999999906</v>
       </c>
       <c r="D3">
         <f>SUM(G6:G212)</f>
@@ -1601,15 +1520,15 @@
         <f>SUM(J:J)</f>
         <v>86.499999999999915</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1640,22 +1559,25 @@
         <v>103</v>
       </c>
       <c r="K4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f>SUM(G6:G11)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1663,7 +1585,6 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <f>IF(D6=4, 1,0)</f>
         <v>1</v>
       </c>
       <c r="D6">
@@ -1691,8 +1612,15 @@
         <f>IF(D6&gt;3,G6,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>IF(C6=1,E6*F6/100,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1700,7 +1628,6 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C70" si="0">IF(D7=4, 1,0)</f>
         <v>1</v>
       </c>
       <c r="D7">
@@ -1717,19 +1644,23 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H71" si="1">IF(D7&gt;1,G7,0)</f>
+        <f t="shared" ref="H7:H71" si="0">IF(D7&gt;1,G7,0)</f>
         <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I71" si="2">IF(D7&gt;2,G7,0)</f>
+        <f t="shared" ref="I7:I71" si="1">IF(D7&gt;2,G7,0)</f>
         <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J71" si="3">IF(D7&gt;3,G7,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J7:J71" si="2">IF(D7&gt;3,G7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K70" si="3">IF(C7=1,E7*F7/100,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1668,6 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D8">
@@ -1754,19 +1684,23 @@
         <v>2</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1774,7 +1708,6 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9">
@@ -1791,19 +1724,23 @@
         <v>2</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1811,7 +1748,6 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D10">
@@ -1828,19 +1764,23 @@
         <v>1</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1848,7 +1788,6 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11">
@@ -1865,71 +1804,79 @@
         <v>1</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12">
+        <f t="shared" ref="C12:C62" si="5">IF(D12=4, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G76" si="6">F12*E12/100</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12">
-        <f t="shared" ref="G12:G76" si="5">F12*E12/100</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <f>SUM(G14:G43)</f>
         <v>28</v>
       </c>
-      <c r="C13">
+      <c r="G13">
+        <f>F13*C13/100</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13">
-        <f>F13*B13/100</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1937,7 +1884,6 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D14">
@@ -1950,23 +1896,27 @@
         <v>50</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1974,7 +1924,6 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D15">
@@ -1987,23 +1936,27 @@
         <v>50</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2011,7 +1964,6 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D16">
@@ -2024,23 +1976,27 @@
         <v>50</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2048,7 +2004,6 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17">
@@ -2061,541 +2016,588 @@
         <v>25</v>
       </c>
       <c r="G17">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I17">
+      <c r="J21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
         <v>25</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="5"/>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I18">
+      <c r="J27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>25</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>25</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="H21">
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I21">
+      <c r="J28">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="J21">
+      <c r="K28">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>50</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>50</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>25</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>25</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="H27">
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I27">
+      <c r="J29">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="J27">
+      <c r="K29">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>25</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="H28">
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I28">
+      <c r="J30">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="J28">
+      <c r="K30">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>25</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>25</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="H29">
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I29">
+      <c r="J31">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="J29">
+      <c r="K31">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>25</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>25</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -2603,7 +2605,6 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D32">
@@ -2620,19 +2621,23 @@
         <v>0.5</v>
       </c>
       <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -2640,7 +2645,6 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D33">
@@ -2653,23 +2657,27 @@
         <v>25</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -2677,7 +2685,6 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D34">
@@ -2690,23 +2697,27 @@
         <v>25</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -2714,7 +2725,6 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D35">
@@ -2727,23 +2737,27 @@
         <v>100</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -2751,7 +2765,6 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D36">
@@ -2764,23 +2777,27 @@
         <v>100</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2788,7 +2805,6 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D37">
@@ -2801,23 +2817,27 @@
         <v>50</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -2825,7 +2845,6 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D38">
@@ -2838,23 +2857,27 @@
         <v>50</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -2862,7 +2885,6 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D39">
@@ -2875,23 +2897,27 @@
         <v>100</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -2899,7 +2925,6 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D40">
@@ -2912,23 +2937,27 @@
         <v>50</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -2936,7 +2965,6 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D41">
@@ -2949,23 +2977,27 @@
         <v>50</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -2973,7 +3005,6 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D42">
@@ -2986,23 +3017,27 @@
         <v>50</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -3010,7 +3045,6 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D43">
@@ -3023,98 +3057,110 @@
         <v>50</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="C44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H44">
+      <c r="I44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H45">
+      <c r="I45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <f>SUM(G47:G52)</f>
         <v>1.5</v>
       </c>
-      <c r="C46">
+      <c r="G46">
+        <f>F46*C46/100</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46">
-        <f>F46*B46/100</f>
-        <v>0</v>
-      </c>
-      <c r="H46">
+      <c r="I46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3122,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D47">
@@ -3135,277 +3181,302 @@
         <v>25</v>
       </c>
       <c r="G47">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>25</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="H47">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I47">
+      <c r="J50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J47">
+      <c r="K50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="M50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H48">
+      <c r="I51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48">
+      <c r="J51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J48">
+      <c r="K51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
+      <c r="M51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50">
-        <v>25</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="H50">
+      <c r="I52">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I50">
+      <c r="J52">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J50">
+      <c r="M52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52">
-        <v>25</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <f>SUM(G55:G61)</f>
         <v>10</v>
       </c>
-      <c r="C54">
+      <c r="G54">
+        <f>F54*C54/100</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54">
-        <f>F54*B54/100</f>
-        <v>0</v>
-      </c>
-      <c r="H54">
+      <c r="I54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -3413,7 +3484,6 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D55">
@@ -3426,23 +3496,27 @@
         <v>100</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -3450,7 +3524,6 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D56">
@@ -3463,23 +3536,27 @@
         <v>100</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3487,7 +3564,6 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D57">
@@ -3500,23 +3576,27 @@
         <v>100</v>
       </c>
       <c r="G57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -3524,7 +3604,6 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D58">
@@ -3537,23 +3616,27 @@
         <v>100</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3561,7 +3644,6 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D59">
@@ -3574,23 +3656,27 @@
         <v>100</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3598,7 +3684,6 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D60">
@@ -3611,23 +3696,27 @@
         <v>100</v>
       </c>
       <c r="G60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3635,7 +3724,6 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D61">
@@ -3648,74 +3736,82 @@
         <v>100</v>
       </c>
       <c r="G61">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C62">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <f>SUM(G64:G96)</f>
         <v>46.799999999999983</v>
       </c>
-      <c r="C63">
+      <c r="G63">
+        <f>F63*C63/100</f>
+        <v>0</v>
+      </c>
+      <c r="H63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63">
-        <f>F63*B63/100</f>
-        <v>0</v>
-      </c>
-      <c r="H63">
+      <c r="I63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -3723,7 +3819,6 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D64">
@@ -3736,23 +3831,27 @@
         <v>90</v>
       </c>
       <c r="G64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="H64">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -3760,7 +3859,6 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D65">
@@ -3773,23 +3871,27 @@
         <v>90</v>
       </c>
       <c r="G65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="H65">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -3797,8 +3899,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3810,174 +3911,190 @@
         <v>90</v>
       </c>
       <c r="G66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
       <c r="H66">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="I66">
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="M66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>90</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>90</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="6"/>
+        <v>1.8</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>90</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>90</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="J66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>90</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68">
-        <v>90</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>3</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>90</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>90</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="J70">
+      <c r="K70">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -3985,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C134" si="6">IF(D71=4, 1,0)</f>
+        <f t="shared" ref="C71:C134" si="7">IF(D71=4, 1,0)</f>
         <v>0</v>
       </c>
       <c r="D71">
@@ -3998,23 +4115,27 @@
         <v>90</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="H71">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <f t="shared" ref="K71:K134" si="8">IF(C71=1,E71*F71/100,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -4022,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D72">
@@ -4035,23 +4156,27 @@
         <v>90</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="H72">
-        <f t="shared" ref="H72:H97" si="7">IF(D72&gt;1,G72,0)</f>
+        <f t="shared" ref="H72:H97" si="9">IF(D72&gt;1,G72,0)</f>
         <v>1.8</v>
       </c>
       <c r="I72">
-        <f t="shared" ref="I72:I97" si="8">IF(D72&gt;2,G72,0)</f>
+        <f t="shared" ref="I72:I97" si="10">IF(D72&gt;2,G72,0)</f>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J97" si="9">IF(D72&gt;3,G72,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J72:J97" si="11">IF(D72&gt;3,G72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -4059,7 +4184,6 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D73">
@@ -4072,23 +4196,27 @@
         <v>90</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="H73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
       <c r="I73">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="11"/>
+        <v>1.8</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
-      <c r="J73">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -4096,7 +4224,6 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D74">
@@ -4109,23 +4236,27 @@
         <v>90</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="H74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
       <c r="I74">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="11"/>
+        <v>1.8</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
-      <c r="J74">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -4133,7 +4264,6 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D75">
@@ -4146,23 +4276,27 @@
         <v>90</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="H75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
       <c r="I75">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>1.8</v>
+      </c>
+      <c r="K75">
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
-      <c r="J75">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -4170,7 +4304,6 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D76">
@@ -4183,23 +4316,27 @@
         <v>90</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="H76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
       <c r="I76">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>1.8</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
-      <c r="J76">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -4207,7 +4344,6 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D77">
@@ -4220,319 +4356,352 @@
         <v>90</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77:G97" si="10">F77*E77/100</f>
+        <f t="shared" ref="G77:G97" si="12">F77*E77/100</f>
         <v>0.9</v>
       </c>
       <c r="H77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
       <c r="I77">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="K77">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="J77">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>90</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
+      <c r="I78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
         <v>90</v>
       </c>
-      <c r="G78">
+      <c r="G79">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>90</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>90</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="H78">
-        <f t="shared" si="7"/>
+      <c r="J81">
+        <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="I78">
+      <c r="K81">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J78">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>90</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79">
-        <v>90</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>90</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>90</v>
-      </c>
-      <c r="G81">
+        <v>0.9</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="H81">
-        <f t="shared" si="7"/>
+      <c r="J82">
+        <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="I81">
+      <c r="K82">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="J81">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>90</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>90</v>
-      </c>
-      <c r="G82">
+      <c r="I83">
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="H82">
-        <f t="shared" si="7"/>
+      <c r="J83">
+        <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="I82">
+      <c r="K83">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="J82">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>90</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>4</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>90</v>
-      </c>
-      <c r="G83">
+      <c r="I84">
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="H83">
+      <c r="J84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>90</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="12"/>
         <v>0.9</v>
       </c>
-      <c r="I83">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="J83">
+      <c r="H85">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>90</v>
-      </c>
-      <c r="G84">
+      <c r="I85">
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="H84">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
-      </c>
-      <c r="I84">
+      <c r="J85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
         <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>90</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -4540,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="C86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D86">
@@ -4553,23 +4722,27 @@
         <v>90</v>
       </c>
       <c r="G86">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="H86">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-      <c r="I86">
+      <c r="J86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
         <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4577,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D87">
@@ -4590,23 +4763,27 @@
         <v>90</v>
       </c>
       <c r="G87">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K87">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J87">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -4614,7 +4791,7 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D88">
@@ -4627,23 +4804,27 @@
         <v>90</v>
       </c>
       <c r="G88">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="10"/>
-        <v>0.9</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J88">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -4651,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D89">
@@ -4664,23 +4845,27 @@
         <v>90</v>
       </c>
       <c r="G89">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="10"/>
-        <v>0.9</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J89">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -4688,7 +4873,7 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D90">
@@ -4701,23 +4886,27 @@
         <v>90</v>
       </c>
       <c r="G90">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -4725,7 +4914,7 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D91">
@@ -4738,23 +4927,27 @@
         <v>90</v>
       </c>
       <c r="G91">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I91">
         <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K91">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J91">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -4762,7 +4955,7 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D92">
@@ -4775,23 +4968,27 @@
         <v>90</v>
       </c>
       <c r="G92">
+        <f t="shared" si="12"/>
+        <v>3.6</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I92">
         <f t="shared" si="10"/>
-        <v>3.6</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K92">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J92">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -4799,7 +4996,7 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D93">
@@ -4812,23 +5009,27 @@
         <v>90</v>
       </c>
       <c r="G93">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I93">
         <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J93">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -4836,7 +5037,7 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D94">
@@ -4849,23 +5050,27 @@
         <v>90</v>
       </c>
       <c r="G94">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="10"/>
-        <v>0.9</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
-      </c>
-      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K94">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -4873,7 +5078,7 @@
         <v>2</v>
       </c>
       <c r="C95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D95">
@@ -4886,23 +5091,27 @@
         <v>90</v>
       </c>
       <c r="G95">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I95">
         <f t="shared" si="10"/>
-        <v>0.9</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K95">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J95">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -4910,7 +5119,7 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D96">
@@ -4923,23 +5132,27 @@
         <v>90</v>
       </c>
       <c r="G96">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="10"/>
-        <v>0.9</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J96">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -4947,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="C97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D97">
@@ -4960,23 +5173,27 @@
         <v>90</v>
       </c>
       <c r="G97">
+        <f t="shared" si="12"/>
+        <v>1.8</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="H97">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-      <c r="I97">
+      <c r="J97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -4984,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D98">
@@ -4997,23 +5214,27 @@
         <v>90</v>
       </c>
       <c r="G98">
-        <f t="shared" ref="G98:G103" si="11">F98*E98/100</f>
+        <f t="shared" ref="G98:G103" si="13">F98*E98/100</f>
         <v>1.8</v>
       </c>
       <c r="H98">
-        <f t="shared" ref="H98:H103" si="12">IF(D98&gt;1,G98,0)</f>
+        <f t="shared" ref="H98:H103" si="14">IF(D98&gt;1,G98,0)</f>
         <v>1.8</v>
       </c>
       <c r="I98">
-        <f t="shared" ref="I98:I103" si="13">IF(D98&gt;2,G98,0)</f>
+        <f t="shared" ref="I98:I103" si="15">IF(D98&gt;2,G98,0)</f>
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" ref="J98:J103" si="14">IF(D98&gt;3,G98,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J98:J103" si="16">IF(D98&gt;3,G98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -5021,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D99">
@@ -5034,23 +5255,27 @@
         <v>90</v>
       </c>
       <c r="G99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.6</v>
       </c>
       <c r="H99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -5058,7 +5283,7 @@
         <v>2</v>
       </c>
       <c r="C100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D100">
@@ -5071,23 +5296,27 @@
         <v>90</v>
       </c>
       <c r="G100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8</v>
       </c>
       <c r="H100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J100">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -5095,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="C101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D101">
@@ -5108,23 +5337,27 @@
         <v>90</v>
       </c>
       <c r="G101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.6</v>
       </c>
       <c r="H101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J101">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -5132,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D102">
@@ -5145,23 +5378,27 @@
         <v>90</v>
       </c>
       <c r="G102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8</v>
       </c>
       <c r="H102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -5169,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="C103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D103">
@@ -5182,74 +5419,82 @@
         <v>90</v>
       </c>
       <c r="G103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8</v>
       </c>
       <c r="H103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J103">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" ref="G104:G136" si="15">F104*E104/100</f>
+        <f t="shared" ref="G104:G136" si="17">F104*E104/100</f>
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H104:H136" si="16">IF(D104&gt;1,G104,0)</f>
+        <f t="shared" ref="H104:H136" si="18">IF(D104&gt;1,G104,0)</f>
         <v>0</v>
       </c>
       <c r="I104">
-        <f t="shared" ref="I104:I136" si="17">IF(D104&gt;2,G104,0)</f>
+        <f t="shared" ref="I104:I136" si="19">IF(D104&gt;2,G104,0)</f>
         <v>0</v>
       </c>
       <c r="J104">
-        <f t="shared" ref="J104:J136" si="18">IF(D104&gt;3,G104,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J104:J136" si="20">IF(D104&gt;3,G104,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <f>SUM(G106:G126)</f>
         <v>21.2</v>
       </c>
-      <c r="C105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="G105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J105">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>137</v>
       </c>
@@ -5257,7 +5502,6 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D106">
@@ -5270,23 +5514,27 @@
         <v>100</v>
       </c>
       <c r="G106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="J106">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -5294,7 +5542,6 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D107">
@@ -5307,23 +5554,27 @@
         <v>80</v>
       </c>
       <c r="G107">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
-      </c>
-      <c r="H107">
-        <f t="shared" si="16"/>
-        <v>1.6</v>
-      </c>
-      <c r="I107">
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="J107">
+      <c r="H107">
         <f t="shared" si="18"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -5331,7 +5582,6 @@
         <v>1</v>
       </c>
       <c r="C108">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D108">
@@ -5344,23 +5594,27 @@
         <v>80</v>
       </c>
       <c r="G108">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
-      </c>
-      <c r="H108">
-        <f t="shared" si="16"/>
-        <v>1.6</v>
-      </c>
-      <c r="I108">
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="J108">
+      <c r="H108">
         <f t="shared" si="18"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -5368,7 +5622,6 @@
         <v>1</v>
       </c>
       <c r="C109">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D109">
@@ -5381,23 +5634,27 @@
         <v>80</v>
       </c>
       <c r="G109">
-        <f t="shared" si="15"/>
-        <v>0.8</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="I109">
         <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
-      <c r="J109">
+      <c r="H109">
         <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -5405,7 +5662,6 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D110">
@@ -5418,23 +5674,27 @@
         <v>80</v>
       </c>
       <c r="G110">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
-      </c>
-      <c r="H110">
-        <f t="shared" si="16"/>
-        <v>1.6</v>
-      </c>
-      <c r="I110">
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="J110">
+      <c r="H110">
         <f t="shared" si="18"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -5442,7 +5702,6 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D111">
@@ -5455,23 +5714,27 @@
         <v>80</v>
       </c>
       <c r="G111">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
-      </c>
-      <c r="H111">
-        <f t="shared" si="16"/>
-        <v>1.6</v>
-      </c>
-      <c r="I111">
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="J111">
+      <c r="H111">
         <f t="shared" si="18"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -5479,7 +5742,6 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D112">
@@ -5492,23 +5754,27 @@
         <v>80</v>
       </c>
       <c r="G112">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="16"/>
-        <v>1.6</v>
-      </c>
-      <c r="I112">
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="J112">
+      <c r="H112">
         <f t="shared" si="18"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -5516,8 +5782,7 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -5529,23 +5794,27 @@
         <v>80</v>
       </c>
       <c r="G113">
-        <f t="shared" si="15"/>
-        <v>0.8</v>
-      </c>
-      <c r="H113">
-        <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="I113">
         <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
+      <c r="H113">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
       <c r="J113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -5553,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D114">
@@ -5566,23 +5835,27 @@
         <v>50</v>
       </c>
       <c r="G114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="H114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="I114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -5590,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D115">
@@ -5603,23 +5876,27 @@
         <v>50</v>
       </c>
       <c r="G115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="H115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="I115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J115">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -5627,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D116">
@@ -5640,23 +5917,27 @@
         <v>50</v>
       </c>
       <c r="G116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="H116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J116">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -5664,7 +5945,6 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D117">
@@ -5677,23 +5957,27 @@
         <v>80</v>
       </c>
       <c r="G117">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="16"/>
-        <v>1.6</v>
-      </c>
-      <c r="I117">
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="J117">
+      <c r="H117">
         <f t="shared" si="18"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -5701,7 +5985,6 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D118">
@@ -5714,23 +5997,27 @@
         <v>80</v>
       </c>
       <c r="G118">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
-      </c>
-      <c r="H118">
-        <f t="shared" si="16"/>
-        <v>1.6</v>
-      </c>
-      <c r="I118">
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="J118">
+      <c r="H118">
         <f t="shared" si="18"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -5738,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D119">
@@ -5751,23 +6038,27 @@
         <v>50</v>
       </c>
       <c r="G119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -5775,8 +6066,7 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -5788,23 +6078,27 @@
         <v>80</v>
       </c>
       <c r="G120">
-        <f t="shared" si="15"/>
-        <v>0.8</v>
-      </c>
-      <c r="H120">
-        <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="I120">
         <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
+      <c r="H120">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
       <c r="J120">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -5812,8 +6106,7 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -5825,23 +6118,27 @@
         <v>80</v>
       </c>
       <c r="G121">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
-      </c>
-      <c r="H121">
-        <f t="shared" si="16"/>
-        <v>1.6</v>
-      </c>
-      <c r="I121">
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
+      <c r="H121">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
       <c r="J121">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -5849,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D122">
@@ -5862,23 +6159,27 @@
         <v>25</v>
       </c>
       <c r="G122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="H122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J122">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -5886,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D123">
@@ -5899,23 +6200,27 @@
         <v>25</v>
       </c>
       <c r="G123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="H123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J123">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -5923,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D124">
@@ -5936,23 +6241,27 @@
         <v>25</v>
       </c>
       <c r="G124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="H124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -5960,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D125">
@@ -5973,23 +6282,27 @@
         <v>50</v>
       </c>
       <c r="G125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="H125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="I125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J125">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -5997,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D126">
@@ -6010,23 +6323,27 @@
         <v>50</v>
       </c>
       <c r="G126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -6034,7 +6351,6 @@
         <v>2</v>
       </c>
       <c r="C127">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D127">
@@ -6047,23 +6363,27 @@
         <v>80</v>
       </c>
       <c r="G127">
-        <f t="shared" si="15"/>
-        <v>1.6</v>
-      </c>
-      <c r="H127">
-        <f t="shared" si="16"/>
-        <v>1.6</v>
-      </c>
-      <c r="I127">
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="J127">
+      <c r="H127">
         <f t="shared" si="18"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>146</v>
       </c>
@@ -6071,7 +6391,6 @@
         <v>2</v>
       </c>
       <c r="C128">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D128">
@@ -6084,11 +6403,15 @@
         <v>80</v>
       </c>
       <c r="G128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -6096,7 +6419,6 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D129">
@@ -6109,11 +6431,15 @@
         <v>80</v>
       </c>
       <c r="G129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>148</v>
       </c>
@@ -6121,7 +6447,7 @@
         <v>2</v>
       </c>
       <c r="C130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D130">
@@ -6134,11 +6460,15 @@
         <v>80</v>
       </c>
       <c r="G130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -6146,7 +6476,7 @@
         <v>2</v>
       </c>
       <c r="C131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D131">
@@ -6159,11 +6489,15 @@
         <v>80</v>
       </c>
       <c r="G131">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>150</v>
       </c>
@@ -6171,7 +6505,7 @@
         <v>2</v>
       </c>
       <c r="C132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D132">
@@ -6184,11 +6518,15 @@
         <v>80</v>
       </c>
       <c r="G132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.8</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>151</v>
       </c>
@@ -6196,7 +6534,7 @@
         <v>2</v>
       </c>
       <c r="C133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D133">
@@ -6209,11 +6547,15 @@
         <v>80</v>
       </c>
       <c r="G133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -6221,7 +6563,7 @@
         <v>2</v>
       </c>
       <c r="C134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D134">
@@ -6234,11 +6576,15 @@
         <v>80</v>
       </c>
       <c r="G134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>153</v>
       </c>
@@ -6246,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="C135">
-        <f t="shared" ref="C135:C163" si="19">IF(D135=4, 1,0)</f>
+        <f t="shared" ref="C135:C163" si="21">IF(D135=4, 1,0)</f>
         <v>0</v>
       </c>
       <c r="D135">
@@ -6259,11 +6605,15 @@
         <v>80</v>
       </c>
       <c r="G135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <f t="shared" ref="K135:K163" si="22">IF(C135=1,E135*F135/100,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>157</v>
       </c>
@@ -6271,7 +6621,6 @@
         <v>2</v>
       </c>
       <c r="C136">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="D136">
@@ -6284,23 +6633,27 @@
         <v>80</v>
       </c>
       <c r="G136">
-        <f t="shared" si="15"/>
-        <v>0.8</v>
-      </c>
-      <c r="H136">
-        <f t="shared" si="16"/>
-        <v>0.8</v>
-      </c>
-      <c r="I136">
         <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
-      <c r="J136">
+      <c r="H136">
         <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -6308,7 +6661,7 @@
         <v>2</v>
       </c>
       <c r="C137">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D137">
@@ -6321,23 +6674,27 @@
         <v>80</v>
       </c>
       <c r="G137">
-        <f t="shared" ref="G137:G146" si="20">F137*E137/100</f>
+        <f t="shared" ref="G137:G146" si="23">F137*E137/100</f>
         <v>1.6</v>
       </c>
       <c r="H137">
-        <f t="shared" ref="H137:H147" si="21">IF(D137&gt;1,G137,0)</f>
+        <f t="shared" ref="H137:H147" si="24">IF(D137&gt;1,G137,0)</f>
         <v>1.6</v>
       </c>
       <c r="I137">
-        <f t="shared" ref="I137:I147" si="22">IF(D137&gt;2,G137,0)</f>
+        <f t="shared" ref="I137:I147" si="25">IF(D137&gt;2,G137,0)</f>
         <v>1.6</v>
       </c>
       <c r="J137">
-        <f t="shared" ref="J137:J147" si="23">IF(D137&gt;3,G137,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J137:J147" si="26">IF(D137&gt;3,G137,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -6345,7 +6702,7 @@
         <v>2</v>
       </c>
       <c r="C138">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D138">
@@ -6358,23 +6715,27 @@
         <v>80</v>
       </c>
       <c r="G138">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6</v>
       </c>
       <c r="H138">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.6</v>
       </c>
       <c r="I138">
+        <f t="shared" si="25"/>
+        <v>1.6</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K138">
         <f t="shared" si="22"/>
-        <v>1.6</v>
-      </c>
-      <c r="J138">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -6382,7 +6743,7 @@
         <v>2</v>
       </c>
       <c r="C139">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D139">
@@ -6395,23 +6756,27 @@
         <v>80</v>
       </c>
       <c r="G139">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.8</v>
       </c>
       <c r="H139">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.8</v>
       </c>
       <c r="I139">
+        <f t="shared" si="25"/>
+        <v>0.8</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K139">
         <f t="shared" si="22"/>
-        <v>0.8</v>
-      </c>
-      <c r="J139">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -6419,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="C140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D140">
@@ -6432,23 +6797,27 @@
         <v>80</v>
       </c>
       <c r="G140">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6</v>
       </c>
       <c r="H140">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I140">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K140">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J140">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -6456,7 +6825,7 @@
         <v>2</v>
       </c>
       <c r="C141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D141">
@@ -6469,23 +6838,27 @@
         <v>80</v>
       </c>
       <c r="G141">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.8</v>
       </c>
       <c r="H141">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I141">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K141">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J141">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -6493,7 +6866,7 @@
         <v>2</v>
       </c>
       <c r="C142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D142">
@@ -6506,23 +6879,27 @@
         <v>80</v>
       </c>
       <c r="G142">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6</v>
       </c>
       <c r="H142">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.6</v>
       </c>
       <c r="I142">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K142">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J142">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -6530,7 +6907,7 @@
         <v>2</v>
       </c>
       <c r="C143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D143">
@@ -6543,23 +6920,27 @@
         <v>80</v>
       </c>
       <c r="G143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6</v>
       </c>
       <c r="H143">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I143">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K143">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J143">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -6567,7 +6948,7 @@
         <v>2</v>
       </c>
       <c r="C144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D144">
@@ -6580,23 +6961,27 @@
         <v>80</v>
       </c>
       <c r="G144">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6</v>
       </c>
       <c r="H144">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I144">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K144">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J144">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -6604,7 +6989,7 @@
         <v>2</v>
       </c>
       <c r="C145">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D145">
@@ -6617,23 +7002,27 @@
         <v>80</v>
       </c>
       <c r="G145">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.8</v>
       </c>
       <c r="H145">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.8</v>
       </c>
       <c r="I145">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K145">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J145">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -6641,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="C146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D146">
@@ -6654,23 +7043,27 @@
         <v>80</v>
       </c>
       <c r="G146">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.8</v>
       </c>
       <c r="H146">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.8</v>
       </c>
       <c r="I146">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K146">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J146">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>83</v>
       </c>
@@ -6678,7 +7071,7 @@
         <v>2</v>
       </c>
       <c r="C147">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D147">
@@ -6695,66 +7088,78 @@
         <v>0.8</v>
       </c>
       <c r="H147">
+        <f t="shared" si="24"/>
+        <v>0.8</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C148">
         <f t="shared" si="21"/>
-        <v>0.8</v>
-      </c>
-      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" ref="G148:G163" si="27">F148*E148/100</f>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" ref="H148:H163" si="28">IF(D148&gt;1,G148,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <f t="shared" ref="I148:I163" si="29">IF(D148&gt;2,G148,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <f t="shared" ref="J148:J163" si="30">IF(D148&gt;3,G148,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K148">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J147">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C148">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <f t="shared" ref="G148:G163" si="24">F148*E148/100</f>
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <f t="shared" ref="H148:H163" si="25">IF(D148&gt;1,G148,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <f t="shared" ref="I148:I163" si="26">IF(D148&gt;2,G148,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <f t="shared" ref="J148:J163" si="27">IF(D148&gt;3,G148,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C149">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G149">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I149">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J149">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>160</v>
       </c>
@@ -6762,7 +7167,6 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="D150">
@@ -6775,23 +7179,27 @@
         <v>50</v>
       </c>
       <c r="G150">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="H150">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I150">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J150">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -6799,7 +7207,6 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="D151">
@@ -6812,23 +7219,27 @@
         <v>80</v>
       </c>
       <c r="G151">
-        <f t="shared" si="24"/>
-        <v>1.6</v>
-      </c>
-      <c r="H151">
-        <f t="shared" si="25"/>
-        <v>1.6</v>
-      </c>
-      <c r="I151">
-        <f t="shared" si="26"/>
-        <v>1.6</v>
-      </c>
-      <c r="J151">
         <f t="shared" si="27"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <f t="shared" si="28"/>
+        <v>1.6</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="29"/>
+        <v>1.6</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="30"/>
+        <v>1.6</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="22"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -6836,7 +7247,6 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="D152">
@@ -6849,23 +7259,27 @@
         <v>90</v>
       </c>
       <c r="G152">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="H152">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
       <c r="I152">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.8</v>
       </c>
       <c r="J152">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>1.8</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="22"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>163</v>
       </c>
@@ -6873,7 +7287,6 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="D153">
@@ -6886,23 +7299,27 @@
         <v>90</v>
       </c>
       <c r="G153">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="H153">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
       <c r="I153">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.8</v>
       </c>
       <c r="J153">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>1.8</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="22"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>164</v>
       </c>
@@ -6910,7 +7327,6 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="D154">
@@ -6923,23 +7339,27 @@
         <v>90</v>
       </c>
       <c r="G154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="H154">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
       <c r="I154">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.8</v>
       </c>
       <c r="J154">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>1.8</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="22"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>165</v>
       </c>
@@ -6947,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D155">
@@ -6960,23 +7380,27 @@
         <v>90</v>
       </c>
       <c r="G155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="H155">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
       <c r="I155">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.8</v>
       </c>
       <c r="J155">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>166</v>
       </c>
@@ -6984,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="C156">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D156">
@@ -6997,23 +7421,27 @@
         <v>90</v>
       </c>
       <c r="G156">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="H156">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
       <c r="I156">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J156">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>167</v>
       </c>
@@ -7021,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D157">
@@ -7034,23 +7462,27 @@
         <v>90</v>
       </c>
       <c r="G157">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="H157">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
       <c r="I157">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J157">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -7058,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D158">
@@ -7071,23 +7503,27 @@
         <v>50</v>
       </c>
       <c r="G158">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="H158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I158">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J158">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>169</v>
       </c>
@@ -7095,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D159">
@@ -7108,23 +7544,27 @@
         <v>90</v>
       </c>
       <c r="G159">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.9</v>
       </c>
       <c r="H159">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.9</v>
       </c>
       <c r="I159">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J159">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>170</v>
       </c>
@@ -7132,7 +7572,6 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="D160">
@@ -7145,23 +7584,27 @@
         <v>90</v>
       </c>
       <c r="G160">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="H160">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
       <c r="I160">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.8</v>
       </c>
       <c r="J160">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>1.8</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="22"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>171</v>
       </c>
@@ -7169,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D161">
@@ -7182,23 +7625,27 @@
         <v>90</v>
       </c>
       <c r="G161">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="H161">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
       <c r="I161">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J161">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>172</v>
       </c>
@@ -7206,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D162">
@@ -7219,23 +7666,27 @@
         <v>90</v>
       </c>
       <c r="G162">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.9</v>
       </c>
       <c r="H162">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I162">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J162">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>173</v>
       </c>
@@ -7243,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D163">
@@ -7256,75 +7707,90 @@
         <v>90</v>
       </c>
       <c r="G163">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
       <c r="H163">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
       <c r="I163">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J163">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:A12 A14:A45 A47:A53 A55:A56 A59:A62 A4 A64:A1048576">
-    <cfRule type="expression" dxfId="13" priority="8">
+  <conditionalFormatting sqref="A6:A12 A14:A45 A47:A53 A55:A56 A59:A62 A4 A64:A104 A106:A1048576">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>$B4=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>$B4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A58">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$B59=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>$B59=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A13 A46 A54 A63">
-    <cfRule type="expression" dxfId="9" priority="18">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>#REF!=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="19">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="7" priority="22">
+    <cfRule type="expression" dxfId="10" priority="23">
       <formula>$B1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="23">
+    <cfRule type="expression" dxfId="9" priority="24">
       <formula>$B1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="5" priority="26">
+    <cfRule type="expression" dxfId="8" priority="27">
       <formula>$D1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="27">
+    <cfRule type="expression" dxfId="7" priority="28">
       <formula>$D1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$C1=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$D1=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$D1=2</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$D1=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$D1=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$D1=3</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="expression" dxfId="1" priority="31">
+      <formula>$C105=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D1=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$D1=1</formula>
+    <cfRule type="expression" dxfId="0" priority="32">
+      <formula>$C105=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\Documents\GitHub\Farrell_Garrett_Wedding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -558,13 +553,16 @@
   </si>
   <si>
     <t>1419 Santanna Dr. Lafeytte, IN 47905</t>
+  </si>
+  <si>
+    <t>1326 River Ave. Harlan, IA 51537</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,7 +648,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="17">
     <dxf>
       <border>
         <left style="thin">
@@ -902,250 +900,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1207,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1242,7 +996,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1419,22 +1173,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
@@ -1445,7 +1199,7 @@
     <col min="13" max="13" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="7">
         <v>4</v>
       </c>
@@ -1473,7 +1227,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -1493,7 +1247,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1527,7 +1281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1568,7 +1322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1577,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1620,7 +1374,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1700,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1739,8 +1493,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1780,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1820,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="B12" s="1"/>
       <c r="C12">
         <f t="shared" ref="C12:C62" si="5">IF(D12=4, 1,0)</f>
@@ -1847,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1876,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1916,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1956,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1996,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2036,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2077,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2117,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2157,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2197,7 +1954,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2237,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2277,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2317,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2357,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2397,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -2437,7 +2194,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -2477,7 +2234,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2517,7 +2274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2557,7 +2314,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2597,7 +2354,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -2637,7 +2394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -2677,7 +2434,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -2717,7 +2474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -2757,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -2797,7 +2554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2837,7 +2594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -2877,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -2917,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -2957,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -2997,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -3037,7 +2794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -3077,7 +2834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="2"/>
       <c r="C44">
         <f t="shared" si="5"/>
@@ -3104,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="B45" s="1"/>
       <c r="C45">
         <f t="shared" si="5"/>
@@ -3131,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
@@ -3160,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3204,7 +2961,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3248,7 +3005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3292,7 +3049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -3335,7 +3092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3378,7 +3135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -3421,7 +3178,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="C53">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3447,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -3476,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -3516,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -3556,7 +3313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3596,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -3636,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3676,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3716,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3756,7 +3513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="C62">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3782,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
@@ -3811,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -3851,7 +3608,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -3891,7 +3648,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -3934,7 +3691,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -3974,7 +3731,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -4014,7 +3771,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -4054,7 +3811,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -4094,7 +3851,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -4135,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -4176,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -4216,7 +3973,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -4256,7 +4013,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -4296,7 +4053,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -4336,7 +4093,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -4376,7 +4133,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -4417,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -4458,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -4499,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -4539,7 +4296,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -4579,7 +4336,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -4619,7 +4376,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -4660,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -4701,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -4742,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4783,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -4824,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -4865,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -4906,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -4947,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -4988,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -5029,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -5070,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -5111,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -5152,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -5193,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -5234,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -5275,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -5316,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -5357,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -5398,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -5439,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="C104">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5465,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -5494,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="2" t="s">
         <v>137</v>
       </c>
@@ -5534,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -5574,7 +5331,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -5614,7 +5371,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -5654,7 +5411,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -5694,7 +5451,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -5734,7 +5491,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -5774,7 +5531,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -5814,7 +5571,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -5855,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -5896,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -5937,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -5977,7 +5734,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -6017,7 +5774,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -6058,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -6098,7 +5855,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -6138,7 +5895,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -6179,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -6220,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -6261,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -6302,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -6343,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -6383,7 +6140,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>146</v>
       </c>
@@ -6411,7 +6168,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -6439,7 +6196,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>148</v>
       </c>
@@ -6468,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -6497,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>150</v>
       </c>
@@ -6526,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>151</v>
       </c>
@@ -6555,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -6584,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
         <v>153</v>
       </c>
@@ -6613,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
         <v>157</v>
       </c>
@@ -6653,7 +6410,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -6694,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -6735,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -6776,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -6817,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -6858,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -6899,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -6940,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -6981,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -7022,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -7063,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>83</v>
       </c>
@@ -7104,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="C148">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -7130,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="1" t="s">
         <v>159</v>
       </c>
@@ -7159,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>160</v>
       </c>
@@ -7199,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -7239,7 +6996,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -7279,7 +7036,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>163</v>
       </c>
@@ -7319,7 +7076,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>164</v>
       </c>
@@ -7359,7 +7116,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>165</v>
       </c>
@@ -7400,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>166</v>
       </c>
@@ -7441,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>167</v>
       </c>
@@ -7482,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>168</v>
       </c>
@@ -7523,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>169</v>
       </c>
@@ -7564,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>170</v>
       </c>
@@ -7604,7 +7361,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>171</v>
       </c>
@@ -7645,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>172</v>
       </c>
@@ -7686,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>173</v>
       </c>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="200">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -177,9 +177,6 @@
     <t>Angela and Seth &amp; Family</t>
   </si>
   <si>
-    <t xml:space="preserve">Laverne </t>
-  </si>
-  <si>
     <t>push back on mom</t>
   </si>
   <si>
@@ -556,6 +553,72 @@
   </si>
   <si>
     <t>1326 River Ave. Harlan, IA 51537</t>
+  </si>
+  <si>
+    <t>548 Birdsong Drive, League City, 77573</t>
+  </si>
+  <si>
+    <t>7830 Wayforest Court, Indianapolis, IN 46239</t>
+  </si>
+  <si>
+    <t>832 SE White Oak Lane, Waukee, IA 50263</t>
+  </si>
+  <si>
+    <t>8610 EP True Pkwy, Unit 11005, West Des Moines, IA 50266</t>
+  </si>
+  <si>
+    <t>11450 Dan Patch Circle, Green Oaks, IL 600448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check on zip code… lol </t>
+  </si>
+  <si>
+    <t>639 N Broadway #538, Los Angeles, CA 90012</t>
+  </si>
+  <si>
+    <t>2001 W Waco St., Broken Arrow, OK 74011</t>
+  </si>
+  <si>
+    <t>808 5th Street, Harlan, IA 51537</t>
+  </si>
+  <si>
+    <t>1408 8th Street, Harlan, IA 51537</t>
+  </si>
+  <si>
+    <t>1412 W Park Street, Harlan, IA 51537</t>
+  </si>
+  <si>
+    <t>Lavonne (Mrs. Roumain Ruppert)</t>
+  </si>
+  <si>
+    <t>4810 460th Ave, Mallard, IA 50562</t>
+  </si>
+  <si>
+    <t>4006 Park Thicket, Houston, TX 77058</t>
+  </si>
+  <si>
+    <t>7501 E 83rd Place N, Owasso, OK 74055</t>
+  </si>
+  <si>
+    <t>1917 Lafayette Ave, Apt 3C, Lebanon, IN 46052</t>
+  </si>
+  <si>
+    <t>2300 Richmond Avenue, Apt. #221, Houston, TX 77098</t>
+  </si>
+  <si>
+    <t>1465 65th St. Unit 173, Emeryville, CA 94608</t>
+  </si>
+  <si>
+    <t>320 Jackson Hill St. Apt346, Houston, TX 77007</t>
+  </si>
+  <si>
+    <t>16422 Havenhurst Dr., Houston, TX 77059</t>
+  </si>
+  <si>
+    <t>226 S Maple Glade Circle, The Woodlands, TX 77382</t>
+  </si>
+  <si>
+    <t>600 Studemont St. Unit 2106, Houston, TX 77007</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1236,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1185,13 +1248,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="11" width="9.140625" hidden="1" customWidth="1"/>
@@ -1204,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1">
         <f ca="1">SUMIF(C5:C250,"=1",E6:E250)</f>
@@ -1232,19 +1295,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>106</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1252,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3">
         <f>SUM(K5:K250)</f>
@@ -1289,31 +1352,31 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
         <v>175</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>176</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1371,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1494,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1535,6 +1598,9 @@
       <c r="K10">
         <f t="shared" si="3"/>
         <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2553,6 +2619,9 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="L36" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
@@ -2593,6 +2662,9 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="L37" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
@@ -2713,6 +2785,12 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L40" t="s">
+        <v>182</v>
+      </c>
+      <c r="M40" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
@@ -2753,6 +2831,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L41" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
@@ -2795,8 +2876,8 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="2" t="s">
-        <v>52</v>
+      <c r="A43" t="s">
+        <v>189</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -2832,6 +2913,9 @@
       <c r="K43">
         <f t="shared" si="3"/>
         <v>0.5</v>
+      </c>
+      <c r="L43" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2958,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3002,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3046,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3089,7 +3173,7 @@
         <v>0.5</v>
       </c>
       <c r="M50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3132,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3175,7 +3259,7 @@
         <v>0.5</v>
       </c>
       <c r="M52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3206,7 +3290,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <f>SUM(G55:G61)</f>
@@ -3235,7 +3319,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3275,7 +3359,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3312,10 +3396,13 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="L56" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3355,7 +3442,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3395,7 +3482,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -3432,10 +3519,13 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L59" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -3475,7 +3565,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3511,6 +3601,9 @@
       <c r="K61">
         <f t="shared" si="3"/>
         <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3541,7 +3634,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63">
         <f>SUM(G64:G96)</f>
@@ -3570,7 +3663,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3610,7 +3703,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3647,10 +3740,13 @@
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
+      <c r="L65" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3688,12 +3784,12 @@
         <v>0.9</v>
       </c>
       <c r="M66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3733,7 +3829,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3773,7 +3869,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3813,7 +3909,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3853,7 +3949,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3894,7 +3990,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3935,7 +4031,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3972,10 +4068,13 @@
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
+      <c r="L73" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -4012,10 +4111,13 @@
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
+      <c r="L74" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -4055,7 +4157,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -4095,7 +4197,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -4132,10 +4234,13 @@
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
+      <c r="L77" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -4176,7 +4281,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -4217,7 +4322,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4256,9 +4361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4296,9 +4401,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4336,9 +4441,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -4375,10 +4480,13 @@
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -4417,9 +4525,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -4458,9 +4566,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -4499,9 +4607,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4540,9 +4648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -4581,9 +4689,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4622,9 +4730,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4663,9 +4771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4704,9 +4812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4745,9 +4853,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4786,9 +4894,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -4827,9 +4935,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -4868,9 +4976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -4911,7 +5019,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -4952,7 +5060,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -4993,7 +5101,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -5034,7 +5142,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -5075,7 +5183,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -5116,7 +5224,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -5157,7 +5265,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -5224,7 +5332,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C105">
         <f>SUM(G106:G126)</f>
@@ -5253,7 +5361,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5293,7 +5401,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -5333,7 +5441,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5373,7 +5481,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -5413,7 +5521,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -5453,7 +5561,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -5493,7 +5601,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -5531,9 +5639,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -5571,9 +5679,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -5612,9 +5720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -5653,9 +5761,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -5694,9 +5802,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -5734,9 +5842,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -5774,9 +5882,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -5815,9 +5923,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -5855,9 +5963,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -5895,9 +6003,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -5936,9 +6044,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -5977,9 +6085,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -6018,9 +6126,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -6059,9 +6167,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -6100,9 +6208,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -6139,10 +6247,13 @@
         <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -6168,9 +6279,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -6196,9 +6307,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -6224,10 +6335,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -6253,10 +6367,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -6282,10 +6399,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -6312,9 +6432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -6340,10 +6460,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -6370,9 +6493,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -6409,10 +6532,13 @@
         <f t="shared" si="22"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -6451,9 +6577,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -6491,10 +6617,13 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B139">
         <v>2</v>
@@ -6533,9 +6662,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -6574,9 +6703,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -6615,9 +6744,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -6656,9 +6785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>2</v>
@@ -6697,9 +6826,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -6740,7 +6869,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -6781,7 +6910,7 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -6822,7 +6951,7 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -6889,7 +7018,7 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C149">
         <f t="shared" si="21"/>
@@ -6918,7 +7047,7 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -6958,7 +7087,7 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6998,7 +7127,7 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -7038,7 +7167,7 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -7078,7 +7207,7 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -7118,7 +7247,7 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -7159,7 +7288,7 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -7200,7 +7329,7 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -7241,7 +7370,7 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -7282,7 +7411,7 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -7323,7 +7452,7 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -7363,7 +7492,7 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -7404,7 +7533,7 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7445,7 +7574,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B163">
         <v>1</v>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="193">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -255,21 +255,12 @@
     <t xml:space="preserve">Kristen Breitenbach </t>
   </si>
   <si>
-    <t>Mikey Garrett and Grace Farrar</t>
-  </si>
-  <si>
-    <t>Austin and Carak Lovan</t>
-  </si>
-  <si>
     <t>Kris and Brent</t>
   </si>
   <si>
     <t>Brian and Haley</t>
   </si>
   <si>
-    <t>Lauren</t>
-  </si>
-  <si>
     <t>Ami Yang</t>
   </si>
   <si>
@@ -285,36 +276,12 @@
     <t>Katelyn Dv…</t>
   </si>
   <si>
-    <t>Fiona &amp; Guest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russell and Lindsey </t>
-  </si>
-  <si>
-    <t>Christy Darcy</t>
-  </si>
-  <si>
-    <t>Megan M</t>
-  </si>
-  <si>
     <t>Sam and Tori</t>
   </si>
   <si>
-    <t>Jenny Brewer &amp; Guest</t>
-  </si>
-  <si>
     <t>Aja and Phillip &amp; Family</t>
   </si>
   <si>
-    <t>Chris and Michelle</t>
-  </si>
-  <si>
-    <t>Stephanie Shelton</t>
-  </si>
-  <si>
-    <t>Staphania</t>
-  </si>
-  <si>
     <t>Breanna</t>
   </si>
   <si>
@@ -351,15 +318,6 @@
     <t>Vanessa and Jason &amp; Fam</t>
   </si>
   <si>
-    <t>Jennifer &amp; Guest</t>
-  </si>
-  <si>
-    <t>Ginny and Sean &amp; Family</t>
-  </si>
-  <si>
-    <t>Monica and DJ</t>
-  </si>
-  <si>
     <t>Gay and Craig</t>
   </si>
   <si>
@@ -384,18 +342,9 @@
     <t>Peter and Shannon Happ</t>
   </si>
   <si>
-    <t>Michael Jerman</t>
-  </si>
-  <si>
-    <t>Joseph Loescher</t>
-  </si>
-  <si>
     <t>Kyle Rock…y</t>
   </si>
   <si>
-    <t>Pete Ensinger</t>
-  </si>
-  <si>
     <t>Cory and Katie Brewer</t>
   </si>
   <si>
@@ -414,15 +363,6 @@
     <t>Meg Lees and Fiance</t>
   </si>
   <si>
-    <t>Kevin Dineen</t>
-  </si>
-  <si>
-    <t>Alex and Wife Schwartz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth Buchannon </t>
-  </si>
-  <si>
     <t>Aubrey Heck</t>
   </si>
   <si>
@@ -447,21 +387,12 @@
     <t>Liz and Brent</t>
   </si>
   <si>
-    <t>Ryan and Molley</t>
-  </si>
-  <si>
-    <t>David &amp; Fiance</t>
-  </si>
-  <si>
     <t>Melissa and Michael</t>
   </si>
   <si>
     <t>Christine &amp; Guest</t>
   </si>
   <si>
-    <t>Pastro Donna and Roger</t>
-  </si>
-  <si>
     <t>Dave and Diane Greve</t>
   </si>
   <si>
@@ -471,21 +402,9 @@
     <t>Joe and Amy Rueschenberg &amp; Fam</t>
   </si>
   <si>
-    <t>Amanda H</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
     <t>Anne</t>
   </si>
   <si>
-    <t>Laurel</t>
-  </si>
-  <si>
-    <t>Nicole</t>
-  </si>
-  <si>
     <t>Scott</t>
   </si>
   <si>
@@ -525,18 +444,12 @@
     <t>Zak Kingston &amp; Guest</t>
   </si>
   <si>
-    <t>Parker Francis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ed and Wife Herrera </t>
   </si>
   <si>
     <t>Evan and Izzy</t>
   </si>
   <si>
-    <t>Sandeep</t>
-  </si>
-  <si>
     <t>Kris Verdeyen and Wife</t>
   </si>
   <si>
@@ -619,6 +532,72 @@
   </si>
   <si>
     <t>600 Studemont St. Unit 2106, Houston, TX 77007</t>
+  </si>
+  <si>
+    <t>823 S Church St., Apt. 2214, Greenville, SC 29601</t>
+  </si>
+  <si>
+    <t>2325 Commonwealth St., Houston, TX 77006</t>
+  </si>
+  <si>
+    <t>501 N. Sarah Deel, Apt #1136, Webster, TX 77598</t>
+  </si>
+  <si>
+    <t>5849 Kiam St. Houston, TX 77007</t>
+  </si>
+  <si>
+    <t>16246 Seahorse Dr., Houston, TX 77062</t>
+  </si>
+  <si>
+    <t>1030 Mabry Mill Rd, Houston, TX 77062</t>
+  </si>
+  <si>
+    <t>505 8th St. #4, Ames, IA 50010</t>
+  </si>
+  <si>
+    <t>756 Rose Lane, Brownsburg, IN 46112</t>
+  </si>
+  <si>
+    <t>Pastor Donna and Roger</t>
+  </si>
+  <si>
+    <t>3243 Valley Drive, Alexandria, VA 22302</t>
+  </si>
+  <si>
+    <t>May just don't invite them…</t>
+  </si>
+  <si>
+    <t>Stephania</t>
+  </si>
+  <si>
+    <t>Austin and Cara Lovan</t>
+  </si>
+  <si>
+    <t>Fiona</t>
+  </si>
+  <si>
+    <t>Jennifer Gaffney &amp; Guest</t>
+  </si>
+  <si>
+    <t>Parker Francis &amp; Guest</t>
+  </si>
+  <si>
+    <t>Joseph Loescher &amp; Guest</t>
+  </si>
+  <si>
+    <t>Michael Jerman &amp; Guest</t>
+  </si>
+  <si>
+    <t>2394 Quinlan Ave., Dallas Center, IA 50063</t>
+  </si>
+  <si>
+    <t>4490 470th Ave, Mallard, IA 50562</t>
+  </si>
+  <si>
+    <t>1209 13th Street, Harlan, IA 51537</t>
+  </si>
+  <si>
+    <t>Helen Xu and Jesse</t>
   </si>
 </sst>
 </file>
@@ -1244,11 +1223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P163"/>
+  <dimension ref="A1:P143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1267,27 +1246,27 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C1">
-        <f ca="1">SUMIF(C5:C250,"=1",E6:E250)</f>
-        <v>143</v>
+        <f ca="1">SUMIF(C5:C230,"=1",E6:E230)</f>
+        <v>178</v>
       </c>
       <c r="D1">
-        <f>SUM(E5:E160)</f>
-        <v>263</v>
+        <f>SUM(E5:E141)</f>
+        <v>225</v>
       </c>
       <c r="E1">
-        <f>SUMIF(D6:D250,"&gt;1",E6:E250)</f>
-        <v>215</v>
+        <f>SUMIF(D6:D230,"&gt;1",E6:E230)</f>
+        <v>205</v>
       </c>
       <c r="F1">
-        <f>SUMIF(D6:D250,"&gt;2",E6:E250)</f>
-        <v>177</v>
+        <f>SUMIF(D6:D230,"&gt;2",E6:E230)</f>
+        <v>174</v>
       </c>
       <c r="G1">
-        <f>SUMIF(D6:D250,"&gt;3",E6:E250)</f>
-        <v>135</v>
+        <f>SUMIF(D6:D230,"&gt;3",E6:E230)</f>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1295,19 +1274,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1315,27 +1294,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C3">
-        <f>SUM(K5:K250)</f>
-        <v>98.399999999999906</v>
+        <f>SUM(K5:K230)</f>
+        <v>122.99999999999989</v>
       </c>
       <c r="D3">
-        <f>SUM(G6:G212)</f>
-        <v>183.90000000000009</v>
+        <f>SUM(G6:G192)</f>
+        <v>149.4</v>
       </c>
       <c r="E3">
         <f>SUM(H:H)</f>
-        <v>136.09999999999994</v>
+        <v>129.49999999999991</v>
       </c>
       <c r="F3">
         <f>SUM(I:I)</f>
-        <v>109.9999999999999</v>
+        <v>108.89999999999991</v>
       </c>
       <c r="G3">
         <f>SUM(J:J)</f>
-        <v>86.499999999999915</v>
+        <v>85.499999999999915</v>
       </c>
       <c r="O3" t="s">
         <v>39</v>
@@ -1352,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1364,19 +1343,19 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1434,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1473,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K70" si="3">IF(C7=1,E7*F7/100,0)</f>
+        <f t="shared" ref="K7:K71" si="3">IF(C7=1,E7*F7/100,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1557,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1600,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1676,7 +1655,7 @@
       </c>
       <c r="C13">
         <f>SUM(G14:G43)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13">
         <f>F13*C13/100</f>
@@ -1867,8 +1846,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1897,7 +1875,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1954,30 +1932,30 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>25</v>
       </c>
       <c r="G20">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2114,30 +2092,30 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>25</v>
       </c>
       <c r="G24">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2579,6 +2557,9 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="L35" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
@@ -2620,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2637,33 +2618,33 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>50</v>
       </c>
       <c r="G37">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2745,6 +2726,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L39" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
@@ -2786,10 +2770,10 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="M40" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2832,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2874,10 +2858,13 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="M42" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -2915,7 +2902,7 @@
         <v>0.5</v>
       </c>
       <c r="L43" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3294,7 +3281,7 @@
       </c>
       <c r="C54">
         <f>SUM(G55:G61)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G54">
         <f>F54*C54/100</f>
@@ -3397,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3442,7 +3429,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3520,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3537,30 +3524,33 @@
         <v>4</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60">
         <v>100</v>
       </c>
       <c r="G60">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L60" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3603,7 +3593,7 @@
         <v>2</v>
       </c>
       <c r="L61" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3637,8 +3627,8 @@
         <v>56</v>
       </c>
       <c r="C63">
-        <f>SUM(G64:G96)</f>
-        <v>46.799999999999983</v>
+        <f>SUM(G64:G90)</f>
+        <v>31.999999999999989</v>
       </c>
       <c r="G63">
         <f>F63*C63/100</f>
@@ -3741,7 +3731,7 @@
         <v>1.8</v>
       </c>
       <c r="L65" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3869,47 +3859,21 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>3</v>
-      </c>
-      <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
         <v>90</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3918,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3940,63 +3904,65 @@
       </c>
       <c r="J70">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
+      <c r="L70" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C134" si="7">IF(D71=4, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>90</v>
       </c>
       <c r="G71">
         <f t="shared" si="6"/>
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H71">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J71">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K71">
-        <f t="shared" ref="K71:K134" si="8">IF(C71=1,E71*F71/100,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C72:C113" si="7">IF(D72=4, 1,0)</f>
         <v>0</v>
       </c>
       <c r="D72">
@@ -4013,19 +3979,19 @@
         <v>1.8</v>
       </c>
       <c r="H72">
-        <f t="shared" ref="H72:H97" si="9">IF(D72&gt;1,G72,0)</f>
+        <f t="shared" ref="H72:H91" si="8">IF(D72&gt;1,G72,0)</f>
         <v>1.8</v>
       </c>
       <c r="I72">
-        <f t="shared" ref="I72:I97" si="10">IF(D72&gt;2,G72,0)</f>
+        <f t="shared" ref="I72:I91" si="9">IF(D72&gt;2,G72,0)</f>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J97" si="11">IF(D72&gt;3,G72,0)</f>
+        <f t="shared" ref="J72:J91" si="10">IF(D72&gt;3,G72,0)</f>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K72:K120" si="11">IF(C72=1,E72*F72/100,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4053,23 +4019,23 @@
         <v>1.8</v>
       </c>
       <c r="H73">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
-      <c r="K73">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
       <c r="L73" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4096,23 +4062,23 @@
         <v>1.8</v>
       </c>
       <c r="H74">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
-      <c r="K74">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
       <c r="L74" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4139,20 +4105,23 @@
         <v>1.8</v>
       </c>
       <c r="H75">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
-      <c r="K75">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
+      <c r="L75" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4179,20 +4148,23 @@
         <v>1.8</v>
       </c>
       <c r="H76">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
-      <c r="K76">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
+      <c r="L76" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4215,27 +4187,27 @@
         <v>90</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77:G97" si="12">F77*E77/100</f>
+        <f t="shared" ref="G77:G91" si="12">F77*E77/100</f>
         <v>0.9</v>
       </c>
       <c r="H77">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="K77">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
       <c r="L77" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4246,11 +4218,10 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4263,32 +4234,31 @@
         <v>0.9</v>
       </c>
       <c r="H78">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -4304,66 +4274,65 @@
         <v>1.8</v>
       </c>
       <c r="H79">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
       <c r="C80">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>3</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>90</v>
       </c>
       <c r="G80">
         <f t="shared" si="12"/>
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H80">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
-      <c r="I80">
+        <v>0.9</v>
+      </c>
+      <c r="J80">
         <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4385,25 +4354,28 @@
         <v>0.9</v>
       </c>
       <c r="H81">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="K81">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+      <c r="L81" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4425,25 +4397,28 @@
         <v>0.9</v>
       </c>
       <c r="H82">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="K82">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+      <c r="L82" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -4465,35 +4440,34 @@
         <v>0.9</v>
       </c>
       <c r="H83">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="K83">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
       <c r="L83" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -4509,32 +4483,31 @@
         <v>0.9</v>
       </c>
       <c r="H84">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="11"/>
         <v>0.9</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="8"/>
-        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -4550,66 +4523,65 @@
         <v>0.9</v>
       </c>
       <c r="H85">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="11"/>
         <v>0.9</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="8"/>
-        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
       <c r="C86">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>90</v>
       </c>
       <c r="G86">
         <f t="shared" si="12"/>
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H86">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
-      <c r="I86">
+        <v>0.9</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4619,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -4632,66 +4604,65 @@
         <v>1.8</v>
       </c>
       <c r="H87">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
       <c r="C88">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="G88">
         <f t="shared" si="12"/>
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4714,25 +4685,25 @@
         <v>0.9</v>
       </c>
       <c r="H89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4742,48 +4713,47 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>90</v>
       </c>
       <c r="G90">
         <f t="shared" si="12"/>
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
-      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
       <c r="C91">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -4796,25 +4766,25 @@
         <v>1.8</v>
       </c>
       <c r="H91">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="I91">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I91">
+        <v>1.8</v>
+      </c>
+      <c r="J91">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4824,38 +4794,38 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F92">
         <v>90</v>
       </c>
       <c r="G92">
-        <f t="shared" si="12"/>
-        <v>3.6</v>
+        <f t="shared" ref="G92:G94" si="13">F92*E92/100</f>
+        <v>1.8</v>
       </c>
       <c r="H92">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="H92:H94" si="14">IF(D92&gt;1,G92,0)</f>
+        <v>1.8</v>
       </c>
       <c r="I92">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I92:I94" si="15">IF(D92&gt;2,G92,0)</f>
         <v>0</v>
       </c>
       <c r="J92">
+        <f t="shared" ref="J92:J94" si="16">IF(D92&gt;3,G92,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K92">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4868,35 +4838,35 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93">
         <v>90</v>
       </c>
       <c r="G93">
-        <f t="shared" si="12"/>
-        <v>1.8</v>
+        <f t="shared" si="13"/>
+        <v>3.6</v>
       </c>
       <c r="H93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J93">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K93">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -4906,445 +4876,436 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94">
         <v>90</v>
       </c>
       <c r="G94">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" si="13"/>
+        <v>1.8</v>
       </c>
       <c r="H94">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="I94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J94">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K94">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K94">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
       <c r="C95">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>90</v>
-      </c>
       <c r="G95">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" ref="G95:G122" si="17">F95*E95/100</f>
+        <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H95:H122" si="18">IF(D95&gt;1,G95,0)</f>
         <v>0</v>
       </c>
       <c r="I95">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I95:I122" si="19">IF(D95&gt;2,G95,0)</f>
         <v>0</v>
       </c>
       <c r="J95">
+        <f t="shared" ref="J95:J122" si="20">IF(D95&gt;3,G95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K95">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K95">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96">
-        <v>2</v>
+      <c r="A96" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C96">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>90</v>
+        <f>SUM(G97:G113)</f>
+        <v>21</v>
       </c>
       <c r="G96">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J96">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K96">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" t="s">
-        <v>107</v>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>100</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>80</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>80</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>80</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>80</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>80</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>80</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
         <v>3</v>
       </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97">
-        <v>90</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="12"/>
-        <v>1.8</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-      <c r="J97">
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>80</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="18"/>
+        <v>1.6</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="19"/>
+        <v>1.6</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K104">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" t="s">
-        <v>108</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
-      </c>
-      <c r="F98">
-        <v>90</v>
-      </c>
-      <c r="G98">
-        <f t="shared" ref="G98:G103" si="13">F98*E98/100</f>
-        <v>1.8</v>
-      </c>
-      <c r="H98">
-        <f t="shared" ref="H98:H103" si="14">IF(D98&gt;1,G98,0)</f>
-        <v>1.8</v>
-      </c>
-      <c r="I98">
-        <f t="shared" ref="I98:I103" si="15">IF(D98&gt;2,G98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <f t="shared" ref="J98:J103" si="16">IF(D98&gt;3,G98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" t="s">
-        <v>109</v>
-      </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>4</v>
-      </c>
-      <c r="F99">
-        <v>90</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="13"/>
-        <v>3.6</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>2</v>
-      </c>
-      <c r="F100">
-        <v>90</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="13"/>
-        <v>1.8</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>4</v>
-      </c>
-      <c r="F101">
-        <v>90</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="13"/>
-        <v>3.6</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" t="s">
-        <v>112</v>
-      </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>2</v>
-      </c>
-      <c r="F102">
-        <v>90</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="13"/>
-        <v>1.8</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" t="s">
-        <v>113</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>2</v>
-      </c>
-      <c r="F103">
-        <v>90</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="13"/>
-        <v>1.8</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="C104">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <f t="shared" ref="G104:G136" si="17">F104*E104/100</f>
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <f t="shared" ref="H104:H136" si="18">IF(D104&gt;1,G104,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <f t="shared" ref="I104:I136" si="19">IF(D104&gt;2,G104,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <f t="shared" ref="J104:J136" si="20">IF(D104&gt;3,G104,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1" t="s">
-        <v>114</v>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" t="s">
+        <v>187</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
       </c>
       <c r="C105">
-        <f>SUM(G106:G126)</f>
-        <v>21.2</v>
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>50</v>
       </c>
       <c r="G105">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <f t="shared" si="19"/>
@@ -5355,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="2" t="s">
-        <v>136</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" t="s">
+        <v>107</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5370,38 +5331,38 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G106">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H106">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I106">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -5435,13 +5396,13 @@
         <v>1.6</v>
       </c>
       <c r="K107">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5475,53 +5436,57 @@
         <v>1.6</v>
       </c>
       <c r="K108">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="L108" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G109">
         <f t="shared" si="17"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H109">
         <f t="shared" si="18"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <f t="shared" si="19"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <f t="shared" si="20"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -5530,38 +5495,38 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110">
         <v>80</v>
       </c>
       <c r="G110">
         <f t="shared" si="17"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H110">
         <f t="shared" si="18"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="I110">
         <f t="shared" si="19"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="J110">
         <f t="shared" si="20"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -5570,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -5592,91 +5557,93 @@
       </c>
       <c r="J111">
         <f t="shared" si="20"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G112">
         <f t="shared" si="17"/>
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H112">
         <f t="shared" si="18"/>
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="I112">
         <f t="shared" si="19"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <f t="shared" si="20"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G113">
         <f t="shared" si="17"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <f t="shared" si="18"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <f t="shared" si="19"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K113">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5684,40 +5651,42 @@
         <v>122</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G114">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H114">
         <f t="shared" si="18"/>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="I114">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J114">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K114">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="L114" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5725,95 +5694,75 @@
         <v>123</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G115">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="H115">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
-      </c>
-      <c r="I115">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K115">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="L115" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G116">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="H116">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K116">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="L116" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -5825,110 +5774,82 @@
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="H117">
-        <f t="shared" si="18"/>
-        <v>1.6</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="19"/>
-        <v>1.6</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="20"/>
-        <v>1.6</v>
-      </c>
       <c r="K117">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="L117" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
       <c r="F118">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G118">
         <f t="shared" si="17"/>
-        <v>1.6</v>
-      </c>
-      <c r="H118">
-        <f t="shared" si="18"/>
-        <v>1.6</v>
-      </c>
-      <c r="I118">
-        <f t="shared" si="19"/>
-        <v>1.6</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="20"/>
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="K118">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="L118" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F119">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G119">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K119">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.2</v>
+      </c>
+      <c r="L119" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5937,332 +5858,316 @@
         <v>3</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F120">
         <v>80</v>
       </c>
       <c r="G120">
         <f t="shared" si="17"/>
+        <v>1.6</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="L120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <f>IF(D121=4, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>80</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
-      <c r="H120">
+      <c r="K121">
+        <f t="shared" ref="K121:K143" si="21">IF(C121=1,E121*F121/100,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>80</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="H122">
         <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
-      <c r="I120">
+      <c r="I122">
         <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
-      <c r="J120">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" t="s">
-        <v>130</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>3</v>
-      </c>
-      <c r="E121">
-        <v>2</v>
-      </c>
-      <c r="F121">
-        <v>80</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="17"/>
-        <v>1.6</v>
-      </c>
-      <c r="H121">
-        <f t="shared" si="18"/>
-        <v>1.6</v>
-      </c>
-      <c r="I121">
-        <f t="shared" si="19"/>
-        <v>1.6</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122" t="s">
-        <v>131</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>25</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
-      </c>
-      <c r="H122">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="J122">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K122">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="L122" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
       <c r="F123">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G123">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
+        <f t="shared" ref="G123:G128" si="22">F123*E123/100</f>
+        <v>1.6</v>
       </c>
       <c r="H123">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" ref="H123:H128" si="23">IF(D123&gt;1,G123,0)</f>
+        <v>1.6</v>
       </c>
       <c r="I123">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" ref="I123:I128" si="24">IF(D123&gt;2,G123,0)</f>
+        <v>1.6</v>
       </c>
       <c r="J123">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="J123:J128" si="25">IF(D123&gt;3,G123,0)</f>
         <v>0</v>
       </c>
       <c r="K123">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1.6</v>
+      </c>
+      <c r="L123" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G124">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
+        <f t="shared" si="22"/>
+        <v>1.6</v>
       </c>
       <c r="H124">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1.6</v>
       </c>
       <c r="I124">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1.6</v>
       </c>
       <c r="J124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K124">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1.6</v>
+      </c>
+      <c r="L124" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G125">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
+        <f t="shared" si="22"/>
+        <v>0.8</v>
       </c>
       <c r="H125">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
+        <f t="shared" si="23"/>
+        <v>0.8</v>
       </c>
       <c r="I125">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>0.8</v>
       </c>
       <c r="J125">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K125">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C126:C143" si="26">IF(D126=4, 1,0)</f>
         <v>0</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>2</v>
       </c>
       <c r="F126">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G126">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>1.6</v>
       </c>
       <c r="H126">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="I126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127">
         <v>80</v>
       </c>
       <c r="G127">
-        <f t="shared" si="17"/>
-        <v>1.6</v>
+        <f t="shared" si="22"/>
+        <v>0.8</v>
       </c>
       <c r="H127">
-        <f t="shared" si="18"/>
-        <v>1.6</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="I127">
-        <f t="shared" si="19"/>
-        <v>1.6</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" si="20"/>
-        <v>1.6</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="K127">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
-      </c>
-      <c r="L127" t="s">
-        <v>181</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -6271,1350 +6176,606 @@
         <v>80</v>
       </c>
       <c r="G128">
-        <f t="shared" si="17"/>
-        <v>1.6</v>
+        <f t="shared" si="22"/>
+        <v>1.6</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="23"/>
+        <v>1.6</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="K128">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" t="s">
-        <v>146</v>
-      </c>
-      <c r="B129">
-        <v>2</v>
-      </c>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>4</v>
-      </c>
-      <c r="E129">
-        <v>2</v>
-      </c>
-      <c r="F129">
-        <v>80</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="G129">
-        <f t="shared" si="17"/>
-        <v>1.6</v>
+        <f t="shared" ref="G129:G143" si="27">F129*E129/100</f>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" ref="H129:H143" si="28">IF(D129&gt;1,G129,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <f t="shared" ref="I129:I143" si="29">IF(D129&gt;2,G129,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <f t="shared" ref="J129:J143" si="30">IF(D129&gt;3,G129,0)</f>
+        <v>0</v>
       </c>
       <c r="K129">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" t="s">
-        <v>147</v>
-      </c>
-      <c r="B130">
-        <v>2</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C130">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>3</v>
-      </c>
-      <c r="E130">
-        <v>2</v>
-      </c>
-      <c r="F130">
-        <v>80</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="G130">
-        <f t="shared" si="17"/>
-        <v>1.6</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="K130">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L130" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E131">
         <v>2</v>
       </c>
       <c r="F131">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G131">
-        <f t="shared" si="17"/>
-        <v>1.6</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L131" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F132">
         <v>80</v>
       </c>
       <c r="G132">
-        <f t="shared" si="17"/>
-        <v>4.8</v>
+        <f t="shared" si="27"/>
+        <v>1.6</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="28"/>
+        <v>1.6</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="29"/>
+        <v>1.6</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="30"/>
+        <v>1.6</v>
       </c>
       <c r="K132">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L132" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+        <f t="shared" si="21"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G133">
-        <f t="shared" si="17"/>
-        <v>0.8</v>
+        <f t="shared" si="27"/>
+        <v>1.8</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="28"/>
+        <v>1.8</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="29"/>
+        <v>1.8</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="30"/>
+        <v>1.8</v>
       </c>
       <c r="K133">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+        <f t="shared" si="21"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G134">
-        <f t="shared" si="17"/>
-        <v>0.8</v>
+        <f t="shared" si="27"/>
+        <v>1.8</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="28"/>
+        <v>1.8</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="29"/>
+        <v>1.8</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="30"/>
+        <v>1.8</v>
       </c>
       <c r="K134">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+        <f t="shared" si="21"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <f t="shared" ref="C135:C163" si="21">IF(D135=4, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F135">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G135">
-        <f t="shared" si="17"/>
-        <v>0.8</v>
+        <f t="shared" si="27"/>
+        <v>1.8</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="28"/>
+        <v>1.8</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="29"/>
+        <v>1.8</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="30"/>
+        <v>1.8</v>
       </c>
       <c r="K135">
-        <f t="shared" ref="K135:K163" si="22">IF(C135=1,E135*F135/100,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <f t="shared" si="21"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F136">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G136">
-        <f t="shared" si="17"/>
-        <v>0.8</v>
+        <f t="shared" si="27"/>
+        <v>1.8</v>
       </c>
       <c r="H136">
-        <f t="shared" si="18"/>
-        <v>0.8</v>
+        <f t="shared" si="28"/>
+        <v>1.8</v>
       </c>
       <c r="I136">
-        <f t="shared" si="19"/>
-        <v>0.8</v>
+        <f t="shared" si="29"/>
+        <v>1.8</v>
       </c>
       <c r="J136">
-        <f t="shared" si="20"/>
-        <v>0.8</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="K136">
-        <f t="shared" si="22"/>
-        <v>0.8</v>
-      </c>
-      <c r="L136" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+        <f t="shared" si="21"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>138</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>90</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="27"/>
+        <v>1.8</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="28"/>
+        <v>1.8</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K137">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>3</v>
-      </c>
-      <c r="E137">
-        <v>2</v>
-      </c>
-      <c r="F137">
-        <v>80</v>
-      </c>
-      <c r="G137">
-        <f t="shared" ref="G137:G146" si="23">F137*E137/100</f>
-        <v>1.6</v>
-      </c>
-      <c r="H137">
-        <f t="shared" ref="H137:H147" si="24">IF(D137&gt;1,G137,0)</f>
-        <v>1.6</v>
-      </c>
-      <c r="I137">
-        <f t="shared" ref="I137:I147" si="25">IF(D137&gt;2,G137,0)</f>
-        <v>1.6</v>
-      </c>
-      <c r="J137">
-        <f t="shared" ref="J137:J147" si="26">IF(D137&gt;3,G137,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>139</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>90</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="27"/>
+        <v>1.8</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="28"/>
+        <v>1.8</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K138">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-      <c r="E138">
-        <v>2</v>
-      </c>
-      <c r="F138">
-        <v>80</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="23"/>
-        <v>1.6</v>
-      </c>
-      <c r="H138">
-        <f t="shared" si="24"/>
-        <v>1.6</v>
-      </c>
-      <c r="I138">
-        <f t="shared" si="25"/>
-        <v>1.6</v>
-      </c>
-      <c r="J138">
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K138">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L138" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" t="s">
-        <v>155</v>
-      </c>
-      <c r="B139">
-        <v>2</v>
-      </c>
-      <c r="C139">
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>50</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K139">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="D139">
-        <v>3</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>80</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="23"/>
-        <v>0.8</v>
-      </c>
-      <c r="H139">
-        <f t="shared" si="24"/>
-        <v>0.8</v>
-      </c>
-      <c r="I139">
-        <f t="shared" si="25"/>
-        <v>0.8</v>
-      </c>
-      <c r="J139">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K139">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G140">
-        <f t="shared" si="23"/>
-        <v>1.6</v>
-      </c>
-      <c r="H140">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" t="s">
-        <v>157</v>
-      </c>
-      <c r="B141">
-        <v>2</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>80</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="23"/>
-        <v>0.8</v>
-      </c>
-      <c r="H141">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142">
-        <v>2</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142">
-        <v>2</v>
-      </c>
-      <c r="F142">
-        <v>80</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="23"/>
-        <v>1.6</v>
-      </c>
-      <c r="H142">
-        <f t="shared" si="24"/>
-        <v>1.6</v>
-      </c>
-      <c r="I142">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143">
-        <v>2</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>2</v>
-      </c>
-      <c r="F143">
-        <v>80</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="23"/>
-        <v>1.6</v>
-      </c>
-      <c r="H143">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K143">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144">
-        <v>2</v>
-      </c>
-      <c r="C144">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>2</v>
-      </c>
-      <c r="F144">
-        <v>80</v>
-      </c>
-      <c r="G144">
-        <f t="shared" si="23"/>
-        <v>1.6</v>
-      </c>
-      <c r="H144">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145" t="s">
-        <v>153</v>
-      </c>
-      <c r="B145">
-        <v>2</v>
-      </c>
-      <c r="C145">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>2</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145">
-        <v>80</v>
-      </c>
-      <c r="G145">
-        <f t="shared" si="23"/>
-        <v>0.8</v>
-      </c>
-      <c r="H145">
-        <f t="shared" si="24"/>
-        <v>0.8</v>
-      </c>
-      <c r="I145">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146" t="s">
-        <v>154</v>
-      </c>
-      <c r="B146">
-        <v>2</v>
-      </c>
-      <c r="C146">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>2</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <v>80</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="23"/>
-        <v>0.8</v>
-      </c>
-      <c r="H146">
-        <f t="shared" si="24"/>
-        <v>0.8</v>
-      </c>
-      <c r="I146">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147" t="s">
-        <v>82</v>
-      </c>
-      <c r="B147">
-        <v>2</v>
-      </c>
-      <c r="C147">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>80</v>
-      </c>
-      <c r="G147">
-        <f>F147*E147/100</f>
-        <v>0.8</v>
-      </c>
-      <c r="H147">
-        <f t="shared" si="24"/>
-        <v>0.8</v>
-      </c>
-      <c r="I147">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="C148">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <f t="shared" ref="G148:G163" si="27">F148*E148/100</f>
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <f t="shared" ref="H148:H163" si="28">IF(D148&gt;1,G148,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <f t="shared" ref="I148:I163" si="29">IF(D148&gt;2,G148,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <f t="shared" ref="J148:J163" si="30">IF(D148&gt;3,G148,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C149">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150" t="s">
-        <v>159</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150">
-        <v>4</v>
-      </c>
-      <c r="E150">
-        <v>2</v>
-      </c>
-      <c r="F150">
-        <v>50</v>
-      </c>
-      <c r="G150">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="I150">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="J150">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="K150">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151" t="s">
-        <v>160</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151">
-        <v>4</v>
-      </c>
-      <c r="E151">
-        <v>2</v>
-      </c>
-      <c r="F151">
-        <v>80</v>
-      </c>
-      <c r="G151">
-        <f t="shared" si="27"/>
-        <v>1.6</v>
-      </c>
-      <c r="H151">
-        <f t="shared" si="28"/>
-        <v>1.6</v>
-      </c>
-      <c r="I151">
-        <f t="shared" si="29"/>
-        <v>1.6</v>
-      </c>
-      <c r="J151">
-        <f t="shared" si="30"/>
-        <v>1.6</v>
-      </c>
-      <c r="K151">
-        <f t="shared" si="22"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152" t="s">
-        <v>161</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152">
-        <v>4</v>
-      </c>
-      <c r="E152">
-        <v>2</v>
-      </c>
-      <c r="F152">
-        <v>90</v>
-      </c>
-      <c r="G152">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-      <c r="H152">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I152">
-        <f t="shared" si="29"/>
-        <v>1.8</v>
-      </c>
-      <c r="J152">
-        <f t="shared" si="30"/>
-        <v>1.8</v>
-      </c>
-      <c r="K152">
-        <f t="shared" si="22"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153" t="s">
-        <v>162</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>4</v>
-      </c>
-      <c r="E153">
-        <v>2</v>
-      </c>
-      <c r="F153">
-        <v>90</v>
-      </c>
-      <c r="G153">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-      <c r="H153">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I153">
-        <f t="shared" si="29"/>
-        <v>1.8</v>
-      </c>
-      <c r="J153">
-        <f t="shared" si="30"/>
-        <v>1.8</v>
-      </c>
-      <c r="K153">
-        <f t="shared" si="22"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154" t="s">
-        <v>163</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154">
-        <v>4</v>
-      </c>
-      <c r="E154">
-        <v>2</v>
-      </c>
-      <c r="F154">
-        <v>90</v>
-      </c>
-      <c r="G154">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-      <c r="H154">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I154">
-        <f t="shared" si="29"/>
-        <v>1.8</v>
-      </c>
-      <c r="J154">
-        <f t="shared" si="30"/>
-        <v>1.8</v>
-      </c>
-      <c r="K154">
-        <f t="shared" si="22"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155" t="s">
-        <v>164</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>3</v>
-      </c>
-      <c r="E155">
-        <v>2</v>
-      </c>
-      <c r="F155">
-        <v>90</v>
-      </c>
-      <c r="G155">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-      <c r="H155">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I155">
-        <f t="shared" si="29"/>
-        <v>1.8</v>
-      </c>
-      <c r="J155">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156" t="s">
-        <v>165</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>2</v>
-      </c>
-      <c r="E156">
-        <v>2</v>
-      </c>
-      <c r="F156">
-        <v>90</v>
-      </c>
-      <c r="G156">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-      <c r="H156">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I156">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157" t="s">
-        <v>166</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>2</v>
-      </c>
-      <c r="E157">
-        <v>2</v>
-      </c>
-      <c r="F157">
-        <v>90</v>
-      </c>
-      <c r="G157">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-      <c r="H157">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I157">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158" t="s">
-        <v>167</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
-        <v>2</v>
-      </c>
-      <c r="F158">
-        <v>50</v>
-      </c>
-      <c r="G158">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="H158">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I158">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K158">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159" t="s">
-        <v>168</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>2</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159">
-        <v>90</v>
-      </c>
-      <c r="G159">
         <f t="shared" si="27"/>
         <v>0.9</v>
       </c>
-      <c r="H159">
+      <c r="H140">
         <f t="shared" si="28"/>
         <v>0.9</v>
       </c>
-      <c r="I159">
+      <c r="I140">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J159">
+      <c r="J140">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K159">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" t="s">
-        <v>169</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160">
-        <v>4</v>
-      </c>
-      <c r="E160">
-        <v>2</v>
-      </c>
-      <c r="F160">
+      <c r="K140">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
         <v>90</v>
       </c>
-      <c r="G160">
+      <c r="G141">
         <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
-      <c r="H160">
+      <c r="H141">
         <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
-      <c r="I160">
+      <c r="I141">
         <f t="shared" si="29"/>
         <v>1.8</v>
       </c>
-      <c r="J160">
+      <c r="J141">
         <f t="shared" si="30"/>
         <v>1.8</v>
       </c>
-      <c r="K160">
-        <f t="shared" si="22"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" t="s">
-        <v>170</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
+      <c r="K141">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>2</v>
-      </c>
-      <c r="E161">
-        <v>2</v>
-      </c>
-      <c r="F161">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
         <v>90</v>
       </c>
-      <c r="G161">
+      <c r="G142">
         <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
-      <c r="H161">
+      <c r="H142">
         <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
-      <c r="I161">
+      <c r="I142">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J161">
+      <c r="J142">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K161">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" t="s">
-        <v>171</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162">
+      <c r="K142">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
         <v>90</v>
       </c>
-      <c r="G162">
+      <c r="G143">
         <f t="shared" si="27"/>
-        <v>0.9</v>
-      </c>
-      <c r="H162">
+        <v>1.8</v>
+      </c>
+      <c r="H143">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I162">
+        <v>1.8</v>
+      </c>
+      <c r="I143">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J162">
+      <c r="J143">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K162">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163" t="s">
-        <v>172</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163">
+      <c r="K143">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="D163">
-        <v>2</v>
-      </c>
-      <c r="E163">
-        <v>2</v>
-      </c>
-      <c r="F163">
-        <v>90</v>
-      </c>
-      <c r="G163">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-      <c r="H163">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I163">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:A12 A14:A45 A47:A53 A55:A56 A59:A62 A4 A64:A104 A106:A1048576">
+  <conditionalFormatting sqref="A6:A12 A14:A45 A47:A53 A55:A56 A59:A62 A4 A64:A95 A97:A1048576">
     <cfRule type="expression" dxfId="16" priority="9">
       <formula>$B4=2</formula>
     </cfRule>
@@ -7671,12 +6832,12 @@
       <formula>$D1=4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
+  <conditionalFormatting sqref="A96">
     <cfRule type="expression" dxfId="1" priority="31">
-      <formula>$C105=2</formula>
+      <formula>$C96=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="32">
-      <formula>$C105=1</formula>
+      <formula>$C96=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="196">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -267,9 +267,6 @@
     <t>Lauren Cooper</t>
   </si>
   <si>
-    <t>Kelsi Redfern</t>
-  </si>
-  <si>
     <t>Andrea Parker</t>
   </si>
   <si>
@@ -598,6 +595,18 @@
   </si>
   <si>
     <t>Helen Xu and Jesse</t>
+  </si>
+  <si>
+    <t>Tally for Save-the-Dates</t>
+  </si>
+  <si>
+    <t>Sent a Save-the-Date?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sent an invitation? </t>
+  </si>
+  <si>
+    <t>Kelsi Redfearn</t>
   </si>
 </sst>
 </file>
@@ -677,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -686,6 +695,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,7 +1227,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1223,11 +1235,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P143"/>
+  <dimension ref="A1:S144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1237,16 +1249,19 @@
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="11" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="57.140625" customWidth="1"/>
-    <col min="13" max="13" width="33.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="7">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1">
         <f ca="1">SUMIF(C5:C230,"=1",E6:E230)</f>
@@ -1268,33 +1283,45 @@
         <f>SUMIF(D6:D230,"&gt;3",E6:E230)</f>
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="N1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="6">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>94</v>
       </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3">
         <f>SUM(K5:K230)</f>
@@ -1316,14 +1343,17 @@
         <f>SUM(J:J)</f>
         <v>85.499999999999915</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="R3" t="s">
         <v>39</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:19">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1331,31 +1361,31 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s">
         <v>145</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" t="s">
-        <v>146</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1363,8 +1393,11 @@
       <c r="M4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1373,7 +1406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1413,10 +1446,13 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>146</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1455,8 +1491,11 @@
         <f t="shared" ref="K7:K71" si="3">IF(C7=1,E7*F7/100,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1495,8 +1534,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1536,10 +1578,13 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>147</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1579,10 +1624,13 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>150</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1621,8 +1669,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="B12" s="1"/>
       <c r="C12">
         <f t="shared" ref="C12:C62" si="5">IF(D12=4, 1,0)</f>
@@ -1649,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1678,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1717,8 +1768,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1757,8 +1811,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1797,8 +1854,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1837,8 +1897,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1877,8 +1940,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1917,8 +1983,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1957,8 +2026,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1997,8 +2069,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2037,8 +2112,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2077,8 +2155,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2117,8 +2198,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2157,8 +2241,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2197,8 +2284,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -2237,8 +2327,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -2277,8 +2370,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2317,8 +2413,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2357,8 +2456,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2397,8 +2499,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -2437,8 +2542,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -2477,8 +2585,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -2517,8 +2628,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -2558,10 +2672,13 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>188</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -2601,10 +2718,13 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>155</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2644,10 +2764,13 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -2686,8 +2809,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -2727,10 +2853,13 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>189</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -2770,13 +2899,16 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
+        <v>152</v>
+      </c>
+      <c r="M40" t="s">
         <v>153</v>
       </c>
-      <c r="M40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -2816,10 +2948,13 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>154</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -2859,12 +2994,15 @@
         <v>2</v>
       </c>
       <c r="M42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -2902,10 +3040,13 @@
         <v>0.5</v>
       </c>
       <c r="L43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>160</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="2"/>
       <c r="C44">
         <f t="shared" si="5"/>
@@ -2932,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="B45" s="1"/>
       <c r="C45">
         <f t="shared" si="5"/>
@@ -2959,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
@@ -2987,8 +3128,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3031,8 +3175,11 @@
       <c r="M47" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3075,8 +3222,11 @@
       <c r="M48" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3119,8 +3269,11 @@
       <c r="M49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -3162,8 +3315,11 @@
       <c r="M50" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3205,8 +3361,11 @@
       <c r="M51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -3248,8 +3407,11 @@
       <c r="M52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="C53">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3275,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -3304,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3343,8 +3505,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3384,10 +3549,13 @@
         <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>168</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3426,10 +3594,13 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3466,8 +3637,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3507,10 +3681,13 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>169</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3550,10 +3727,13 @@
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>179</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3593,10 +3773,13 @@
         <v>2</v>
       </c>
       <c r="L61" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>165</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="C62">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3622,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3651,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3690,8 +3873,11 @@
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3731,10 +3917,13 @@
         <v>1.8</v>
       </c>
       <c r="L65" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>164</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3776,8 +3965,11 @@
       <c r="M66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -3816,8 +4008,11 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -3856,10 +4051,13 @@
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3870,8 +4068,11 @@
       <c r="F69">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -3911,10 +4112,13 @@
         <v>0.9</v>
       </c>
       <c r="L70" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>171</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -3953,10 +4157,13 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3995,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4035,10 +4242,13 @@
         <v>1.8</v>
       </c>
       <c r="L73" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>166</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4078,10 +4288,13 @@
         <v>1.8</v>
       </c>
       <c r="L74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4121,10 +4334,13 @@
         <v>1.8</v>
       </c>
       <c r="L75" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>174</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4164,10 +4380,13 @@
         <v>1.8</v>
       </c>
       <c r="L76" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>175</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4207,10 +4426,13 @@
         <v>0.9</v>
       </c>
       <c r="L77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>167</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4249,8 +4471,11 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4289,8 +4514,11 @@
         <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4329,8 +4557,11 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="N80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -4370,12 +4601,15 @@
         <v>0.9</v>
       </c>
       <c r="L81" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>173</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4413,12 +4647,15 @@
         <v>0.9</v>
       </c>
       <c r="L82" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>172</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -4456,10 +4693,13 @@
         <v>0.9</v>
       </c>
       <c r="L83" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>148</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -4498,10 +4738,13 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="N84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -4538,10 +4781,13 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="N85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -4578,10 +4824,13 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="N86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4620,9 +4869,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -4659,10 +4908,13 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="N88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4701,9 +4953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4742,9 +4994,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4781,10 +5033,13 @@
         <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="N91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4823,9 +5078,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4864,9 +5119,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -4905,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:14">
       <c r="C95">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4931,9 +5186,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <f>SUM(G97:G113)</f>
@@ -4960,9 +5215,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:14">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4999,10 +5254,13 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="N97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -5039,10 +5297,13 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="N98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -5079,10 +5340,13 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="N99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -5119,10 +5383,13 @@
         <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="N100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -5159,10 +5426,13 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="N101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -5199,10 +5469,13 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="N102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5239,10 +5512,13 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="N103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5279,10 +5555,13 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="N104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -5319,10 +5598,13 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="N105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5359,10 +5641,13 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="N106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -5399,10 +5684,13 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="N107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5440,12 +5728,15 @@
         <v>1.6</v>
       </c>
       <c r="L108" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>170</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -5484,9 +5775,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -5523,10 +5814,13 @@
         <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="N110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -5563,10 +5857,13 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="N111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -5605,9 +5902,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -5646,9 +5943,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -5686,12 +5983,15 @@
         <v>1.6</v>
       </c>
       <c r="L114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>151</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -5717,12 +6017,15 @@
         <v>1.6</v>
       </c>
       <c r="L115" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>176</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -5748,12 +6051,15 @@
         <v>1.6</v>
       </c>
       <c r="L116" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>190</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -5779,12 +6085,15 @@
         <v>1.6</v>
       </c>
       <c r="L117" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>156</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -5810,12 +6119,15 @@
         <v>0.4</v>
       </c>
       <c r="L118" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>157</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -5841,12 +6153,15 @@
         <v>1.2</v>
       </c>
       <c r="L119" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+        <v>158</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -5872,12 +6187,15 @@
         <v>1.6</v>
       </c>
       <c r="L120" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>150</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -5904,9 +6222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -5944,12 +6262,15 @@
         <v>0.8</v>
       </c>
       <c r="L122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -5987,12 +6308,15 @@
         <v>1.6</v>
       </c>
       <c r="L123" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>177</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -6030,12 +6354,15 @@
         <v>1.6</v>
       </c>
       <c r="L124" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+        <v>163</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -6072,10 +6399,13 @@
         <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="N125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -6114,9 +6444,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -6155,9 +6485,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -6196,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:14">
       <c r="C129">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -6222,9 +6552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:14">
       <c r="A130" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C130">
         <f t="shared" si="26"/>
@@ -6251,9 +6581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -6290,10 +6620,13 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="N131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -6330,10 +6663,13 @@
         <f t="shared" si="21"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="N132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -6370,10 +6706,13 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="N133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6410,10 +6749,13 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="N134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -6450,10 +6792,13 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="N135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -6490,10 +6835,13 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="N136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -6530,10 +6878,13 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="N137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -6572,9 +6923,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -6613,9 +6964,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -6653,9 +7004,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -6692,10 +7043,13 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="N141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -6732,10 +7086,13 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="N142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -6774,7 +7131,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="144" spans="1:14">
+      <c r="N144">
+        <f>SUM(N1:N143)</f>
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+  </mergeCells>
   <conditionalFormatting sqref="A6:A12 A14:A45 A47:A53 A55:A56 A59:A62 A4 A64:A95 A97:A1048576">
     <cfRule type="expression" dxfId="16" priority="9">
       <formula>$B4=2</formula>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\Documents\GitHub\Farrell_Garrett_Wedding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="215">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -324,9 +329,6 @@
     <t>Kevin and Bobby Ensinger</t>
   </si>
   <si>
-    <t>Zach Palfenier and Claire…</t>
-  </si>
-  <si>
     <t>Patrick Murphy</t>
   </si>
   <si>
@@ -339,9 +341,6 @@
     <t>Peter and Shannon Happ</t>
   </si>
   <si>
-    <t>Kyle Rock…y</t>
-  </si>
-  <si>
     <t>Cory and Katie Brewer</t>
   </si>
   <si>
@@ -607,13 +606,76 @@
   </si>
   <si>
     <t>Kelsi Redfearn</t>
+  </si>
+  <si>
+    <t>Hand Deliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request Sent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand Deliver </t>
+  </si>
+  <si>
+    <t>22226 Bridgeston Pine Court, Spring TX, 77388</t>
+  </si>
+  <si>
+    <t>852 W. Barry Ave. Apt 1, Chicago, IL 60657</t>
+  </si>
+  <si>
+    <t>830 N Milwaukee Ave Unit 502, Chicago, IL 60642</t>
+  </si>
+  <si>
+    <t>1150 W Cornelia Ave #3, Chicago, 60657</t>
+  </si>
+  <si>
+    <t>1213 Eustace Drive, Dixon, IL 61021</t>
+  </si>
+  <si>
+    <t>2525 Muscadine Dr. Augusta, GA 30909</t>
+  </si>
+  <si>
+    <t>Zach Palfenier and Claire Chavez</t>
+  </si>
+  <si>
+    <t>Kyle Rockerhousen (rocky)</t>
+  </si>
+  <si>
+    <t>2344 Cherry Hills Dr. Apt 8, Springfield, IL 62704</t>
+  </si>
+  <si>
+    <t>3839B Old Jenny Lind Rd, Fort Smith, AR 72901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4444 N Dover, Apt 3N, Chicago, IL 60640 </t>
+  </si>
+  <si>
+    <t>3021 Woodland Elm Cv N Lakeland, TN 38002</t>
+  </si>
+  <si>
+    <t>3706 NW 62nd St. Seattle, WA 98107</t>
+  </si>
+  <si>
+    <t>2920 Sheehan Dr. Naperville, IL 60564</t>
+  </si>
+  <si>
+    <t>3850 County Rd 22, Centre, AL 35960</t>
+  </si>
+  <si>
+    <t>4904 Drendel Rd. Downers Grove, IL 60515</t>
+  </si>
+  <si>
+    <t>738 River Dr. Apt 7, Bettendorf, IA 52722</t>
+  </si>
+  <si>
+    <t>14723 Fernwood Dr. Carmel, IN 46033</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1227,22 +1289,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -1256,12 +1318,12 @@
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1">
         <f ca="1">SUMIF(C5:C230,"=1",E6:E230)</f>
@@ -1284,21 +1346,21 @@
         <v>130</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>91</v>
@@ -1316,12 +1378,12 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3">
         <f>SUM(K5:K230)</f>
@@ -1353,7 +1415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1361,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1385,7 +1447,7 @@
         <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1397,7 +1459,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1406,7 +1468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1446,13 +1508,13 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1491,11 +1553,14 @@
         <f t="shared" ref="K7:K71" si="3">IF(C7=1,E7*F7/100,0)</f>
         <v>1</v>
       </c>
+      <c r="L7" t="s">
+        <v>194</v>
+      </c>
       <c r="N7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1534,11 +1599,14 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="L8" t="s">
+        <v>214</v>
+      </c>
       <c r="N8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1578,13 +1646,13 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1624,13 +1692,13 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1673,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12">
         <f t="shared" ref="C12:C62" si="5">IF(D12=4, 1,0)</f>
@@ -1700,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1811,11 +1879,14 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L15" t="s">
+        <v>213</v>
+      </c>
       <c r="N15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1858,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1901,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1944,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1987,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2030,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2073,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2116,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2155,11 +2226,14 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
       <c r="N23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2202,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2245,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2288,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -2331,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -2374,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2417,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2460,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2503,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -2546,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -2589,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -2632,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -2672,13 +2746,13 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -2718,13 +2792,13 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2764,13 +2838,13 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -2813,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -2853,13 +2927,13 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -2899,16 +2973,16 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -2948,13 +3022,13 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -2994,15 +3068,15 @@
         <v>2</v>
       </c>
       <c r="M42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -3040,13 +3114,13 @@
         <v>0.5</v>
       </c>
       <c r="L43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="C44">
         <f t="shared" si="5"/>
@@ -3073,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45">
         <f t="shared" si="5"/>
@@ -3100,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
@@ -3132,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3179,7 +3253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3226,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3273,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -3319,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3365,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -3411,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C53">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3437,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -3466,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3505,11 +3579,14 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L55" t="s">
+        <v>194</v>
+      </c>
       <c r="N55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3549,13 +3626,13 @@
         <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3594,13 +3671,16 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L57" t="s">
+        <v>194</v>
+      </c>
       <c r="N57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3637,11 +3717,14 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="L58" t="s">
+        <v>208</v>
+      </c>
       <c r="N58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3681,13 +3764,13 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3727,13 +3810,13 @@
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3773,13 +3856,13 @@
         <v>2</v>
       </c>
       <c r="L61" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C62">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3805,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3834,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3873,11 +3956,14 @@
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
+      <c r="L64" t="s">
+        <v>194</v>
+      </c>
       <c r="N64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3917,13 +4003,13 @@
         <v>1.8</v>
       </c>
       <c r="L65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3962,6 +4048,9 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
+      <c r="L66" t="s">
+        <v>194</v>
+      </c>
       <c r="M66" t="s">
         <v>67</v>
       </c>
@@ -3969,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -4008,11 +4097,14 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
+      <c r="L67" t="s">
+        <v>194</v>
+      </c>
       <c r="N67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4051,13 +4143,16 @@
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
+      <c r="L68" t="s">
+        <v>197</v>
+      </c>
       <c r="N68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4072,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -4112,13 +4207,13 @@
         <v>0.9</v>
       </c>
       <c r="L70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -4157,13 +4252,16 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
+      <c r="L71" t="s">
+        <v>196</v>
+      </c>
       <c r="N71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4202,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4242,13 +4340,13 @@
         <v>1.8</v>
       </c>
       <c r="L73" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4288,13 +4386,13 @@
         <v>1.8</v>
       </c>
       <c r="L74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4334,13 +4432,13 @@
         <v>1.8</v>
       </c>
       <c r="L75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4380,13 +4478,13 @@
         <v>1.8</v>
       </c>
       <c r="L76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4426,13 +4524,13 @@
         <v>0.9</v>
       </c>
       <c r="L77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4475,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4518,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4561,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -4601,15 +4699,15 @@
         <v>0.9</v>
       </c>
       <c r="L81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4647,13 +4745,13 @@
         <v>0.9</v>
       </c>
       <c r="L82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4693,13 +4791,13 @@
         <v>0.9</v>
       </c>
       <c r="L83" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -4742,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4785,9 +4883,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -4828,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -4869,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -4912,9 +5010,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4953,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -4994,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -5037,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -5078,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -5119,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -5160,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C95">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5186,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>99</v>
       </c>
@@ -5215,9 +5313,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5254,11 +5352,14 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
+      <c r="L97" t="s">
+        <v>195</v>
+      </c>
       <c r="N97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -5297,13 +5398,16 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
+      <c r="L98" t="s">
+        <v>195</v>
+      </c>
       <c r="N98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -5340,13 +5444,16 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
+      <c r="L99" t="s">
+        <v>202</v>
+      </c>
       <c r="N99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -5383,13 +5490,16 @@
         <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
+      <c r="L100" t="s">
+        <v>198</v>
+      </c>
       <c r="N100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -5426,13 +5536,16 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
+      <c r="L101" t="s">
+        <v>210</v>
+      </c>
       <c r="N101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -5469,13 +5582,16 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
+      <c r="L102" t="s">
+        <v>195</v>
+      </c>
       <c r="N102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5512,13 +5628,16 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
+      <c r="L103" t="s">
+        <v>207</v>
+      </c>
       <c r="N103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5555,13 +5674,16 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
+      <c r="L104" t="s">
+        <v>199</v>
+      </c>
       <c r="N104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -5598,13 +5720,16 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
+      <c r="L105" t="s">
+        <v>201</v>
+      </c>
       <c r="N105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5641,13 +5766,16 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
+      <c r="L106" t="s">
+        <v>205</v>
+      </c>
       <c r="N106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -5684,13 +5812,16 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
+      <c r="L107" t="s">
+        <v>211</v>
+      </c>
       <c r="N107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5728,15 +5859,15 @@
         <v>1.6</v>
       </c>
       <c r="L108" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -5775,9 +5906,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -5814,13 +5945,16 @@
         <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
+      <c r="L110" t="s">
+        <v>200</v>
+      </c>
       <c r="N110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -5857,13 +5991,16 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
+      <c r="L111" t="s">
+        <v>206</v>
+      </c>
       <c r="N111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -5902,9 +6039,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -5943,9 +6080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -5983,15 +6120,15 @@
         <v>1.6</v>
       </c>
       <c r="L114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -6017,15 +6154,15 @@
         <v>1.6</v>
       </c>
       <c r="L115" t="s">
+        <v>174</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>176</v>
-      </c>
-      <c r="N115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116" t="s">
-        <v>178</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -6051,15 +6188,15 @@
         <v>1.6</v>
       </c>
       <c r="L116" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -6085,15 +6222,15 @@
         <v>1.6</v>
       </c>
       <c r="L117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -6119,15 +6256,15 @@
         <v>0.4</v>
       </c>
       <c r="L118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -6153,15 +6290,15 @@
         <v>1.2</v>
       </c>
       <c r="L119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -6187,15 +6324,15 @@
         <v>1.6</v>
       </c>
       <c r="L120" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -6222,9 +6359,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -6262,15 +6399,15 @@
         <v>0.8</v>
       </c>
       <c r="L122" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -6308,15 +6445,15 @@
         <v>1.6</v>
       </c>
       <c r="L123" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -6354,15 +6491,15 @@
         <v>1.6</v>
       </c>
       <c r="L124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -6403,9 +6540,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -6444,9 +6581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -6485,9 +6622,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -6526,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C129">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -6552,9 +6689,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C130">
         <f t="shared" si="26"/>
@@ -6581,9 +6718,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -6620,13 +6757,16 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
+      <c r="L131" t="s">
+        <v>194</v>
+      </c>
       <c r="N131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -6663,13 +6803,16 @@
         <f t="shared" si="21"/>
         <v>1.6</v>
       </c>
+      <c r="L132" t="s">
+        <v>209</v>
+      </c>
       <c r="N132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -6706,13 +6849,16 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
+      <c r="L133" t="s">
+        <v>194</v>
+      </c>
       <c r="N133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6749,13 +6895,16 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
+      <c r="L134" t="s">
+        <v>194</v>
+      </c>
       <c r="N134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -6792,13 +6941,16 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
+      <c r="L135" t="s">
+        <v>194</v>
+      </c>
       <c r="N135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -6835,13 +6987,16 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
+      <c r="L136" t="s">
+        <v>194</v>
+      </c>
       <c r="N136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -6878,13 +7033,16 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
+      <c r="L137" t="s">
+        <v>194</v>
+      </c>
       <c r="N137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -6923,9 +7081,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -6964,9 +7122,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -7004,9 +7162,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -7043,13 +7201,16 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
+      <c r="L141" t="s">
+        <v>194</v>
+      </c>
       <c r="N141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -7086,13 +7247,16 @@
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
+      <c r="L142" t="s">
+        <v>194</v>
+      </c>
       <c r="N142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -7131,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N144">
         <f>SUM(N1:N143)</f>
         <v>108</v>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="216">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>14723 Fernwood Dr. Carmel, IN 46033</t>
+  </si>
+  <si>
+    <t>3421 S. Wallace St. Chicago, IL 60616</t>
   </si>
 </sst>
 </file>
@@ -1300,8 +1303,8 @@
   <dimension ref="A1:S144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5583,7 +5586,7 @@
         <v>1.6</v>
       </c>
       <c r="L102" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="N102">
         <v>1</v>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="215">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -350,21 +350,12 @@
     <t>Ginina Vittuci and Guest</t>
   </si>
   <si>
-    <t xml:space="preserve">Ethan and Emily Coxey </t>
-  </si>
-  <si>
     <t xml:space="preserve">Brooke Ulrich </t>
   </si>
   <si>
     <t>Meg Lees and Fiance</t>
   </si>
   <si>
-    <t>Aubrey Heck</t>
-  </si>
-  <si>
-    <t>Dan and Allison Phelps</t>
-  </si>
-  <si>
     <t>Christopher Naranjo</t>
   </si>
   <si>
@@ -672,6 +663,12 @@
   </si>
   <si>
     <t>3421 S. Wallace St. Chicago, IL 60616</t>
+  </si>
+  <si>
+    <t>Brett Zimmerman</t>
+  </si>
+  <si>
+    <t>1815 Marilyn Lane, Aurora, IL 60505</t>
   </si>
 </sst>
 </file>
@@ -1300,11 +1297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S144"/>
+  <dimension ref="A1:S142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,36 +1323,36 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C1">
-        <f ca="1">SUMIF(C5:C230,"=1",E6:E230)</f>
-        <v>178</v>
+        <f ca="1">SUMIF(C5:C228,"=1",E6:E228)</f>
+        <v>179</v>
       </c>
       <c r="D1">
-        <f>SUM(E5:E141)</f>
-        <v>225</v>
+        <f>SUM(E5:E139)</f>
+        <v>221</v>
       </c>
       <c r="E1">
-        <f>SUMIF(D6:D230,"&gt;1",E6:E230)</f>
-        <v>205</v>
+        <f>SUMIF(D6:D228,"&gt;1",E6:E228)</f>
+        <v>201</v>
       </c>
       <c r="F1">
-        <f>SUMIF(D6:D230,"&gt;2",E6:E230)</f>
+        <f>SUMIF(D6:D228,"&gt;2",E6:E228)</f>
         <v>174</v>
       </c>
       <c r="G1">
-        <f>SUMIF(D6:D230,"&gt;3",E6:E230)</f>
+        <f>SUMIF(D6:D228,"&gt;3",E6:E228)</f>
         <v>130</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1363,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>91</v>
@@ -1386,19 +1383,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C3">
-        <f>SUM(K5:K230)</f>
-        <v>122.99999999999989</v>
+        <f>SUM(K5:K228)</f>
+        <v>123.89999999999989</v>
       </c>
       <c r="D3">
-        <f>SUM(G6:G192)</f>
-        <v>149.4</v>
+        <f>SUM(G6:G190)</f>
+        <v>147.80000000000001</v>
       </c>
       <c r="E3">
         <f>SUM(H:H)</f>
-        <v>129.49999999999991</v>
+        <v>127.89999999999991</v>
       </c>
       <c r="F3">
         <f>SUM(I:I)</f>
@@ -1426,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1450,7 +1447,7 @@
         <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1511,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1557,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1603,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1649,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1695,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1883,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2230,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2749,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2795,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2841,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2930,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2976,10 +2973,10 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -3025,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -3071,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="M42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -3079,7 +3076,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -3117,7 +3114,7 @@
         <v>0.5</v>
       </c>
       <c r="L43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3583,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3629,7 +3626,7 @@
         <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3675,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3721,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="L58" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3767,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3813,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3859,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="L61" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3960,7 +3957,7 @@
         <v>1.8</v>
       </c>
       <c r="L64" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -4006,7 +4003,7 @@
         <v>1.8</v>
       </c>
       <c r="L65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -4052,7 +4049,7 @@
         <v>0.9</v>
       </c>
       <c r="L66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M66" t="s">
         <v>67</v>
@@ -4101,7 +4098,7 @@
         <v>0.9</v>
       </c>
       <c r="L67" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4147,7 +4144,7 @@
         <v>1.8</v>
       </c>
       <c r="L68" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -4155,7 +4152,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4210,7 +4207,7 @@
         <v>0.9</v>
       </c>
       <c r="L70" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -4256,7 +4253,7 @@
         <v>0.9</v>
       </c>
       <c r="L71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -4264,13 +4261,13 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:C113" si="7">IF(D72=4, 1,0)</f>
+        <f t="shared" ref="C72:C95" si="7">IF(D72=4, 1,0)</f>
         <v>0</v>
       </c>
       <c r="D72">
@@ -4299,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K120" si="11">IF(C72=1,E72*F72/100,0)</f>
+        <f t="shared" ref="K72:K118" si="11">IF(C72=1,E72*F72/100,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4343,7 +4340,7 @@
         <v>1.8</v>
       </c>
       <c r="L73" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -4389,7 +4386,7 @@
         <v>1.8</v>
       </c>
       <c r="L74" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -4435,7 +4432,7 @@
         <v>1.8</v>
       </c>
       <c r="L75" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -4481,7 +4478,7 @@
         <v>1.8</v>
       </c>
       <c r="L76" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -4527,7 +4524,7 @@
         <v>0.9</v>
       </c>
       <c r="L77" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -4702,7 +4699,7 @@
         <v>0.9</v>
       </c>
       <c r="L81" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -4710,7 +4707,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4748,7 +4745,7 @@
         <v>0.9</v>
       </c>
       <c r="L82" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -4794,7 +4791,7 @@
         <v>0.9</v>
       </c>
       <c r="L83" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -4888,7 +4885,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -5015,7 +5012,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -5267,19 +5264,19 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" ref="G95:G122" si="17">F95*E95/100</f>
+        <f t="shared" ref="G95:G120" si="17">F95*E95/100</f>
         <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" ref="H95:H122" si="18">IF(D95&gt;1,G95,0)</f>
+        <f t="shared" ref="H95:H120" si="18">IF(D95&gt;1,G95,0)</f>
         <v>0</v>
       </c>
       <c r="I95">
-        <f t="shared" ref="I95:I122" si="19">IF(D95&gt;2,G95,0)</f>
+        <f t="shared" ref="I95:I120" si="19">IF(D95&gt;2,G95,0)</f>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" ref="J95:J122" si="20">IF(D95&gt;3,G95,0)</f>
+        <f t="shared" ref="J95:J120" si="20">IF(D95&gt;3,G95,0)</f>
         <v>0</v>
       </c>
       <c r="K95">
@@ -5292,8 +5289,8 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <f>SUM(G97:G113)</f>
-        <v>21</v>
+        <f>SUM(G97:G111)</f>
+        <v>19.399999999999999</v>
       </c>
       <c r="G96">
         <f t="shared" si="17"/>
@@ -5318,7 +5315,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5356,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -5402,7 +5399,7 @@
         <v>1.6</v>
       </c>
       <c r="L98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -5410,7 +5407,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -5448,7 +5445,7 @@
         <v>1.6</v>
       </c>
       <c r="L99" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -5494,7 +5491,7 @@
         <v>0.8</v>
       </c>
       <c r="L100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -5540,7 +5537,7 @@
         <v>1.6</v>
       </c>
       <c r="L101" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -5586,7 +5583,7 @@
         <v>1.6</v>
       </c>
       <c r="L102" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -5632,7 +5629,7 @@
         <v>1.6</v>
       </c>
       <c r="L103" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -5640,7 +5637,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5678,7 +5675,7 @@
         <v>1.6</v>
       </c>
       <c r="L104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -5686,7 +5683,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -5724,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -5732,7 +5729,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5770,7 +5767,7 @@
         <v>0.5</v>
       </c>
       <c r="L106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -5816,7 +5813,7 @@
         <v>1.6</v>
       </c>
       <c r="L107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -5862,7 +5859,7 @@
         <v>1.6</v>
       </c>
       <c r="L108" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -5870,31 +5867,30 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G109">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H109">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I109">
         <f t="shared" si="19"/>
@@ -5906,12 +5902,15 @@
       </c>
       <c r="K109">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="L109" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -5949,7 +5948,7 @@
         <v>0.8</v>
       </c>
       <c r="L110" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -5957,7 +5956,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -5995,7 +5994,7 @@
         <v>1.6</v>
       </c>
       <c r="L111" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -6003,89 +6002,87 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G112">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H112">
         <f t="shared" si="18"/>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="I112">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J112">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K112">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.6</v>
+      </c>
+      <c r="L112" t="s">
+        <v>146</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113">
         <v>2</v>
       </c>
       <c r="F113">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G113">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="I113">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K113">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.6</v>
+      </c>
+      <c r="L113" t="s">
+        <v>171</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -6106,24 +6103,12 @@
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="H114">
-        <f t="shared" si="18"/>
-        <v>1.6</v>
-      </c>
-      <c r="I114">
-        <f t="shared" si="19"/>
-        <v>1.6</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="20"/>
-        <v>1.6</v>
-      </c>
       <c r="K114">
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
       <c r="L114" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -6131,7 +6116,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -6140,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -6157,7 +6142,7 @@
         <v>1.6</v>
       </c>
       <c r="L115" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -6165,7 +6150,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -6174,24 +6159,24 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
       <c r="F116">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G116">
         <f t="shared" si="17"/>
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="K116">
         <f t="shared" si="11"/>
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="L116" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -6199,7 +6184,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -6211,21 +6196,21 @@
         <v>3</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F117">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G117">
         <f t="shared" si="17"/>
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="K117">
         <f t="shared" si="11"/>
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="L117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -6233,7 +6218,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -6248,18 +6233,18 @@
         <v>2</v>
       </c>
       <c r="F118">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G118">
         <f t="shared" si="17"/>
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="K118">
         <f t="shared" si="11"/>
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="L118" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -6267,41 +6252,36 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <f>IF(D119=4, 1,0)</f>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G119">
         <f t="shared" si="17"/>
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="K119">
-        <f t="shared" si="11"/>
-        <v>1.2</v>
-      </c>
-      <c r="L119" t="s">
-        <v>156</v>
-      </c>
-      <c r="N119">
-        <v>1</v>
+        <f t="shared" ref="K119:K141" si="21">IF(C119=1,E119*F119/100,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -6310,24 +6290,36 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120">
         <v>80</v>
       </c>
       <c r="G120">
         <f t="shared" si="17"/>
-        <v>1.6</v>
+        <v>0.8</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
       </c>
       <c r="K120">
-        <f t="shared" si="11"/>
-        <v>1.6</v>
+        <f t="shared" si="21"/>
+        <v>0.8</v>
       </c>
       <c r="L120" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -6335,36 +6327,53 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
       <c r="C121">
-        <f>IF(D121=4, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121">
         <v>80</v>
       </c>
       <c r="G121">
-        <f t="shared" si="17"/>
-        <v>0.8</v>
+        <f t="shared" ref="G121:G126" si="22">F121*E121/100</f>
+        <v>1.6</v>
+      </c>
+      <c r="H121">
+        <f t="shared" ref="H121:H126" si="23">IF(D121&gt;1,G121,0)</f>
+        <v>1.6</v>
+      </c>
+      <c r="I121">
+        <f t="shared" ref="I121:I126" si="24">IF(D121&gt;2,G121,0)</f>
+        <v>1.6</v>
+      </c>
+      <c r="J121">
+        <f t="shared" ref="J121:J126" si="25">IF(D121&gt;3,G121,0)</f>
+        <v>0</v>
       </c>
       <c r="K121">
-        <f t="shared" ref="K121:K143" si="21">IF(C121=1,E121*F121/100,0)</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1.6</v>
+      </c>
+      <c r="L121" t="s">
+        <v>172</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -6373,36 +6382,36 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F122">
         <v>80</v>
       </c>
       <c r="G122">
-        <f t="shared" si="17"/>
-        <v>0.8</v>
+        <f t="shared" si="22"/>
+        <v>1.6</v>
       </c>
       <c r="H122">
-        <f t="shared" si="18"/>
-        <v>0.8</v>
+        <f t="shared" si="23"/>
+        <v>1.6</v>
       </c>
       <c r="I122">
-        <f t="shared" si="19"/>
-        <v>0.8</v>
+        <f t="shared" si="24"/>
+        <v>1.6</v>
       </c>
       <c r="J122">
-        <f t="shared" si="20"/>
-        <v>0.8</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="K122">
         <f t="shared" si="21"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="L122" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -6410,7 +6419,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -6422,33 +6431,30 @@
         <v>3</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123">
         <v>80</v>
       </c>
       <c r="G123">
-        <f t="shared" ref="G123:G128" si="22">F123*E123/100</f>
-        <v>1.6</v>
+        <f t="shared" si="22"/>
+        <v>0.8</v>
       </c>
       <c r="H123">
-        <f t="shared" ref="H123:H128" si="23">IF(D123&gt;1,G123,0)</f>
-        <v>1.6</v>
+        <f t="shared" si="23"/>
+        <v>0.8</v>
       </c>
       <c r="I123">
-        <f t="shared" ref="I123:I128" si="24">IF(D123&gt;2,G123,0)</f>
-        <v>1.6</v>
+        <f t="shared" si="24"/>
+        <v>0.8</v>
       </c>
       <c r="J123">
-        <f t="shared" ref="J123:J128" si="25">IF(D123&gt;3,G123,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K123">
         <f t="shared" si="21"/>
-        <v>1.6</v>
-      </c>
-      <c r="L123" t="s">
-        <v>175</v>
+        <v>0.8</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -6456,16 +6462,17 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <f t="shared" ref="C124:C141" si="26">IF(D124=4, 1,0)</f>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -6479,11 +6486,11 @@
       </c>
       <c r="H124">
         <f t="shared" si="23"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <f t="shared" si="24"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <f t="shared" si="25"/>
@@ -6491,27 +6498,22 @@
       </c>
       <c r="K124">
         <f t="shared" si="21"/>
-        <v>1.6</v>
-      </c>
-      <c r="L124" t="s">
-        <v>161</v>
-      </c>
-      <c r="N124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6525,11 +6527,11 @@
       </c>
       <c r="H125">
         <f t="shared" si="23"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <f t="shared" si="24"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J125">
         <f t="shared" si="25"/>
@@ -6537,25 +6539,22 @@
       </c>
       <c r="K125">
         <f t="shared" si="21"/>
-        <v>0.8</v>
-      </c>
-      <c r="N125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:C143" si="26">IF(D126=4, 1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -6569,7 +6568,7 @@
       </c>
       <c r="H126">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I126">
         <f t="shared" si="24"/>
@@ -6585,39 +6584,24 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
       <c r="C127">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>80</v>
-      </c>
       <c r="G127">
-        <f t="shared" si="22"/>
-        <v>0.8</v>
+        <f t="shared" ref="G127:G141" si="27">F127*E127/100</f>
+        <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="H127:H141" si="28">IF(D127&gt;1,G127,0)</f>
         <v>0</v>
       </c>
       <c r="I127">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="I127:I141" si="29">IF(D127&gt;2,G127,0)</f>
         <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="J127:J141" si="30">IF(D127&gt;3,G127,0)</f>
         <v>0</v>
       </c>
       <c r="K127">
@@ -6626,39 +6610,27 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128">
-        <v>2</v>
+      <c r="A128" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C128">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="D128">
-        <v>2</v>
-      </c>
-      <c r="E128">
-        <v>2</v>
-      </c>
-      <c r="F128">
-        <v>80</v>
-      </c>
       <c r="G128">
-        <f t="shared" si="22"/>
-        <v>1.6</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="H128">
-        <f t="shared" si="23"/>
-        <v>1.6</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="I128">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K128">
@@ -6667,63 +6639,100 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
       <c r="C129">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>50</v>
       </c>
       <c r="G129">
-        <f t="shared" ref="G129:G143" si="27">F129*E129/100</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="H129">
-        <f t="shared" ref="H129:H143" si="28">IF(D129&gt;1,G129,0)</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="I129">
-        <f t="shared" ref="I129:I143" si="29">IF(D129&gt;2,G129,0)</f>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="J129">
-        <f t="shared" ref="J129:J143" si="30">IF(D129&gt;3,G129,0)</f>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="K129">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>191</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>128</v>
+      <c r="A130" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
       </c>
       <c r="C130">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>80</v>
       </c>
       <c r="G130">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H130">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I130">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J130">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K130">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.6</v>
+      </c>
+      <c r="L130" t="s">
+        <v>206</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -6738,30 +6747,30 @@
         <v>2</v>
       </c>
       <c r="F131">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G131">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H131">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="I131">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="J131">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="K131">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="L131" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -6769,7 +6778,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -6784,30 +6793,30 @@
         <v>2</v>
       </c>
       <c r="F132">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G132">
         <f t="shared" si="27"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H132">
         <f t="shared" si="28"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I132">
         <f t="shared" si="29"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J132">
         <f t="shared" si="30"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="K132">
         <f t="shared" si="21"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L132" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -6815,7 +6824,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -6853,7 +6862,7 @@
         <v>1.8</v>
       </c>
       <c r="L133" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -6861,7 +6870,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6870,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -6892,14 +6901,14 @@
       </c>
       <c r="J134">
         <f t="shared" si="30"/>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
       <c r="L134" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -6907,7 +6916,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -6916,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -6934,18 +6943,18 @@
       </c>
       <c r="I135">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="J135">
         <f t="shared" si="30"/>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K135">
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
       <c r="L135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -6953,16 +6962,17 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -6980,7 +6990,7 @@
       </c>
       <c r="I136">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <f t="shared" si="30"/>
@@ -6988,41 +6998,36 @@
       </c>
       <c r="K136">
         <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
-      <c r="L136" t="s">
-        <v>194</v>
-      </c>
-      <c r="N136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>2</v>
       </c>
       <c r="F137">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G137">
         <f t="shared" si="27"/>
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <f t="shared" si="28"/>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <f t="shared" si="29"/>
@@ -7034,42 +7039,35 @@
       </c>
       <c r="K137">
         <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
-      <c r="L137" t="s">
-        <v>194</v>
-      </c>
-      <c r="N137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D138">
         <v>2</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <v>90</v>
       </c>
       <c r="G138">
         <f t="shared" si="27"/>
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H138">
         <f t="shared" si="28"/>
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="I138">
         <f t="shared" si="29"/>
@@ -7086,71 +7084,76 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="F139">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G139">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H139">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I139">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J139">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K139">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.8</v>
+      </c>
+      <c r="L139" t="s">
+        <v>191</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140">
         <v>90</v>
       </c>
       <c r="G140">
         <f t="shared" si="27"/>
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H140">
         <f t="shared" si="28"/>
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="I140">
         <f t="shared" si="29"/>
@@ -7162,21 +7165,28 @@
       </c>
       <c r="K140">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.8</v>
+      </c>
+      <c r="L140" t="s">
+        <v>191</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -7194,113 +7204,20 @@
       </c>
       <c r="I141">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <f t="shared" si="30"/>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K141">
         <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
-      <c r="L141" t="s">
-        <v>194</v>
-      </c>
-      <c r="N141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142">
-        <v>2</v>
-      </c>
-      <c r="F142">
-        <v>90</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-      <c r="H142">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I142">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
-      <c r="L142" t="s">
-        <v>194</v>
-      </c>
       <c r="N142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>140</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>2</v>
-      </c>
-      <c r="E143">
-        <v>2</v>
-      </c>
-      <c r="F143">
-        <v>90</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-      <c r="H143">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I143">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K143">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N144">
-        <f>SUM(N1:N143)</f>
+        <f>SUM(N1:N141)</f>
         <v>108</v>
       </c>
     </row>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="216">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>1815 Marilyn Lane, Aurora, IL 60505</t>
+  </si>
+  <si>
+    <t>175 W Julian St. Unit 6, Chicago, IL 60622</t>
   </si>
 </sst>
 </file>
@@ -1300,8 +1303,8 @@
   <dimension ref="A1:S142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+      <pane ySplit="4" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5353,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="N97">
         <v>1</v>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -602,9 +602,6 @@
     <t>Hand Deliver</t>
   </si>
   <si>
-    <t xml:space="preserve">Request Sent </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hand Deliver </t>
   </si>
   <si>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t>175 W Julian St. Unit 6, Chicago, IL 60622</t>
+  </si>
+  <si>
+    <t>S2881 Willow Ln. Fountain City, WI 54629</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1304,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L98" sqref="L98"/>
+      <selection pane="bottomLeft" activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3721,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="L58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -4147,7 +4147,7 @@
         <v>1.8</v>
       </c>
       <c r="L68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -4256,7 +4256,7 @@
         <v>0.9</v>
       </c>
       <c r="L71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -5356,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -5402,7 +5402,7 @@
         <v>1.6</v>
       </c>
       <c r="L98" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -5448,7 +5448,7 @@
         <v>1.6</v>
       </c>
       <c r="L99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -5494,7 +5494,7 @@
         <v>0.8</v>
       </c>
       <c r="L100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -5540,7 +5540,7 @@
         <v>1.6</v>
       </c>
       <c r="L101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -5586,7 +5586,7 @@
         <v>1.6</v>
       </c>
       <c r="L102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -5632,7 +5632,7 @@
         <v>1.6</v>
       </c>
       <c r="L103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -5678,7 +5678,7 @@
         <v>1.6</v>
       </c>
       <c r="L104" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -5724,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5770,7 +5770,7 @@
         <v>0.5</v>
       </c>
       <c r="L106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -5816,7 +5816,7 @@
         <v>1.6</v>
       </c>
       <c r="L107" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -5908,7 +5908,7 @@
         <v>0.9</v>
       </c>
       <c r="L109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -5951,7 +5951,7 @@
         <v>0.8</v>
       </c>
       <c r="L110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -5997,7 +5997,7 @@
         <v>1.6</v>
       </c>
       <c r="L111" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -6727,7 +6727,7 @@
         <v>1.6</v>
       </c>
       <c r="L130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N130">
         <v>1</v>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\Documents\GitHub\Farrell_Garrett_Wedding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="225">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -233,9 +228,6 @@
     <t>Cam Ebner</t>
   </si>
   <si>
-    <t>Ceasar Roca and Anna Po…</t>
-  </si>
-  <si>
     <t>Mi-Sun Bae</t>
   </si>
   <si>
@@ -263,9 +255,6 @@
     <t>Kris and Brent</t>
   </si>
   <si>
-    <t>Brian and Haley</t>
-  </si>
-  <si>
     <t>Ami Yang</t>
   </si>
   <si>
@@ -275,9 +264,6 @@
     <t>Andrea Parker</t>
   </si>
   <si>
-    <t>Katelyn Dv…</t>
-  </si>
-  <si>
     <t>Sam and Tori</t>
   </si>
   <si>
@@ -335,27 +321,15 @@
     <t>Christopher and Kaylea Blount</t>
   </si>
   <si>
-    <t>Drew Stephans and Amanda …</t>
-  </si>
-  <si>
-    <t>Peter and Shannon Happ</t>
-  </si>
-  <si>
     <t>Cory and Katie Brewer</t>
   </si>
   <si>
     <t>Joshua Nation and Mallory Daly</t>
   </si>
   <si>
-    <t>Ginina Vittuci and Guest</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brooke Ulrich </t>
   </si>
   <si>
-    <t>Meg Lees and Fiance</t>
-  </si>
-  <si>
     <t>Christopher Naranjo</t>
   </si>
   <si>
@@ -374,18 +348,9 @@
     <t>Liz and Brent</t>
   </si>
   <si>
-    <t>Melissa and Michael</t>
-  </si>
-  <si>
     <t>Christine &amp; Guest</t>
   </si>
   <si>
-    <t>Dave and Diane Greve</t>
-  </si>
-  <si>
-    <t>Dave and Angela Voge</t>
-  </si>
-  <si>
     <t>Joe and Amy Rueschenberg &amp; Fam</t>
   </si>
   <si>
@@ -467,12 +432,6 @@
     <t>8610 EP True Pkwy, Unit 11005, West Des Moines, IA 50266</t>
   </si>
   <si>
-    <t>11450 Dan Patch Circle, Green Oaks, IL 600448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check on zip code… lol </t>
-  </si>
-  <si>
     <t>639 N Broadway #538, Los Angeles, CA 90012</t>
   </si>
   <si>
@@ -572,9 +531,6 @@
     <t>Joseph Loescher &amp; Guest</t>
   </si>
   <si>
-    <t>Michael Jerman &amp; Guest</t>
-  </si>
-  <si>
     <t>2394 Quinlan Ave., Dallas Center, IA 50063</t>
   </si>
   <si>
@@ -668,17 +624,83 @@
     <t>1815 Marilyn Lane, Aurora, IL 60505</t>
   </si>
   <si>
-    <t>175 W Julian St. Unit 6, Chicago, IL 60622</t>
-  </si>
-  <si>
     <t>S2881 Willow Ln. Fountain City, WI 54629</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Meg Lees and Zachary Kelch</t>
+  </si>
+  <si>
+    <t>Melissa and Michael Bellinghausen</t>
+  </si>
+  <si>
+    <t>1751 W Julian St. Unit 6, Chicago, IL 60622</t>
+  </si>
+  <si>
+    <t>Peter Happ and Shannon Wilson</t>
+  </si>
+  <si>
+    <t>2323 Fairwind Rd., Apt 107, Houston, TX 77062</t>
+  </si>
+  <si>
+    <t>1919 Huntress Lane, Houston, TX 77062</t>
+  </si>
+  <si>
+    <t>Drew Stephans and Amanda Mueller</t>
+  </si>
+  <si>
+    <t>Michael Jerman &amp; Stacy Solliday</t>
+  </si>
+  <si>
+    <t>Ginina Vittuci and Benjamin Booher</t>
+  </si>
+  <si>
+    <t>Dave and Diane Greve &amp; Fam</t>
+  </si>
+  <si>
+    <t>Dave and Angela Voge &amp; Fam</t>
+  </si>
+  <si>
+    <t>11450 Dan Patch Circle, Green Oaks, IL 60048</t>
+  </si>
+  <si>
+    <t>540 Thomas Ct., Apt 12, Portage, MI 49024</t>
+  </si>
+  <si>
+    <t>200 Water St. Apt 12301, Webser, TX 77598</t>
+  </si>
+  <si>
+    <t>165 Rainbow Dr. #6587 Livingston, TX 7739</t>
+  </si>
+  <si>
+    <t>Brian Killeen</t>
+  </si>
+  <si>
+    <t>Ceasar Roca and Anna Podobas</t>
+  </si>
+  <si>
+    <t>3018 Quill Meadow Drive, League City, TX 77573</t>
+  </si>
+  <si>
+    <t>Katelyn Dvorsky</t>
+  </si>
+  <si>
+    <t>19220 Space Center Blvd, Apt 1335, Houston, TX 77058</t>
+  </si>
+  <si>
+    <t>Included with Logan's other Save-the-Dates</t>
+  </si>
+  <si>
+    <t>Logan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,7 +723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,6 +760,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -751,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -763,6 +791,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,22 +1322,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L99" sqref="L99"/>
+      <pane ySplit="4" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -1321,80 +1351,80 @@
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="7">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C1">
         <f ca="1">SUMIF(C5:C228,"=1",E6:E228)</f>
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D1">
         <f>SUM(E5:E139)</f>
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E1">
         <f>SUMIF(D6:D228,"&gt;1",E6:E228)</f>
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F1">
         <f>SUMIF(D6:D228,"&gt;2",E6:E228)</f>
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G1">
         <f>SUMIF(D6:D228,"&gt;3",E6:E228)</f>
         <v>130</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="6">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
         <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>94</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <f>SUM(K5:K228)</f>
-        <v>123.89999999999989</v>
+        <v>126.09999999999989</v>
       </c>
       <c r="D3">
         <f>SUM(G6:G190)</f>
-        <v>147.80000000000001</v>
+        <v>150.00000000000003</v>
       </c>
       <c r="E3">
         <f>SUM(H:H)</f>
@@ -1418,7 +1448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1426,7 +1456,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1438,19 +1468,19 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
         <v>87</v>
       </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" t="s">
-        <v>90</v>
-      </c>
       <c r="K4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1462,7 +1492,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1511,13 +1541,16 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1557,13 +1590,16 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1603,13 +1639,13 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1649,13 +1685,16 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1695,13 +1734,16 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1743,8 +1785,11 @@
       <c r="N11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="B12" s="1"/>
       <c r="C12">
         <f t="shared" ref="C12:C62" si="5">IF(D12=4, 1,0)</f>
@@ -1771,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1800,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1842,8 +1887,11 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1883,13 +1931,16 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1932,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1975,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2017,8 +2068,11 @@
       <c r="N18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2060,8 +2114,11 @@
       <c r="N19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2104,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2147,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2189,8 +2246,11 @@
       <c r="N22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2230,13 +2290,16 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2279,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2321,8 +2384,11 @@
       <c r="N25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2364,8 +2430,11 @@
       <c r="N26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -2407,8 +2476,11 @@
       <c r="N27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -2450,8 +2522,11 @@
       <c r="N28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2493,8 +2568,11 @@
       <c r="N29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2536,8 +2614,11 @@
       <c r="N30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2579,8 +2660,11 @@
       <c r="N31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -2622,8 +2706,11 @@
       <c r="N32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -2665,8 +2752,11 @@
       <c r="N33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -2708,8 +2798,11 @@
       <c r="N34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -2749,13 +2842,16 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -2795,13 +2891,16 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2841,13 +2940,16 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -2890,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -2930,13 +3032,16 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -2976,16 +3081,16 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>147</v>
-      </c>
-      <c r="M40" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -3025,13 +3130,16 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="N41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -3071,15 +3179,15 @@
         <v>2</v>
       </c>
       <c r="M42" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -3117,13 +3225,16 @@
         <v>0.5</v>
       </c>
       <c r="L43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="2"/>
       <c r="C44">
         <f t="shared" si="5"/>
@@ -3150,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="B45" s="1"/>
       <c r="C45">
         <f t="shared" si="5"/>
@@ -3177,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
@@ -3209,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3256,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3303,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3350,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -3396,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3442,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -3488,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="C53">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3514,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -3543,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3582,14 +3693,16 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L55" t="s">
-        <v>191</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L55" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9">
+        <v>1</v>
+      </c>
+      <c r="O55" s="9"/>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3628,14 +3741,16 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L56" t="s">
-        <v>163</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L56" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9">
+        <v>1</v>
+      </c>
+      <c r="O56" s="9"/>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3674,16 +3789,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L57" t="s">
-        <v>191</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L57" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9">
+        <v>1</v>
+      </c>
+      <c r="O57" s="9"/>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3721,13 +3838,16 @@
         <v>2</v>
       </c>
       <c r="L58" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3767,13 +3887,16 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3813,13 +3936,16 @@
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3859,13 +3985,16 @@
         <v>2</v>
       </c>
       <c r="L61" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="C62">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3891,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3920,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3959,14 +4088,16 @@
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="L64" t="s">
-        <v>191</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L64" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9">
+        <v>1</v>
+      </c>
+      <c r="O64" s="9"/>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -4006,13 +4137,16 @@
         <v>1.8</v>
       </c>
       <c r="L65" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="N65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -4051,17 +4185,18 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="L66" t="s">
-        <v>191</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="L66" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M66" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N66" s="9">
+        <v>1</v>
+      </c>
+      <c r="O66" s="9"/>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -4100,16 +4235,18 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="L67" t="s">
-        <v>191</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L67" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9">
+        <v>1</v>
+      </c>
+      <c r="O67" s="9"/>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4147,15 +4284,18 @@
         <v>1.8</v>
       </c>
       <c r="L68" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="N68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4166,13 +4306,16 @@
       <c r="F69">
         <v>90</v>
       </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9">
+        <v>1</v>
+      </c>
+      <c r="O69" s="9"/>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4210,15 +4353,18 @@
         <v>0.9</v>
       </c>
       <c r="L70" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="N70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4255,16 +4401,18 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="L71" t="s">
-        <v>192</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L71" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9">
+        <v>1</v>
+      </c>
+      <c r="O71" s="9"/>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4303,9 +4451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4343,15 +4491,18 @@
         <v>1.8</v>
       </c>
       <c r="L73" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -4389,15 +4540,18 @@
         <v>1.8</v>
       </c>
       <c r="L74" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -4435,15 +4589,18 @@
         <v>1.8</v>
       </c>
       <c r="L75" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="N75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -4481,15 +4638,18 @@
         <v>1.8</v>
       </c>
       <c r="L76" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="N76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -4527,15 +4687,18 @@
         <v>0.9</v>
       </c>
       <c r="L77" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="N77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -4572,13 +4735,19 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
+      <c r="L78" t="s">
+        <v>216</v>
+      </c>
       <c r="N78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -4615,13 +4784,19 @@
         <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
+      <c r="L79" t="s">
+        <v>207</v>
+      </c>
       <c r="N79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4658,13 +4833,19 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
+      <c r="L80" t="s">
+        <v>208</v>
+      </c>
       <c r="N80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4702,15 +4883,18 @@
         <v>0.9</v>
       </c>
       <c r="L81" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="N81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4748,15 +4932,18 @@
         <v>0.9</v>
       </c>
       <c r="L82" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="N82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -4794,15 +4981,18 @@
         <v>0.9</v>
       </c>
       <c r="L83" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="N83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -4839,13 +5029,19 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L84" t="s">
+        <v>158</v>
+      </c>
+      <c r="N84" s="10">
+        <v>1</v>
+      </c>
+      <c r="O84" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -4882,13 +5078,19 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
+      <c r="L85" t="s">
+        <v>222</v>
+      </c>
       <c r="N85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -4925,13 +5127,16 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9">
+        <v>1</v>
+      </c>
+      <c r="O86" s="9"/>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4970,9 +5175,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -5009,13 +5214,19 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
+      <c r="L88" t="s">
+        <v>217</v>
+      </c>
       <c r="N88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -5054,9 +5265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -5095,9 +5306,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -5134,13 +5345,19 @@
         <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
+      <c r="L91" t="s">
+        <v>220</v>
+      </c>
       <c r="N91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5179,9 +5396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -5220,9 +5437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -5261,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="C95">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5287,9 +5504,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C96">
         <f>SUM(G97:G111)</f>
@@ -5316,9 +5533,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5356,15 +5573,18 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="N97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -5402,15 +5622,18 @@
         <v>1.6</v>
       </c>
       <c r="L98" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="N98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -5448,15 +5671,18 @@
         <v>1.6</v>
       </c>
       <c r="L99" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -5494,15 +5720,18 @@
         <v>0.8</v>
       </c>
       <c r="L100" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="N100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -5540,15 +5769,18 @@
         <v>1.6</v>
       </c>
       <c r="L101" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="N101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -5586,15 +5818,18 @@
         <v>1.6</v>
       </c>
       <c r="L102" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="N102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5632,15 +5867,18 @@
         <v>1.6</v>
       </c>
       <c r="L103" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="N103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5678,15 +5916,18 @@
         <v>1.6</v>
       </c>
       <c r="L104" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="N104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -5724,15 +5965,18 @@
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="N105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5770,15 +6014,18 @@
         <v>0.5</v>
       </c>
       <c r="L106" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -5816,15 +6063,18 @@
         <v>1.6</v>
       </c>
       <c r="L107" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="N107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5862,15 +6112,18 @@
         <v>1.6</v>
       </c>
       <c r="L108" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="N108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -5908,12 +6161,18 @@
         <v>0.9</v>
       </c>
       <c r="L109" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -5951,15 +6210,18 @@
         <v>0.8</v>
       </c>
       <c r="L110" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -5997,15 +6259,18 @@
         <v>1.6</v>
       </c>
       <c r="L111" t="s">
+        <v>189</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
         <v>202</v>
       </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -6043,15 +6308,18 @@
         <v>1.6</v>
       </c>
       <c r="L112" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="N112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -6077,15 +6345,18 @@
         <v>1.6</v>
       </c>
       <c r="L113" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="N113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -6111,15 +6382,18 @@
         <v>1.6</v>
       </c>
       <c r="L114" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="N114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -6131,29 +6405,32 @@
         <v>3</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F115">
         <v>80</v>
       </c>
       <c r="G115">
         <f t="shared" si="17"/>
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="K115">
         <f t="shared" si="11"/>
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="L115" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="N115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -6165,29 +6442,32 @@
         <v>3</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F116">
         <v>20</v>
       </c>
       <c r="G116">
         <f t="shared" si="17"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K116">
         <f t="shared" si="11"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L116" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="N116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -6213,15 +6493,18 @@
         <v>1.2</v>
       </c>
       <c r="L117" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="N117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -6247,15 +6530,18 @@
         <v>1.6</v>
       </c>
       <c r="L118" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="N118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -6282,9 +6568,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -6322,15 +6608,18 @@
         <v>0.8</v>
       </c>
       <c r="L120" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="N120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -6368,15 +6657,18 @@
         <v>1.6</v>
       </c>
       <c r="L121" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="N121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -6414,15 +6706,18 @@
         <v>1.6</v>
       </c>
       <c r="L122" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="N122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -6459,13 +6754,19 @@
         <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
+      <c r="L123" t="s">
+        <v>215</v>
+      </c>
       <c r="N123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -6504,9 +6805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -6545,9 +6846,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -6586,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="C127">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -6612,9 +6913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C128">
         <f t="shared" si="26"/>
@@ -6641,9 +6942,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -6681,15 +6982,18 @@
         <v>1</v>
       </c>
       <c r="L129" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -6727,15 +7031,18 @@
         <v>1.6</v>
       </c>
       <c r="L130" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="N130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -6773,15 +7080,18 @@
         <v>1.8</v>
       </c>
       <c r="L131" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -6819,15 +7129,18 @@
         <v>1.8</v>
       </c>
       <c r="L132" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -6865,15 +7178,18 @@
         <v>1.8</v>
       </c>
       <c r="L133" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6911,15 +7227,18 @@
         <v>1.8</v>
       </c>
       <c r="L134" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -6957,15 +7276,18 @@
         <v>1.8</v>
       </c>
       <c r="L135" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -7004,9 +7326,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -7045,9 +7367,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -7085,9 +7407,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -7125,15 +7447,18 @@
         <v>1.8</v>
       </c>
       <c r="L139" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -7171,15 +7496,18 @@
         <v>1.8</v>
       </c>
       <c r="L140" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -7218,10 +7546,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="N142">
         <f>SUM(N1:N141)</f>
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="227">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -694,6 +694,12 @@
   </si>
   <si>
     <t>Logan</t>
+  </si>
+  <si>
+    <t>1710 San Sebastian Lane, Houston, TX 77058</t>
+  </si>
+  <si>
+    <t>3113 Gillespie St., Houston, TX 77020</t>
   </si>
 </sst>
 </file>
@@ -788,11 +794,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1322,7 +1328,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1333,8 +1339,8 @@
   <dimension ref="A1:S142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O85" sqref="O85"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1378,13 +1384,13 @@
         <f>SUMIF(D6:D228,"&gt;3",E6:E228)</f>
         <v>130</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="10" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1407,9 +1413,9 @@
       <c r="G2" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="4">
@@ -1438,9 +1444,9 @@
         <f>SUM(J:J)</f>
         <v>85.499999999999915</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
       <c r="R3" t="s">
         <v>39</v>
       </c>
@@ -1488,9 +1494,9 @@
       <c r="M4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
@@ -1643,6 +1649,9 @@
       </c>
       <c r="N8">
         <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2988,8 +2997,14 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L38" t="s">
+        <v>138</v>
+      </c>
       <c r="N38">
         <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3693,14 +3708,14 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="L55" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9">
-        <v>1</v>
-      </c>
-      <c r="O55" s="9"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8">
+        <v>1</v>
+      </c>
+      <c r="O55" s="8"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
@@ -3748,7 +3763,9 @@
       <c r="N56" s="9">
         <v>1</v>
       </c>
-      <c r="O56" s="9"/>
+      <c r="O56" s="9" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
@@ -3789,14 +3806,14 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="L57" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9">
-        <v>1</v>
-      </c>
-      <c r="O57" s="9"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8">
+        <v>1</v>
+      </c>
+      <c r="O57" s="8"/>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
@@ -4088,14 +4105,14 @@
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="L64" s="9" t="s">
+      <c r="L64" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9">
-        <v>1</v>
-      </c>
-      <c r="O64" s="9"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8">
+        <v>1</v>
+      </c>
+      <c r="O64" s="8"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
@@ -4185,16 +4202,16 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="L66" s="9" t="s">
+      <c r="L66" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="M66" s="9" t="s">
+      <c r="M66" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N66" s="9">
-        <v>1</v>
-      </c>
-      <c r="O66" s="9"/>
+      <c r="N66" s="8">
+        <v>1</v>
+      </c>
+      <c r="O66" s="8"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
@@ -4235,14 +4252,14 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="L67" s="9" t="s">
+      <c r="L67" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9">
-        <v>1</v>
-      </c>
-      <c r="O67" s="9"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8">
+        <v>1</v>
+      </c>
+      <c r="O67" s="8"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -4306,12 +4323,16 @@
       <c r="F69">
         <v>90</v>
       </c>
-      <c r="L69" s="9"/>
+      <c r="L69" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="M69" s="9"/>
       <c r="N69" s="9">
         <v>1</v>
       </c>
-      <c r="O69" s="9"/>
+      <c r="O69" s="9" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
@@ -4401,14 +4422,14 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="L71" s="9" t="s">
+      <c r="L71" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9">
-        <v>1</v>
-      </c>
-      <c r="O71" s="9"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8">
+        <v>1</v>
+      </c>
+      <c r="O71" s="8"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
@@ -5032,10 +5053,10 @@
       <c r="L84" t="s">
         <v>158</v>
       </c>
-      <c r="N84" s="10">
-        <v>1</v>
-      </c>
-      <c r="O84" s="10" t="s">
+      <c r="N84" s="9">
+        <v>1</v>
+      </c>
+      <c r="O84" s="9" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5127,12 +5148,16 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="L86" s="9"/>
+      <c r="L86" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="M86" s="9"/>
       <c r="N86" s="9">
         <v>1</v>
       </c>
-      <c r="O86" s="9"/>
+      <c r="O86" s="9" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="228">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -700,6 +700,9 @@
   </si>
   <si>
     <t>3113 Gillespie St., Houston, TX 77020</t>
+  </si>
+  <si>
+    <t>Logan has to deliver</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1339,8 +1342,8 @@
   <dimension ref="A1:S142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O42" sqref="L42:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1988,9 +1991,12 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
@@ -2031,9 +2037,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
@@ -2166,9 +2175,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8">
+        <v>1</v>
+      </c>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
@@ -2209,9 +2221,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8">
+        <v>1</v>
+      </c>
+      <c r="O21" s="8"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
@@ -2347,9 +2362,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8">
+        <v>1</v>
+      </c>
+      <c r="O24" s="8"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
@@ -3193,12 +3211,14 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M42" t="s">
+      <c r="L42" s="8"/>
+      <c r="M42" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
+      <c r="N42" s="8">
+        <v>1</v>
+      </c>
+      <c r="O42" s="8"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
@@ -3715,7 +3735,9 @@
       <c r="N55" s="8">
         <v>1</v>
       </c>
-      <c r="O55" s="8"/>
+      <c r="O55" s="8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
@@ -3813,7 +3835,9 @@
       <c r="N57" s="8">
         <v>1</v>
       </c>
-      <c r="O57" s="8"/>
+      <c r="O57" s="8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
@@ -4112,7 +4136,9 @@
       <c r="N64" s="8">
         <v>1</v>
       </c>
-      <c r="O64" s="8"/>
+      <c r="O64" s="8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
@@ -4211,7 +4237,9 @@
       <c r="N66" s="8">
         <v>1</v>
       </c>
-      <c r="O66" s="8"/>
+      <c r="O66" s="8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
@@ -4259,7 +4287,9 @@
       <c r="N67" s="8">
         <v>1</v>
       </c>
-      <c r="O67" s="8"/>
+      <c r="O67" s="8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -4429,7 +4459,9 @@
       <c r="N71" s="8">
         <v>1</v>
       </c>
-      <c r="O71" s="8"/>
+      <c r="O71" s="8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\Documents\GitHub\Farrell_Garrett_Wedding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="246">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -69,9 +74,6 @@
     <t>Jeff and Cheryl Farrell</t>
   </si>
   <si>
-    <t>Eric and Stephanie Farrell &amp; Children</t>
-  </si>
-  <si>
     <t>Elysa Farrell and Guest</t>
   </si>
   <si>
@@ -390,21 +392,12 @@
     <t>Jodi and Husband Graff</t>
   </si>
   <si>
-    <t>Phil and Wife Strawser</t>
-  </si>
-  <si>
-    <t>Zak Kingston &amp; Guest</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ed and Wife Herrera </t>
   </si>
   <si>
     <t>Evan and Izzy</t>
   </si>
   <si>
-    <t>Kris Verdeyen and Wife</t>
-  </si>
-  <si>
     <t>Est.</t>
   </si>
   <si>
@@ -516,9 +509,6 @@
     <t>Stephania</t>
   </si>
   <si>
-    <t>Austin and Cara Lovan</t>
-  </si>
-  <si>
     <t>Fiona</t>
   </si>
   <si>
@@ -540,9 +530,6 @@
     <t>1209 13th Street, Harlan, IA 51537</t>
   </si>
   <si>
-    <t>Helen Xu and Jesse</t>
-  </si>
-  <si>
     <t>Tally for Save-the-Dates</t>
   </si>
   <si>
@@ -703,13 +690,85 @@
   </si>
   <si>
     <t>Logan has to deliver</t>
+  </si>
+  <si>
+    <t>23840 Territorial Road, Le Claire, IA 52753</t>
+  </si>
+  <si>
+    <t>1011 17th St., Bedford IN 47421</t>
+  </si>
+  <si>
+    <t>100 Doe Ct. Terre Haute, IN 47802</t>
+  </si>
+  <si>
+    <t>3518 Riverbluff Rd, Bedford, IN 47421</t>
+  </si>
+  <si>
+    <t>14884 Bantonville Rd. Milton, IN 47357</t>
+  </si>
+  <si>
+    <t>606 E. Quail Ridge Dr., Westfield, IN 46074</t>
+  </si>
+  <si>
+    <t>3716 S. Cramer Circle, Bloomington, IN 47403</t>
+  </si>
+  <si>
+    <t>P.O. Box 1076, Summerfield, FL 34492</t>
+  </si>
+  <si>
+    <t>3919 Dogwood Dr. Anderson, IN 46011</t>
+  </si>
+  <si>
+    <t>2217 S.R. 225 E Battleground, IN 47920</t>
+  </si>
+  <si>
+    <t>6064 Sarver Rd. Milton, IN 47357</t>
+  </si>
+  <si>
+    <t>13818 Magic Stallion Dr. Carmel, IN 46032</t>
+  </si>
+  <si>
+    <t>17870 Village Center Dr. Noblesville, IN 46062</t>
+  </si>
+  <si>
+    <t>217 Layton Rd. Anderson, IN 46011</t>
+  </si>
+  <si>
+    <t>812 Chathan Ave., Elmhurst, IL 60126</t>
+  </si>
+  <si>
+    <t>Eric and Stephanie Farrell</t>
+  </si>
+  <si>
+    <t>2329 Oakwood Dr. Anderson, IN 46011</t>
+  </si>
+  <si>
+    <t>3313 N St. NW Washington D.C. 20007</t>
+  </si>
+  <si>
+    <t>Helen Xu and Jesse Kyser</t>
+  </si>
+  <si>
+    <t>7357 U.S. 52 South, Lafayette, IN 47905</t>
+  </si>
+  <si>
+    <t>7 South Boundry St. Cambridge City, IN 47327</t>
+  </si>
+  <si>
+    <t>1265 Club Circle, #29, Brookfield, WI 53005</t>
+  </si>
+  <si>
+    <t>4428 Ashworth Dr. Apt 1 Cedar Falls, IA 50613</t>
+  </si>
+  <si>
+    <t>P.O. Box 296, Milton, IN 47357</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -802,6 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1331,22 +1391,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O42" sqref="L42:O42"/>
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -1360,88 +1420,88 @@
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1">
-        <f ca="1">SUMIF(C5:C228,"=1",E6:E228)</f>
-        <v>184</v>
+        <f ca="1">SUMIF(C5:C224,"=1",E6:E224)</f>
+        <v>191</v>
       </c>
       <c r="D1">
-        <f>SUM(E5:E139)</f>
-        <v>226</v>
+        <f>SUM(E5:E136)</f>
+        <v>220</v>
       </c>
       <c r="E1">
-        <f>SUMIF(D6:D228,"&gt;1",E6:E228)</f>
-        <v>206</v>
+        <f>SUMIF(D6:D224,"&gt;1",E6:E224)</f>
+        <v>200</v>
       </c>
       <c r="F1">
-        <f>SUMIF(D6:D228,"&gt;2",E6:E228)</f>
+        <f>SUMIF(D6:D224,"&gt;2",E6:E224)</f>
         <v>179</v>
       </c>
       <c r="G1">
-        <f>SUMIF(D6:D228,"&gt;3",E6:E228)</f>
+        <f>SUMIF(D6:D224,"&gt;3",E6:E224)</f>
         <v>130</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>90</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C3">
-        <f>SUM(K5:K228)</f>
-        <v>126.09999999999989</v>
+        <f>SUM(K5:K224)</f>
+        <v>127.29999999999991</v>
       </c>
       <c r="D3">
-        <f>SUM(G6:G190)</f>
-        <v>150.00000000000003</v>
+        <f>SUM(G6:G186)</f>
+        <v>144.30000000000001</v>
       </c>
       <c r="E3">
         <f>SUM(H:H)</f>
-        <v>127.89999999999991</v>
+        <v>122.39999999999992</v>
       </c>
       <c r="F3">
         <f>SUM(I:I)</f>
-        <v>108.89999999999991</v>
+        <v>108.79999999999991</v>
       </c>
       <c r="G3">
         <f>SUM(J:J)</f>
@@ -1451,21 +1511,21 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
         <v>39</v>
       </c>
-      <c r="S3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1477,19 +1537,19 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
         <v>84</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>85</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>86</v>
       </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
       <c r="K4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -1501,7 +1561,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1550,16 +1610,16 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1599,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1648,18 +1708,18 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1697,18 +1757,18 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1746,18 +1806,18 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1798,17 +1858,17 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12">
         <f t="shared" ref="C12:C62" si="5">IF(D12=4, 1,0)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G76" si="6">F12*E12/100</f>
+        <f t="shared" ref="G12:G75" si="6">F12*E12/100</f>
         <v>0</v>
       </c>
       <c r="H12">
@@ -1828,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1857,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1896,14 +1956,17 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L14" t="s">
+        <v>222</v>
+      </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1943,16 +2006,16 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1991,14 +2054,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="L16" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2037,14 +2104,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2083,14 +2150,17 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="L18" t="s">
+        <v>239</v>
+      </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2129,16 +2199,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L19" t="s">
+        <v>230</v>
+      </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -2175,16 +2248,20 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8">
-        <v>1</v>
-      </c>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="L20" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9">
+        <v>1</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -2228,9 +2305,9 @@
       </c>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -2267,16 +2344,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -2314,18 +2394,18 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -2362,16 +2442,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8">
         <v>1</v>
       </c>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -2408,16 +2490,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -2454,16 +2539,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L26" t="s">
+        <v>233</v>
+      </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -2500,16 +2588,19 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="L27" t="s">
+        <v>227</v>
+      </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -2546,16 +2637,19 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="L28" t="s">
+        <v>234</v>
+      </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -2592,16 +2686,19 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -2638,16 +2735,19 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -2684,16 +2784,19 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="L31" t="s">
+        <v>223</v>
+      </c>
       <c r="N31">
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -2730,16 +2833,19 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
       <c r="N32">
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -2776,16 +2882,19 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="L33" t="s">
+        <v>225</v>
+      </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -2822,16 +2931,19 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="L34" t="s">
+        <v>229</v>
+      </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
@@ -2869,18 +2981,18 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -2918,18 +3030,18 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
@@ -2967,18 +3079,18 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
@@ -3016,18 +3128,18 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -3065,18 +3177,18 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -3114,18 +3226,18 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
@@ -3163,18 +3275,18 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N41">
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
@@ -3213,16 +3325,16 @@
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N42" s="8">
         <v>1</v>
       </c>
       <c r="O42" s="8"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -3260,16 +3372,16 @@
         <v>0.5</v>
       </c>
       <c r="L43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="C44">
         <f t="shared" si="5"/>
@@ -3296,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45">
         <f t="shared" si="5"/>
@@ -3323,13 +3435,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46">
         <f>SUM(G47:G52)</f>
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G46">
         <f>F46*C46/100</f>
@@ -3355,16 +3467,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3393,25 +3504,27 @@
       </c>
       <c r="K47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="L47" t="s">
+        <v>232</v>
       </c>
       <c r="M47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3420,11 +3533,11 @@
         <v>4</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
@@ -3440,25 +3553,27 @@
       </c>
       <c r="K48">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>245</v>
       </c>
       <c r="M48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3467,11 +3582,11 @@
         <v>4</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G49">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
@@ -3487,18 +3602,21 @@
       </c>
       <c r="K49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="L49" t="s">
+        <v>226</v>
       </c>
       <c r="M49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3513,19 +3631,19 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J50">
         <f t="shared" si="2"/>
@@ -3533,18 +3651,21 @@
       </c>
       <c r="K50">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>241</v>
       </c>
       <c r="M50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3559,19 +3680,19 @@
         <v>2</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
@@ -3579,18 +3700,21 @@
       </c>
       <c r="K51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>231</v>
       </c>
       <c r="M51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3628,13 +3752,13 @@
         <v>0.5</v>
       </c>
       <c r="M52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C53">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3660,9 +3784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <f>SUM(G55:G61)</f>
@@ -3689,9 +3813,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3729,19 +3853,19 @@
         <v>1</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M55" s="8"/>
       <c r="N55" s="8">
         <v>1</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3779,19 +3903,19 @@
         <v>2</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="9">
         <v>1</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3829,19 +3953,19 @@
         <v>1</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M57" s="8"/>
       <c r="N57" s="8">
         <v>1</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3879,18 +4003,18 @@
         <v>2</v>
       </c>
       <c r="L58" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
       <c r="O58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -3928,18 +4052,18 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -3977,18 +4101,18 @@
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
       <c r="O60" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -4026,16 +4150,16 @@
         <v>2</v>
       </c>
       <c r="L61" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
       <c r="O61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C62">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4061,13 +4185,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63">
-        <f>SUM(G64:G90)</f>
-        <v>31.999999999999989</v>
+        <f>SUM(G64:G89)</f>
+        <v>30.199999999999989</v>
       </c>
       <c r="G63">
         <f>F63*C63/100</f>
@@ -4090,9 +4214,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4130,19 +4254,19 @@
         <v>1.8</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M64" s="8"/>
       <c r="N64" s="8">
         <v>1</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4180,18 +4304,18 @@
         <v>1.8</v>
       </c>
       <c r="L65" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N65">
         <v>1</v>
       </c>
       <c r="O65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4229,21 +4353,21 @@
         <v>0.9</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M66" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N66" s="8">
+        <v>1</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>67</v>
-      </c>
-      <c r="N66" s="8">
-        <v>1</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" t="s">
-        <v>68</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -4281,19 +4405,19 @@
         <v>0.9</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8">
         <v>1</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4331,18 +4455,18 @@
         <v>1.8</v>
       </c>
       <c r="L68" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="N68">
         <v>1</v>
       </c>
       <c r="O68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4354,19 +4478,19 @@
         <v>90</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="9">
         <v>1</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4404,18 +4528,18 @@
         <v>0.9</v>
       </c>
       <c r="L70" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N70">
         <v>1</v>
       </c>
       <c r="O70" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4453,29 +4577,28 @@
         <v>0.9</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8">
         <v>1</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:C95" si="7">IF(D72=4, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -4488,28 +4611,37 @@
         <v>1.8</v>
       </c>
       <c r="H72">
-        <f t="shared" ref="H72:H91" si="8">IF(D72&gt;1,G72,0)</f>
+        <f t="shared" ref="H72:H90" si="7">IF(D72&gt;1,G72,0)</f>
         <v>1.8</v>
       </c>
       <c r="I72">
-        <f t="shared" ref="I72:I91" si="9">IF(D72&gt;2,G72,0)</f>
-        <v>0</v>
+        <f t="shared" ref="I72:I90" si="8">IF(D72&gt;2,G72,0)</f>
+        <v>1.8</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J91" si="10">IF(D72&gt;3,G72,0)</f>
-        <v>0</v>
+        <f t="shared" ref="J72:J90" si="9">IF(D72&gt;3,G72,0)</f>
+        <v>1.8</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K118" si="11">IF(C72=1,E72*F72/100,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <f t="shared" ref="K72:K117" si="10">IF(C72=1,E72*F72/100,0)</f>
+        <v>1.8</v>
+      </c>
+      <c r="L72" t="s">
+        <v>145</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4528,32 +4660,32 @@
         <v>1.8</v>
       </c>
       <c r="H73">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="K73">
-        <f t="shared" si="11"/>
-        <v>1.8</v>
-      </c>
       <c r="L73" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
       <c r="O73" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4577,32 +4709,32 @@
         <v>1.8</v>
       </c>
       <c r="H74">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="K74">
-        <f t="shared" si="11"/>
-        <v>1.8</v>
-      </c>
       <c r="L74" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
       <c r="O74" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4626,744 +4758,744 @@
         <v>1.8</v>
       </c>
       <c r="H75">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="K75">
+      <c r="L75" t="s">
+        <v>154</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>90</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ref="G76:G90" si="11">F76*E76/100</f>
+        <v>0.9</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="L76" t="s">
+        <v>146</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>90</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="L77" t="s">
+        <v>210</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>90</v>
+      </c>
+      <c r="G78">
         <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
-      <c r="L75" t="s">
-        <v>157</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
-        <v>90</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="6"/>
+      <c r="H78">
+        <f t="shared" si="7"/>
         <v>1.8</v>
       </c>
-      <c r="H76">
+      <c r="I78">
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
-      <c r="I76">
+      <c r="J78">
         <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
-      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K78">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="K76">
+      <c r="L78" t="s">
+        <v>201</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>90</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="L79" t="s">
+        <v>202</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>90</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="L80" t="s">
+        <v>152</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>90</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="L81" t="s">
+        <v>151</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>90</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="L82" t="s">
+        <v>129</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>90</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="L83" t="s">
+        <v>154</v>
+      </c>
+      <c r="N83" s="9">
+        <v>1</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>90</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="L84" t="s">
+        <v>216</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>90</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9">
+        <v>1</v>
+      </c>
+      <c r="O85" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ref="C86:C94" si="12">IF(D86=4, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>90</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
-      <c r="L76" t="s">
-        <v>158</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>25</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="L87" t="s">
+        <v>211</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
         <v>90</v>
       </c>
-      <c r="G77">
-        <f t="shared" ref="G77:G91" si="12">F77*E77/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
-      </c>
-      <c r="K77">
+      <c r="G88">
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="L77" t="s">
-        <v>150</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
         <v>90</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K78">
+      <c r="G89">
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="L78" t="s">
-        <v>216</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
         <v>3</v>
       </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79">
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
         <v>90</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="12"/>
+      <c r="G90">
+        <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
-      <c r="H79">
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
-      <c r="I79">
+      <c r="J90">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="J79">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="11"/>
-        <v>1.8</v>
-      </c>
-      <c r="L79" t="s">
-        <v>207</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>90</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
-      </c>
-      <c r="L80" t="s">
-        <v>208</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>90</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
-      </c>
-      <c r="L81" t="s">
-        <v>156</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" t="s">
-        <v>177</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>90</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
-      </c>
-      <c r="L82" t="s">
-        <v>155</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>4</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>90</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
-      </c>
-      <c r="L83" t="s">
-        <v>133</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>90</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
-      </c>
-      <c r="L84" t="s">
-        <v>158</v>
-      </c>
-      <c r="N84" s="9">
-        <v>1</v>
-      </c>
-      <c r="O84" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" t="s">
-        <v>221</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>90</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
-      </c>
-      <c r="L85" t="s">
-        <v>222</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" t="s">
-        <v>166</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>90</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
-      </c>
-      <c r="L86" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9">
-        <v>1</v>
-      </c>
-      <c r="O86" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
-      <c r="F87">
-        <v>90</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="12"/>
-        <v>1.8</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
-        <v>25</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L88" t="s">
-        <v>217</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" t="s">
-        <v>164</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>90</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90">
-        <v>2</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>90</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="L90" t="s">
+        <v>214</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -5371,10 +5503,11 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -5383,36 +5516,27 @@
         <v>90</v>
       </c>
       <c r="G91">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G91:G93" si="13">F91*E91/100</f>
         <v>1.8</v>
       </c>
       <c r="H91">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H91:H93" si="14">IF(D91&gt;1,G91,0)</f>
         <v>1.8</v>
       </c>
       <c r="I91">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
+        <f t="shared" ref="I91:I93" si="15">IF(D91&gt;2,G91,0)</f>
+        <v>0</v>
       </c>
       <c r="J91">
+        <f t="shared" ref="J91:J93" si="16">IF(D91&gt;3,G91,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K91">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K91">
-        <f t="shared" si="11"/>
-        <v>1.8</v>
-      </c>
-      <c r="L91" t="s">
-        <v>220</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -5420,40 +5544,40 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F92">
         <v>90</v>
       </c>
       <c r="G92">
-        <f t="shared" ref="G92:G94" si="13">F92*E92/100</f>
-        <v>1.8</v>
+        <f t="shared" si="13"/>
+        <v>3.6</v>
       </c>
       <c r="H92">
-        <f t="shared" ref="H92:H94" si="14">IF(D92&gt;1,G92,0)</f>
-        <v>1.8</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="I92">
-        <f t="shared" ref="I92:I94" si="15">IF(D92&gt;2,G92,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" ref="J92:J94" si="16">IF(D92&gt;3,G92,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K92">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -5461,21 +5585,21 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93">
         <v>90</v>
       </c>
       <c r="G93">
         <f t="shared" si="13"/>
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H93">
         <f t="shared" si="14"/>
@@ -5490,109 +5614,117 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" t="s">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ref="G94:G119" si="17">F94*E94/100</f>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ref="H94:H119" si="18">IF(D94&gt;1,G94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ref="I94:I119" si="19">IF(D94&gt;2,G94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ref="J94:J119" si="20">IF(D94&gt;3,G94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94">
-        <v>90</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="13"/>
-        <v>1.8</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
       <c r="C95">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUM(G96:G110)</f>
+        <v>19.399999999999999</v>
       </c>
       <c r="G95">
-        <f t="shared" ref="G95:G120" si="17">F95*E95/100</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" ref="H95:H120" si="18">IF(D95&gt;1,G95,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I95">
-        <f t="shared" ref="I95:I120" si="19">IF(D95&gt;2,G95,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" ref="J95:J120" si="20">IF(D95&gt;3,G95,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K95">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="1" t="s">
-        <v>96</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
       </c>
       <c r="C96">
-        <f>SUM(G97:G111)</f>
-        <v>19.399999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>100</v>
       </c>
       <c r="G96">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="2" t="s">
-        <v>103</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>199</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5604,44 +5736,44 @@
         <v>4</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G97">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H97">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="I97">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J97">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="K97">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1.6</v>
       </c>
       <c r="L97" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="N97">
         <v>1</v>
       </c>
       <c r="O97" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -5675,22 +5807,22 @@
         <v>1.6</v>
       </c>
       <c r="K98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
       <c r="L98" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N98">
         <v>1</v>
       </c>
       <c r="O98" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -5702,42 +5834,42 @@
         <v>4</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>80</v>
       </c>
       <c r="G99">
         <f t="shared" si="17"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H99">
         <f t="shared" si="18"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="I99">
         <f t="shared" si="19"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="J99">
         <f t="shared" si="20"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="K99">
-        <f t="shared" si="11"/>
-        <v>1.6</v>
+        <f t="shared" si="10"/>
+        <v>0.8</v>
       </c>
       <c r="L99" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="N99">
         <v>1</v>
       </c>
       <c r="O99" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -5751,44 +5883,44 @@
         <v>4</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100">
         <v>80</v>
       </c>
       <c r="G100">
         <f t="shared" si="17"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H100">
         <f t="shared" si="18"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I100">
         <f t="shared" si="19"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="J100">
         <f t="shared" si="20"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="K100">
-        <f t="shared" si="11"/>
-        <v>0.8</v>
+        <f t="shared" si="10"/>
+        <v>1.6</v>
       </c>
       <c r="L100" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N100">
         <v>1</v>
       </c>
       <c r="O100" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -5822,22 +5954,22 @@
         <v>1.6</v>
       </c>
       <c r="K101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
       <c r="L101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N101">
         <v>1</v>
       </c>
       <c r="O101" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -5871,22 +6003,22 @@
         <v>1.6</v>
       </c>
       <c r="K102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
       <c r="L102" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="N102">
         <v>1</v>
       </c>
       <c r="O102" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5895,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -5917,25 +6049,25 @@
       </c>
       <c r="J103">
         <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
-      <c r="K103">
-        <f t="shared" si="11"/>
-        <v>1.6</v>
-      </c>
       <c r="L103" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="N103">
         <v>1</v>
       </c>
       <c r="O103" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5944,47 +6076,47 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
       <c r="F104">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G104">
         <f t="shared" si="17"/>
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <f t="shared" si="18"/>
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <f t="shared" si="19"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K104">
-        <f t="shared" si="11"/>
-        <v>1.6</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N104">
         <v>1</v>
       </c>
       <c r="O104" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -5996,18 +6128,18 @@
         <v>2</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105">
         <v>50</v>
       </c>
       <c r="G105">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H105">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I105">
         <f t="shared" si="19"/>
@@ -6018,22 +6150,22 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0.5</v>
       </c>
       <c r="L105" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N105">
         <v>1</v>
       </c>
       <c r="O105" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -6042,33 +6174,33 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G106">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H106">
         <f t="shared" si="18"/>
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="I106">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J106">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K106">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
+        <f t="shared" si="10"/>
+        <v>1.6</v>
       </c>
       <c r="L106" t="s">
         <v>188</v>
@@ -6077,12 +6209,12 @@
         <v>1</v>
       </c>
       <c r="O106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -6116,22 +6248,22 @@
         <v>1.6</v>
       </c>
       <c r="K107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
       <c r="L107" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="N107">
         <v>1</v>
       </c>
       <c r="O107" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -6140,47 +6272,47 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G108">
         <f t="shared" si="17"/>
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H108">
         <f t="shared" si="18"/>
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="I108">
         <f t="shared" si="19"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <f t="shared" si="20"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <f t="shared" si="11"/>
-        <v>1.6</v>
+        <f t="shared" si="10"/>
+        <v>0.9</v>
       </c>
       <c r="L108" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="N108">
         <v>1</v>
       </c>
       <c r="O108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -6189,47 +6321,47 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G109">
         <f t="shared" si="17"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H109">
         <f t="shared" si="18"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I109">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J109">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K109">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
+        <f t="shared" si="10"/>
+        <v>0.8</v>
       </c>
       <c r="L109" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="N109">
         <v>1</v>
       </c>
       <c r="O109" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -6241,30 +6373,30 @@
         <v>3</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110">
         <v>80</v>
       </c>
       <c r="G110">
         <f t="shared" si="17"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H110">
         <f t="shared" si="18"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I110">
         <f t="shared" si="19"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="J110">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K110">
-        <f t="shared" si="11"/>
-        <v>0.8</v>
+        <f t="shared" si="10"/>
+        <v>1.6</v>
       </c>
       <c r="L110" t="s">
         <v>183</v>
@@ -6273,21 +6405,21 @@
         <v>1</v>
       </c>
       <c r="O110" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -6309,25 +6441,25 @@
       </c>
       <c r="J111">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
       <c r="L111" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="N111">
         <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -6348,35 +6480,23 @@
         <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
-      <c r="H112">
-        <f t="shared" si="18"/>
+      <c r="K112">
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
-      <c r="I112">
-        <f t="shared" si="19"/>
-        <v>1.6</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="20"/>
-        <v>1.6</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="11"/>
-        <v>1.6</v>
-      </c>
       <c r="L112" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="N112">
         <v>1</v>
       </c>
       <c r="O112" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -6398,22 +6518,22 @@
         <v>1.6</v>
       </c>
       <c r="K113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
       <c r="L113" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="N113">
         <v>1</v>
       </c>
       <c r="O113" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -6422,35 +6542,35 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F114">
         <v>80</v>
       </c>
       <c r="G114">
         <f t="shared" si="17"/>
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="K114">
-        <f t="shared" si="11"/>
-        <v>1.6</v>
+        <f t="shared" si="10"/>
+        <v>3.2</v>
       </c>
       <c r="L114" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="N114">
         <v>1</v>
       </c>
       <c r="O114" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -6462,32 +6582,32 @@
         <v>3</v>
       </c>
       <c r="E115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F115">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G115">
         <f t="shared" si="17"/>
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="K115">
-        <f t="shared" si="11"/>
-        <v>3.2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N115">
         <v>1</v>
       </c>
       <c r="O115" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -6499,32 +6619,32 @@
         <v>3</v>
       </c>
       <c r="E116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F116">
         <v>20</v>
       </c>
       <c r="G116">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="K116">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1.2</v>
       </c>
       <c r="L116" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N116">
         <v>1</v>
       </c>
       <c r="O116" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -6536,79 +6656,70 @@
         <v>3</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F117">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G117">
         <f t="shared" si="17"/>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="K117">
-        <f t="shared" si="11"/>
-        <v>1.2</v>
+        <f t="shared" si="10"/>
+        <v>1.6</v>
       </c>
       <c r="L117" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N117">
         <v>1</v>
       </c>
       <c r="O117" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <f>IF(D118=4, 1,0)</f>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118">
         <v>80</v>
       </c>
       <c r="G118">
         <f t="shared" si="17"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="K118">
-        <f t="shared" si="11"/>
-        <v>1.6</v>
-      </c>
-      <c r="L118" t="s">
-        <v>135</v>
-      </c>
-      <c r="N118">
-        <v>1</v>
-      </c>
-      <c r="O118" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <f t="shared" ref="K118:K137" si="21">IF(C118=1,E118*F118/100,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119">
-        <f>IF(D119=4, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6620,14 +6731,35 @@
         <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
+      <c r="H119">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
       <c r="K119">
-        <f t="shared" ref="K119:K141" si="21">IF(C119=1,E119*F119/100,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <f t="shared" si="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="L119" t="s">
+        <v>130</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -6636,45 +6768,45 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F120">
         <v>80</v>
       </c>
       <c r="G120">
-        <f t="shared" si="17"/>
-        <v>0.8</v>
+        <f t="shared" ref="G120:G125" si="22">F120*E120/100</f>
+        <v>1.6</v>
       </c>
       <c r="H120">
-        <f t="shared" si="18"/>
-        <v>0.8</v>
+        <f t="shared" ref="H120:H125" si="23">IF(D120&gt;1,G120,0)</f>
+        <v>1.6</v>
       </c>
       <c r="I120">
-        <f t="shared" si="19"/>
-        <v>0.8</v>
+        <f t="shared" ref="I120:I125" si="24">IF(D120&gt;2,G120,0)</f>
+        <v>1.6</v>
       </c>
       <c r="J120">
-        <f t="shared" si="20"/>
-        <v>0.8</v>
+        <f t="shared" ref="J120:J125" si="25">IF(D120&gt;3,G120,0)</f>
+        <v>0</v>
       </c>
       <c r="K120">
         <f t="shared" si="21"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="L120" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="N120">
         <v>1</v>
       </c>
       <c r="O120" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>105</v>
       </c>
@@ -6694,19 +6826,19 @@
         <v>80</v>
       </c>
       <c r="G121">
-        <f t="shared" ref="G121:G126" si="22">F121*E121/100</f>
+        <f t="shared" si="22"/>
         <v>1.6</v>
       </c>
       <c r="H121">
-        <f t="shared" ref="H121:H126" si="23">IF(D121&gt;1,G121,0)</f>
+        <f t="shared" si="23"/>
         <v>1.6</v>
       </c>
       <c r="I121">
-        <f t="shared" ref="I121:I126" si="24">IF(D121&gt;2,G121,0)</f>
+        <f t="shared" si="24"/>
         <v>1.6</v>
       </c>
       <c r="J121">
-        <f t="shared" ref="J121:J126" si="25">IF(D121&gt;3,G121,0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K121">
@@ -6714,18 +6846,18 @@
         <v>1.6</v>
       </c>
       <c r="L121" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="N121">
         <v>1</v>
       </c>
       <c r="O121" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -6737,22 +6869,22 @@
         <v>3</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F122">
         <v>80</v>
       </c>
       <c r="G122">
         <f t="shared" si="22"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H122">
         <f t="shared" si="23"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="I122">
         <f t="shared" si="24"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="J122">
         <f t="shared" si="25"/>
@@ -6760,48 +6892,49 @@
       </c>
       <c r="K122">
         <f t="shared" si="21"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="L122" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="N122">
         <v>1</v>
       </c>
       <c r="O122" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <f t="shared" ref="C123:C127" si="26">IF(D123=4, 1,0)</f>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F123">
         <v>80</v>
       </c>
       <c r="G123">
         <f t="shared" si="22"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H123">
         <f t="shared" si="23"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <f t="shared" si="24"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J123">
         <f t="shared" si="25"/>
@@ -6809,41 +6942,32 @@
       </c>
       <c r="K123">
         <f t="shared" si="21"/>
-        <v>0.8</v>
-      </c>
-      <c r="L123" t="s">
-        <v>215</v>
-      </c>
-      <c r="N123">
-        <v>1</v>
-      </c>
-      <c r="O123" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:C141" si="26">IF(D124=4, 1,0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124">
         <v>80</v>
       </c>
       <c r="G124">
         <f t="shared" si="22"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H124">
         <f t="shared" si="23"/>
@@ -6862,9 +6986,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -6874,21 +6998,21 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125">
         <v>80</v>
       </c>
       <c r="G125">
         <f t="shared" si="22"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H125">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I125">
         <f t="shared" si="24"/>
@@ -6903,40 +7027,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
-      <c r="A126" t="s">
-        <v>108</v>
-      </c>
-      <c r="B126">
-        <v>2</v>
-      </c>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C126">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126">
-        <v>2</v>
-      </c>
-      <c r="F126">
-        <v>80</v>
-      </c>
       <c r="G126">
-        <f t="shared" si="22"/>
-        <v>1.6</v>
+        <f t="shared" ref="G126:G137" si="27">F126*E126/100</f>
+        <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" si="23"/>
-        <v>1.6</v>
+        <f t="shared" ref="H126:H137" si="28">IF(D126&gt;1,G126,0)</f>
+        <v>0</v>
       </c>
       <c r="I126">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="I126:I137" si="29">IF(D126&gt;2,G126,0)</f>
         <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="J126:J137" si="30">IF(D126&gt;3,G126,0)</f>
         <v>0</v>
       </c>
       <c r="K126">
@@ -6944,25 +7053,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C127">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" ref="G127:G141" si="27">F127*E127/100</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" ref="H127:H141" si="28">IF(D127&gt;1,G127,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I127">
-        <f t="shared" ref="I127:I141" si="29">IF(D127&gt;2,G127,0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" ref="J127:J141" si="30">IF(D127&gt;3,G127,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K127">
@@ -6970,36 +7082,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>115</v>
       </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
       <c r="C128">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>50</v>
       </c>
       <c r="G128">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>172</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>116</v>
       </c>
@@ -7016,39 +7148,39 @@
         <v>2</v>
       </c>
       <c r="F129">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G129">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H129">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="I129">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J129">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="K129">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="L129" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="N129">
         <v>1</v>
       </c>
       <c r="O129" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>117</v>
       </c>
@@ -7065,39 +7197,39 @@
         <v>2</v>
       </c>
       <c r="F130">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G130">
         <f t="shared" si="27"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H130">
         <f t="shared" si="28"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I130">
         <f t="shared" si="29"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J130">
         <f t="shared" si="30"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="K130">
         <f t="shared" si="21"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L130" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="N130">
         <v>1</v>
       </c>
       <c r="O130" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>118</v>
       </c>
@@ -7137,16 +7269,16 @@
         <v>1.8</v>
       </c>
       <c r="L131" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N131">
         <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>119</v>
       </c>
@@ -7186,16 +7318,16 @@
         <v>1.8</v>
       </c>
       <c r="L132" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N132">
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>120</v>
       </c>
@@ -7206,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -7228,23 +7360,23 @@
       </c>
       <c r="J133">
         <f t="shared" si="30"/>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K133">
         <f t="shared" si="21"/>
         <v>1.8</v>
       </c>
       <c r="L133" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N133">
         <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>121</v>
       </c>
@@ -7255,7 +7387,7 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -7273,7 +7405,7 @@
       </c>
       <c r="I134">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <f t="shared" si="30"/>
@@ -7284,41 +7416,41 @@
         <v>1.8</v>
       </c>
       <c r="L134" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N134">
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>2</v>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F135">
         <v>90</v>
       </c>
       <c r="G135">
         <f t="shared" si="27"/>
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H135">
         <f t="shared" si="28"/>
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="I135">
         <f t="shared" si="29"/>
@@ -7330,31 +7462,21 @@
       </c>
       <c r="K135">
         <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
-      <c r="L135" t="s">
-        <v>178</v>
-      </c>
-      <c r="N135">
-        <v>1</v>
-      </c>
-      <c r="O135" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -7372,44 +7494,52 @@
       </c>
       <c r="I136">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J136">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K136">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+        <v>1.8</v>
+      </c>
+      <c r="L136" t="s">
+        <v>172</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137">
         <v>2</v>
       </c>
       <c r="F137">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G137">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H137">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I137">
         <f t="shared" si="29"/>
@@ -7421,192 +7551,22 @@
       </c>
       <c r="K137">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>2</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>90</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="27"/>
-        <v>0.9</v>
-      </c>
-      <c r="H138">
-        <f t="shared" si="28"/>
-        <v>0.9</v>
-      </c>
-      <c r="I138">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" t="s">
-        <v>125</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>4</v>
-      </c>
-      <c r="E139">
-        <v>2</v>
-      </c>
-      <c r="F139">
-        <v>90</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="27"/>
         <v>1.8</v>
       </c>
-      <c r="H139">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I139">
-        <f t="shared" si="29"/>
-        <v>1.8</v>
-      </c>
-      <c r="J139">
-        <f t="shared" si="30"/>
-        <v>1.8</v>
-      </c>
-      <c r="K139">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
-      <c r="L139" t="s">
-        <v>178</v>
-      </c>
-      <c r="N139">
-        <v>1</v>
-      </c>
-      <c r="O139" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" t="s">
-        <v>126</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>2</v>
-      </c>
-      <c r="E140">
-        <v>2</v>
-      </c>
-      <c r="F140">
-        <v>90</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-      <c r="H140">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I140">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <f t="shared" si="21"/>
-        <v>1.8</v>
-      </c>
-      <c r="L140" t="s">
-        <v>178</v>
-      </c>
-      <c r="N140">
-        <v>1</v>
-      </c>
-      <c r="O140" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" t="s">
-        <v>127</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>2</v>
-      </c>
-      <c r="E141">
-        <v>2</v>
-      </c>
-      <c r="F141">
-        <v>90</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="27"/>
-        <v>1.8</v>
-      </c>
-      <c r="H141">
-        <f t="shared" si="28"/>
-        <v>1.8</v>
-      </c>
-      <c r="I141">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="N142">
-        <f>SUM(N1:N141)</f>
-        <v>109</v>
+      <c r="L137" t="s">
+        <v>172</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N138">
+        <f>SUM(N1:N137)</f>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -7615,7 +7575,7 @@
     <mergeCell ref="O1:O4"/>
     <mergeCell ref="P1:P4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:A12 A14:A45 A47:A53 A55:A56 A59:A62 A4 A64:A95 A97:A1048576">
+  <conditionalFormatting sqref="A6:A12 A14:A45 A47:A53 A55:A56 A59:A62 A4 A64:A94 A96:A1048576">
     <cfRule type="expression" dxfId="16" priority="9">
       <formula>$B4=2</formula>
     </cfRule>
@@ -7672,14 +7632,15 @@
       <formula>$D1=4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
+  <conditionalFormatting sqref="A95">
     <cfRule type="expression" dxfId="1" priority="31">
-      <formula>$C96=2</formula>
+      <formula>$C95=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="32">
-      <formula>$C96=1</formula>
+      <formula>$C95=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\Documents\GitHub\Farrell_Garrett_Wedding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="247">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -762,13 +757,16 @@
   </si>
   <si>
     <t>P.O. Box 296, Milton, IN 47357</t>
+  </si>
+  <si>
+    <t>Need address after she moves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,6 +784,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -847,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -858,10 +863,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1391,36 +1397,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="11" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="35.5703125" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="7">
         <v>4</v>
       </c>
@@ -1447,17 +1453,17 @@
         <f>SUMIF(D6:D224,"&gt;3",E6:E224)</f>
         <v>130</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -1476,11 +1482,11 @@
       <c r="G2" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1507,9 +1513,9 @@
         <f>SUM(J:J)</f>
         <v>85.499999999999915</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
       <c r="R3" t="s">
         <v>38</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1557,11 +1563,11 @@
       <c r="M4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1854,6 +1860,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="L11" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1861,7 +1870,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="B12" s="1"/>
       <c r="C12">
         <f t="shared" ref="C12:C62" si="5">IF(D12=4, 1,0)</f>
@@ -1888,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1917,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1966,7 +1975,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2015,7 +2024,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2054,7 +2063,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>244</v>
       </c>
       <c r="M16" s="9"/>
@@ -2065,7 +2074,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2111,7 +2120,7 @@
       </c>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2160,7 +2169,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>237</v>
       </c>
@@ -2259,7 +2268,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2298,14 +2307,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L21" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -2354,7 +2367,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -2403,7 +2416,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -2451,7 +2464,7 @@
       </c>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -2500,7 +2513,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -2549,7 +2562,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -2598,7 +2611,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -2647,7 +2660,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -2696,7 +2709,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -2745,7 +2758,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2807,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -2843,7 +2856,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -2892,7 +2905,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -2941,7 +2954,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -2990,7 +3003,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -3039,7 +3052,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -3088,7 +3101,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -3137,7 +3150,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -3186,7 +3199,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -3235,7 +3248,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -3284,7 +3297,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -3332,7 +3345,7 @@
       </c>
       <c r="O42" s="8"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>138</v>
       </c>
@@ -3381,7 +3394,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="2"/>
       <c r="C44">
         <f t="shared" si="5"/>
@@ -3408,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="B45" s="1"/>
       <c r="C45">
         <f t="shared" si="5"/>
@@ -3435,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>30</v>
       </c>
@@ -3463,11 +3476,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -3515,8 +3525,11 @@
       <c r="N47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -3564,8 +3577,11 @@
       <c r="N48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -3613,8 +3629,11 @@
       <c r="N49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -3662,8 +3681,11 @@
       <c r="N50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -3711,8 +3733,11 @@
       <c r="N51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -3751,14 +3776,16 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="M52" t="s">
+      <c r="L52" s="8"/>
+      <c r="M52" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N52" s="8">
+        <v>1</v>
+      </c>
+      <c r="O52" s="8"/>
+    </row>
+    <row r="53" spans="1:15">
       <c r="C53">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3784,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -3813,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -3863,7 +3890,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -3913,7 +3940,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -3963,7 +3990,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -4012,7 +4039,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -4061,7 +4088,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -4110,7 +4137,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -4159,7 +4186,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="C62">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4185,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4214,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4264,7 +4291,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4313,7 +4340,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4365,7 +4392,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -4415,7 +4442,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>213</v>
       </c>
@@ -4464,7 +4491,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>240</v>
       </c>
@@ -4488,7 +4515,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4537,7 +4564,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4587,7 +4614,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4636,7 +4663,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4685,7 +4712,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4734,7 +4761,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4783,7 +4810,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4832,7 +4859,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4881,7 +4908,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4930,7 +4957,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -4979,7 +5006,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -5028,7 +5055,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>171</v>
       </c>
@@ -5077,7 +5104,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -5126,7 +5153,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -5175,7 +5202,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>215</v>
       </c>
@@ -5224,7 +5251,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -5274,7 +5301,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -5315,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -5364,7 +5391,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>160</v>
       </c>
@@ -5405,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -5446,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -5495,7 +5522,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -5536,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -5577,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -5618,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="C94">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5644,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -5673,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="2" t="s">
         <v>102</v>
       </c>
@@ -5722,7 +5749,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5771,7 +5798,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -5820,7 +5847,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -5869,7 +5896,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -5918,7 +5945,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -5967,7 +5994,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -6016,7 +6043,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -6065,7 +6092,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -6114,7 +6141,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>181</v>
       </c>
@@ -6163,7 +6190,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -6212,7 +6239,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -6261,7 +6288,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>193</v>
       </c>
@@ -6310,7 +6337,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>101</v>
       </c>
@@ -6359,7 +6386,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
         <v>197</v>
       </c>
@@ -6408,7 +6435,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
         <v>198</v>
       </c>
@@ -6457,7 +6484,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -6494,7 +6521,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>157</v>
       </c>
@@ -6531,7 +6558,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>206</v>
       </c>
@@ -6568,7 +6595,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -6605,7 +6632,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
         <v>109</v>
       </c>
@@ -6642,7 +6669,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
         <v>162</v>
       </c>
@@ -6679,7 +6706,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
         <v>110</v>
       </c>
@@ -6708,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
         <v>112</v>
       </c>
@@ -6757,7 +6784,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -6806,7 +6833,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
         <v>105</v>
       </c>
@@ -6855,7 +6882,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -6904,7 +6931,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -6945,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
         <v>113</v>
       </c>
@@ -6986,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
         <v>107</v>
       </c>
@@ -7027,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="C126">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -7053,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="1" t="s">
         <v>114</v>
       </c>
@@ -7082,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
         <v>115</v>
       </c>
@@ -7131,7 +7158,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
         <v>116</v>
       </c>
@@ -7180,7 +7207,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
         <v>117</v>
       </c>
@@ -7229,7 +7256,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>118</v>
       </c>
@@ -7278,7 +7305,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
         <v>119</v>
       </c>
@@ -7327,7 +7354,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>120</v>
       </c>
@@ -7376,7 +7403,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>121</v>
       </c>
@@ -7425,7 +7452,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>163</v>
       </c>
@@ -7465,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>122</v>
       </c>
@@ -7514,7 +7541,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -7563,10 +7590,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="N138">
         <f>SUM(N1:N137)</f>
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="249">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -760,6 +760,12 @@
   </si>
   <si>
     <t>Need address after she moves</t>
+  </si>
+  <si>
+    <t>5509 N 200 E, Attica, IN 47918</t>
+  </si>
+  <si>
+    <t>Hand deliver</t>
   </si>
 </sst>
 </file>
@@ -864,10 +870,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1397,7 +1403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1408,8 +1414,8 @@
   <dimension ref="A1:S138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1453,13 +1459,13 @@
         <f>SUMIF(D6:D224,"&gt;3",E6:E224)</f>
         <v>130</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1482,9 +1488,9 @@
       <c r="G2" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="4">
@@ -1513,9 +1519,9 @@
         <f>SUM(J:J)</f>
         <v>85.499999999999915</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
       <c r="R3" t="s">
         <v>38</v>
       </c>
@@ -1563,9 +1569,9 @@
       <c r="M4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
@@ -1860,7 +1866,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>246</v>
       </c>
       <c r="N11">
@@ -3776,14 +3782,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8" t="s">
+      <c r="L52" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="M52" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="N52" s="8">
-        <v>1</v>
-      </c>
-      <c r="O52" s="8"/>
+      <c r="N52" s="9">
+        <v>1</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="53" spans="1:15">
       <c r="C53">

--- a/Guest_List_Initial.xlsx
+++ b/Guest_List_Initial.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="249">
   <si>
     <t xml:space="preserve">Priority </t>
   </si>
@@ -1403,7 +1403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1414,8 +1414,8 @@
   <dimension ref="A1:S138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O53" sqref="O53"/>
+      <pane ySplit="4" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P128" sqref="P128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2461,14 +2461,16 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8">
-        <v>1</v>
-      </c>
-      <c r="O24" s="8"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9">
+        <v>1</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
